--- a/documentation/Python Project Management Sheet.xlsx
+++ b/documentation/Python Project Management Sheet.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndasilva\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects_2024-2025\Infeed700Plus\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335BCA7D-51E5-46C1-8133-6FA85B814FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5B8E1A-5224-4A1E-A559-DE9BFF312E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma de projeto" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G32" authorId="0" shapeId="0" xr:uid="{A4BC133B-1601-4AD0-BCD6-BD812AB641B0}">
+    <comment ref="G31" authorId="0" shapeId="0" xr:uid="{A4BC133B-1601-4AD0-BCD6-BD812AB641B0}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="79">
   <si>
     <t>DATA</t>
   </si>
@@ -941,7 +942,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="120">
+  <borders count="117">
     <border>
       <left/>
       <right/>
@@ -1994,41 +1995,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </left>
@@ -2454,7 +2420,7 @@
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="305">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2760,11 +2726,379 @@
     <xf numFmtId="0" fontId="31" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="33" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="30" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="30" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="29" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="30" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="29" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="30" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="29" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="30" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="42" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="28" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="26" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2778,543 +3112,163 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="85" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="26" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="27" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="21" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="29" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="29" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="29" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="29" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="42" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="33" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="54" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="30" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="28" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="42" fillId="0" borderId="88" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="42" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="30" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="29" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="30" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="30" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="30" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="29" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="29" borderId="107" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="42" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="42" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="29" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="29" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3322,7 +3276,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -3471,7 +3433,7 @@
                   <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>40</c:v>
@@ -3483,7 +3445,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>454</c:v>
+                  <c:v>444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3771,7 +3733,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>192</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>48</c:v>
@@ -5436,10 +5398,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ84"/>
+  <dimension ref="A1:BQ83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5462,75 +5424,75 @@
   <sheetData>
     <row r="1" spans="1:68" s="4" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="275" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="107"/>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
-      <c r="AO1" s="107"/>
-      <c r="AP1" s="107"/>
-      <c r="AQ1" s="107"/>
-      <c r="AR1" s="107"/>
-      <c r="AS1" s="107"/>
-      <c r="AT1" s="107"/>
-      <c r="AU1" s="107"/>
-      <c r="AV1" s="106"/>
-      <c r="AW1" s="107"/>
-      <c r="AX1" s="107"/>
-      <c r="AY1" s="107"/>
-      <c r="AZ1" s="107"/>
-      <c r="BA1" s="107"/>
-      <c r="BB1" s="107"/>
-      <c r="BC1" s="107"/>
-      <c r="BD1" s="107"/>
-      <c r="BE1" s="107"/>
-      <c r="BF1" s="107"/>
-      <c r="BG1" s="107"/>
-      <c r="BH1" s="107"/>
-      <c r="BI1" s="107"/>
-      <c r="BJ1" s="106"/>
-      <c r="BK1" s="107"/>
-      <c r="BL1" s="107"/>
-      <c r="BM1" s="107"/>
-      <c r="BN1" s="107"/>
-      <c r="BO1" s="107"/>
-      <c r="BP1" s="107"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="276"/>
+      <c r="G1" s="276"/>
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="276"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
+      <c r="N1" s="233"/>
+      <c r="O1" s="233"/>
+      <c r="P1" s="233"/>
+      <c r="Q1" s="233"/>
+      <c r="R1" s="233"/>
+      <c r="S1" s="233"/>
+      <c r="T1" s="232"/>
+      <c r="U1" s="233"/>
+      <c r="V1" s="233"/>
+      <c r="W1" s="233"/>
+      <c r="X1" s="233"/>
+      <c r="Y1" s="233"/>
+      <c r="Z1" s="233"/>
+      <c r="AA1" s="233"/>
+      <c r="AB1" s="233"/>
+      <c r="AC1" s="233"/>
+      <c r="AD1" s="233"/>
+      <c r="AE1" s="233"/>
+      <c r="AF1" s="233"/>
+      <c r="AG1" s="233"/>
+      <c r="AH1" s="232"/>
+      <c r="AI1" s="233"/>
+      <c r="AJ1" s="233"/>
+      <c r="AK1" s="233"/>
+      <c r="AL1" s="233"/>
+      <c r="AM1" s="233"/>
+      <c r="AN1" s="233"/>
+      <c r="AO1" s="233"/>
+      <c r="AP1" s="233"/>
+      <c r="AQ1" s="233"/>
+      <c r="AR1" s="233"/>
+      <c r="AS1" s="233"/>
+      <c r="AT1" s="233"/>
+      <c r="AU1" s="233"/>
+      <c r="AV1" s="232"/>
+      <c r="AW1" s="233"/>
+      <c r="AX1" s="233"/>
+      <c r="AY1" s="233"/>
+      <c r="AZ1" s="233"/>
+      <c r="BA1" s="233"/>
+      <c r="BB1" s="233"/>
+      <c r="BC1" s="233"/>
+      <c r="BD1" s="233"/>
+      <c r="BE1" s="233"/>
+      <c r="BF1" s="233"/>
+      <c r="BG1" s="233"/>
+      <c r="BH1" s="233"/>
+      <c r="BI1" s="233"/>
+      <c r="BJ1" s="232"/>
+      <c r="BK1" s="233"/>
+      <c r="BL1" s="233"/>
+      <c r="BM1" s="233"/>
+      <c r="BN1" s="233"/>
+      <c r="BO1" s="233"/>
+      <c r="BP1" s="233"/>
     </row>
     <row r="2" spans="1:68" s="4" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -5538,7 +5500,7 @@
       <c r="C2" s="7"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="129"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -5604,54 +5566,54 @@
     </row>
     <row r="3" spans="1:68" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="150" t="s">
+      <c r="C3" s="126"/>
+      <c r="D3" s="303" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="150"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152" t="s">
+      <c r="E3" s="303"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="234" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152" t="s">
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
+      <c r="N3" s="234"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="234" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
-      <c r="S3" s="152"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="151"/>
+      <c r="Q3" s="234"/>
+      <c r="R3" s="234"/>
+      <c r="S3" s="234"/>
+      <c r="T3" s="234"/>
+      <c r="U3" s="127"/>
       <c r="V3" s="86"/>
       <c r="W3" s="86"/>
       <c r="X3" s="86"/>
       <c r="Y3" s="86"/>
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
-      <c r="AJ3" s="152" t="s">
+      <c r="AJ3" s="234" t="s">
         <v>70</v>
       </c>
-      <c r="AK3" s="152"/>
-      <c r="AL3" s="152"/>
-      <c r="AM3" s="152"/>
-      <c r="AN3" s="152"/>
-      <c r="AO3" s="152" t="s">
+      <c r="AK3" s="234"/>
+      <c r="AL3" s="234"/>
+      <c r="AM3" s="234"/>
+      <c r="AN3" s="234"/>
+      <c r="AO3" s="234" t="s">
         <v>23</v>
       </c>
-      <c r="AP3" s="152"/>
-      <c r="AQ3" s="152"/>
-      <c r="AR3" s="152"/>
-      <c r="AS3" s="152"/>
+      <c r="AP3" s="234"/>
+      <c r="AQ3" s="234"/>
+      <c r="AR3" s="234"/>
+      <c r="AS3" s="234"/>
       <c r="AT3" s="85"/>
       <c r="AU3" s="86"/>
       <c r="AV3" s="86"/>
@@ -5678,38 +5640,38 @@
     </row>
     <row r="4" spans="1:68" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="149"/>
-      <c r="D4" s="153">
+      <c r="C4" s="126"/>
+      <c r="D4" s="302">
         <v>45554</v>
       </c>
-      <c r="E4" s="153"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="154" t="s">
+      <c r="E4" s="302"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="197">
-        <f>SUMIF($H$16:$H$84,K4,$I$16:$I$84)</f>
+      <c r="L4" s="235"/>
+      <c r="M4" s="235"/>
+      <c r="N4" s="235"/>
+      <c r="O4" s="245"/>
+      <c r="P4" s="281">
+        <f>SUMIF($H$16:$H$83,K4,$I$16:$I$83)</f>
         <v>315</v>
       </c>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="201">
+      <c r="Q4" s="235"/>
+      <c r="R4" s="282"/>
+      <c r="S4" s="243">
         <f>P4/$P$9</f>
-        <v>0.69383259911894268</v>
-      </c>
-      <c r="T4" s="202"/>
-      <c r="U4" s="151"/>
+        <v>0.70945945945945943</v>
+      </c>
+      <c r="T4" s="244"/>
+      <c r="U4" s="127"/>
       <c r="V4" s="86"/>
       <c r="W4" s="86" t="str">
         <f>K4</f>
@@ -5722,24 +5684,24 @@
       <c r="Y4" s="88"/>
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
-      <c r="AJ4" s="154" t="s">
+      <c r="AJ4" s="235" t="s">
         <v>42</v>
       </c>
-      <c r="AK4" s="154"/>
-      <c r="AL4" s="154"/>
-      <c r="AM4" s="154"/>
-      <c r="AN4" s="154"/>
-      <c r="AO4" s="154">
-        <f ca="1">SUMIF($C$30:$E$84,AJ4,$I$30:$I$84)</f>
-        <v>192</v>
-      </c>
-      <c r="AP4" s="154"/>
-      <c r="AQ4" s="154"/>
-      <c r="AR4" s="201">
+      <c r="AK4" s="235"/>
+      <c r="AL4" s="235"/>
+      <c r="AM4" s="235"/>
+      <c r="AN4" s="235"/>
+      <c r="AO4" s="235">
+        <f t="shared" ref="AO4:AO9" ca="1" si="0">SUMIF($C$29:$E$83,AJ4,$I$29:$I$83)</f>
+        <v>182</v>
+      </c>
+      <c r="AP4" s="235"/>
+      <c r="AQ4" s="235"/>
+      <c r="AR4" s="243">
         <f ca="1">AO4/$AO$10</f>
-        <v>0.42290748898678415</v>
-      </c>
-      <c r="AS4" s="202"/>
+        <v>0.40990990990990989</v>
+      </c>
+      <c r="AS4" s="244"/>
       <c r="AT4" s="87"/>
       <c r="AU4" s="86" t="str">
         <f>AJ4</f>
@@ -5747,7 +5709,7 @@
       </c>
       <c r="AV4" s="86">
         <f ca="1">AO4</f>
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="AW4" s="86"/>
       <c r="AX4" s="86"/>
@@ -5772,46 +5734,46 @@
     </row>
     <row r="5" spans="1:68" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="148" t="s">
+      <c r="B5" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="293" t="s">
+      <c r="C5" s="128"/>
+      <c r="D5" s="304" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="293"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="122"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="105"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="154" t="s">
+      <c r="K5" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="154"/>
-      <c r="M5" s="154"/>
-      <c r="N5" s="154"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="197">
-        <f>SUMIF($H$16:$H$84,K5,$I$16:$I$84)</f>
-        <v>95</v>
-      </c>
-      <c r="Q5" s="154"/>
-      <c r="R5" s="154"/>
-      <c r="S5" s="201">
-        <f t="shared" ref="S5:S8" si="0">P5/$P$9</f>
-        <v>0.20925110132158589</v>
-      </c>
-      <c r="T5" s="202"/>
+      <c r="L5" s="235"/>
+      <c r="M5" s="235"/>
+      <c r="N5" s="235"/>
+      <c r="O5" s="245"/>
+      <c r="P5" s="281">
+        <f>SUMIF($H$16:$H$83,K5,$I$16:$I$83)</f>
+        <v>85</v>
+      </c>
+      <c r="Q5" s="235"/>
+      <c r="R5" s="235"/>
+      <c r="S5" s="243">
+        <f t="shared" ref="S5:S8" si="1">P5/$P$9</f>
+        <v>0.19144144144144143</v>
+      </c>
+      <c r="T5" s="244"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="86" t="str">
-        <f t="shared" ref="W5:W9" si="1">K5</f>
+        <f t="shared" ref="W5:W9" si="2">K5</f>
         <v>Darren</v>
       </c>
       <c r="X5" s="86">
-        <f t="shared" ref="X5:X9" si="2">P5</f>
-        <v>95</v>
+        <f t="shared" ref="X5:X9" si="3">P5</f>
+        <v>85</v>
       </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
@@ -5824,31 +5786,31 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
-      <c r="AJ5" s="154" t="s">
+      <c r="AJ5" s="235" t="s">
         <v>43</v>
       </c>
-      <c r="AK5" s="154"/>
-      <c r="AL5" s="154"/>
-      <c r="AM5" s="154"/>
-      <c r="AN5" s="154"/>
-      <c r="AO5" s="154">
-        <f ca="1">SUMIF($C$30:$E$84,AJ5,$I$30:$I$84)</f>
+      <c r="AK5" s="235"/>
+      <c r="AL5" s="235"/>
+      <c r="AM5" s="235"/>
+      <c r="AN5" s="235"/>
+      <c r="AO5" s="235">
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
       </c>
-      <c r="AP5" s="154"/>
-      <c r="AQ5" s="154"/>
-      <c r="AR5" s="201">
-        <f t="shared" ref="AR5:AR9" ca="1" si="3">AO5/$AO$10</f>
-        <v>0.10572687224669604</v>
-      </c>
-      <c r="AS5" s="202"/>
+      <c r="AP5" s="235"/>
+      <c r="AQ5" s="235"/>
+      <c r="AR5" s="243">
+        <f t="shared" ref="AR5:AR9" ca="1" si="4">AO5/$AO$10</f>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="AS5" s="244"/>
       <c r="AT5" s="87"/>
       <c r="AU5" s="86" t="str">
-        <f t="shared" ref="AU5:AU9" si="4">AJ5</f>
+        <f t="shared" ref="AU5:AU9" si="5">AJ5</f>
         <v>Phase 2</v>
       </c>
       <c r="AV5" s="86">
-        <f t="shared" ref="AV5:AV9" ca="1" si="5">AO5</f>
+        <f t="shared" ref="AV5:AV9" ca="1" si="6">AO5</f>
         <v>48</v>
       </c>
       <c r="AW5" s="86"/>
@@ -5874,45 +5836,45 @@
     </row>
     <row r="6" spans="1:68" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="125" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="156"/>
-      <c r="D6" s="293">
+      <c r="C6" s="128"/>
+      <c r="D6" s="304">
         <v>80002</v>
       </c>
-      <c r="E6" s="293"/>
-      <c r="F6" s="289"/>
-      <c r="G6" s="289"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="154" t="s">
+      <c r="K6" s="235" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="154"/>
-      <c r="M6" s="154"/>
-      <c r="N6" s="154"/>
-      <c r="O6" s="155"/>
-      <c r="P6" s="197">
-        <f>SUMIF($H$16:$H$84,K6,$I$16:$I$84)</f>
+      <c r="L6" s="235"/>
+      <c r="M6" s="235"/>
+      <c r="N6" s="235"/>
+      <c r="O6" s="245"/>
+      <c r="P6" s="281">
+        <f>SUMIF($H$16:$H$83,K6,$I$16:$I$83)</f>
         <v>40</v>
       </c>
-      <c r="Q6" s="154"/>
-      <c r="R6" s="154"/>
-      <c r="S6" s="201">
-        <f t="shared" si="0"/>
-        <v>8.8105726872246701E-2</v>
-      </c>
-      <c r="T6" s="202"/>
+      <c r="Q6" s="235"/>
+      <c r="R6" s="235"/>
+      <c r="S6" s="243">
+        <f t="shared" si="1"/>
+        <v>9.0090090090090086E-2</v>
+      </c>
+      <c r="T6" s="244"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Derek</v>
       </c>
       <c r="X6" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="Y6" s="3"/>
@@ -5926,31 +5888,31 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
-      <c r="AJ6" s="154" t="s">
+      <c r="AJ6" s="235" t="s">
         <v>44</v>
       </c>
-      <c r="AK6" s="154"/>
-      <c r="AL6" s="154"/>
-      <c r="AM6" s="154"/>
-      <c r="AN6" s="154"/>
-      <c r="AO6" s="154">
-        <f ca="1">SUMIF($C$30:$E$84,AJ6,$I$30:$I$84)</f>
+      <c r="AK6" s="235"/>
+      <c r="AL6" s="235"/>
+      <c r="AM6" s="235"/>
+      <c r="AN6" s="235"/>
+      <c r="AO6" s="235">
+        <f t="shared" ca="1" si="0"/>
         <v>52</v>
       </c>
-      <c r="AP6" s="154"/>
-      <c r="AQ6" s="154"/>
-      <c r="AR6" s="201">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.11453744493392071</v>
-      </c>
-      <c r="AS6" s="202"/>
+      <c r="AP6" s="235"/>
+      <c r="AQ6" s="235"/>
+      <c r="AR6" s="243">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.11711711711711711</v>
+      </c>
+      <c r="AS6" s="244"/>
       <c r="AT6" s="87"/>
       <c r="AU6" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Phase 3</v>
       </c>
       <c r="AV6" s="86">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>52</v>
       </c>
       <c r="AW6" s="86"/>
@@ -5976,45 +5938,45 @@
     </row>
     <row r="7" spans="1:68" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="293" t="s">
+      <c r="C7" s="129"/>
+      <c r="D7" s="304" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="293"/>
-      <c r="F7" s="290"/>
-      <c r="G7" s="290"/>
+      <c r="E7" s="304"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="269"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="154" t="s">
+      <c r="K7" s="235" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="154"/>
-      <c r="M7" s="154"/>
-      <c r="N7" s="154"/>
-      <c r="O7" s="155"/>
-      <c r="P7" s="197">
-        <f>SUMIF($H$16:$H$84,K7,$I$16:$I$84)</f>
+      <c r="L7" s="235"/>
+      <c r="M7" s="235"/>
+      <c r="N7" s="235"/>
+      <c r="O7" s="245"/>
+      <c r="P7" s="281">
+        <f>SUMIF($H$16:$H$83,K7,$I$16:$I$83)</f>
         <v>4</v>
       </c>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154"/>
-      <c r="S7" s="201">
-        <f t="shared" si="0"/>
-        <v>8.8105726872246704E-3</v>
-      </c>
-      <c r="T7" s="202"/>
+      <c r="Q7" s="235"/>
+      <c r="R7" s="235"/>
+      <c r="S7" s="243">
+        <f t="shared" si="1"/>
+        <v>9.0090090090090089E-3</v>
+      </c>
+      <c r="T7" s="244"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Paul H</v>
       </c>
       <c r="X7" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Y7" s="3"/>
@@ -6028,31 +5990,31 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
-      <c r="AJ7" s="154" t="s">
+      <c r="AJ7" s="235" t="s">
         <v>45</v>
       </c>
-      <c r="AK7" s="154"/>
-      <c r="AL7" s="154"/>
-      <c r="AM7" s="154"/>
-      <c r="AN7" s="154"/>
-      <c r="AO7" s="154">
-        <f ca="1">SUMIF($C$30:$E$84,AJ7,$I$30:$I$84)</f>
+      <c r="AK7" s="235"/>
+      <c r="AL7" s="235"/>
+      <c r="AM7" s="235"/>
+      <c r="AN7" s="235"/>
+      <c r="AO7" s="235">
+        <f t="shared" ca="1" si="0"/>
         <v>42</v>
       </c>
-      <c r="AP7" s="154"/>
-      <c r="AQ7" s="154"/>
-      <c r="AR7" s="201">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.2511013215859028E-2</v>
-      </c>
-      <c r="AS7" s="202"/>
+      <c r="AP7" s="235"/>
+      <c r="AQ7" s="235"/>
+      <c r="AR7" s="243">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.45945945945946E-2</v>
+      </c>
+      <c r="AS7" s="244"/>
       <c r="AT7" s="87"/>
       <c r="AU7" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Phase 4</v>
       </c>
       <c r="AV7" s="86">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>42</v>
       </c>
       <c r="AW7" s="86"/>
@@ -6078,46 +6040,46 @@
     </row>
     <row r="8" spans="1:68" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="157"/>
-      <c r="D8" s="293">
-        <f>I30+I40+I62+I74+I84+I51</f>
-        <v>454</v>
-      </c>
-      <c r="E8" s="293"/>
-      <c r="F8" s="290"/>
-      <c r="G8" s="290"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="304">
+        <f>I29+I39+I61+I73+I83+I50</f>
+        <v>444</v>
+      </c>
+      <c r="E8" s="304"/>
+      <c r="F8" s="269"/>
+      <c r="G8" s="269"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="154" t="s">
+      <c r="K8" s="235" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="197">
-        <f>SUMIF($H$16:$H$84,K8,$I$16:$I$84)</f>
+      <c r="L8" s="235"/>
+      <c r="M8" s="235"/>
+      <c r="N8" s="235"/>
+      <c r="O8" s="245"/>
+      <c r="P8" s="281">
+        <f>SUMIF($H$16:$H$83,K8,$I$16:$I$83)</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="154"/>
-      <c r="R8" s="154"/>
-      <c r="S8" s="201">
-        <f t="shared" si="0"/>
+      <c r="Q8" s="235"/>
+      <c r="R8" s="235"/>
+      <c r="S8" s="243">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T8" s="202"/>
+      <c r="T8" s="244"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Steve</v>
       </c>
       <c r="X8" s="86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y8" s="3"/>
@@ -6131,31 +6093,31 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
-      <c r="AJ8" s="154" t="s">
+      <c r="AJ8" s="235" t="s">
         <v>46</v>
       </c>
-      <c r="AK8" s="154"/>
-      <c r="AL8" s="154"/>
-      <c r="AM8" s="154"/>
-      <c r="AN8" s="154"/>
-      <c r="AO8" s="154">
-        <f ca="1">SUMIF($C$30:$E$84,AJ8,$I$30:$I$84)</f>
+      <c r="AK8" s="235"/>
+      <c r="AL8" s="235"/>
+      <c r="AM8" s="235"/>
+      <c r="AN8" s="235"/>
+      <c r="AO8" s="235">
+        <f t="shared" ca="1" si="0"/>
         <v>50</v>
       </c>
-      <c r="AP8" s="154"/>
-      <c r="AQ8" s="154"/>
-      <c r="AR8" s="201">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.11013215859030837</v>
-      </c>
-      <c r="AS8" s="202"/>
+      <c r="AP8" s="235"/>
+      <c r="AQ8" s="235"/>
+      <c r="AR8" s="243">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.11261261261261261</v>
+      </c>
+      <c r="AS8" s="244"/>
       <c r="AT8" s="3"/>
       <c r="AU8" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Phase 5</v>
       </c>
       <c r="AV8" s="86">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>50</v>
       </c>
       <c r="AW8" s="86"/>
@@ -6181,43 +6143,43 @@
     </row>
     <row r="9" spans="1:68" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="148" t="s">
+      <c r="B9" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="157"/>
+      <c r="C9" s="129"/>
       <c r="D9" s="294">
         <v>45555</v>
       </c>
       <c r="E9" s="294"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="290"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="269"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="158" t="s">
+      <c r="K9" s="246" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="158"/>
-      <c r="M9" s="158"/>
-      <c r="N9" s="158"/>
-      <c r="O9" s="158"/>
-      <c r="P9" s="200">
+      <c r="L9" s="246"/>
+      <c r="M9" s="246"/>
+      <c r="N9" s="246"/>
+      <c r="O9" s="246"/>
+      <c r="P9" s="283">
         <f>SUM(P4:R8)</f>
-        <v>454</v>
-      </c>
-      <c r="Q9" s="200"/>
-      <c r="R9" s="200"/>
-      <c r="S9" s="199"/>
-      <c r="T9" s="199"/>
+        <v>444</v>
+      </c>
+      <c r="Q9" s="283"/>
+      <c r="R9" s="283"/>
+      <c r="S9" s="152"/>
+      <c r="T9" s="152"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>TOTAL</v>
       </c>
       <c r="X9" s="86">
-        <f t="shared" si="2"/>
-        <v>454</v>
+        <f t="shared" si="3"/>
+        <v>444</v>
       </c>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
@@ -6230,31 +6192,31 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
-      <c r="AJ9" s="154" t="s">
+      <c r="AJ9" s="235" t="s">
         <v>47</v>
       </c>
-      <c r="AK9" s="154"/>
-      <c r="AL9" s="154"/>
-      <c r="AM9" s="154"/>
-      <c r="AN9" s="154"/>
-      <c r="AO9" s="154">
-        <f ca="1">SUMIF($C$30:$E$84,AJ9,$I$30:$I$84)</f>
+      <c r="AK9" s="235"/>
+      <c r="AL9" s="235"/>
+      <c r="AM9" s="235"/>
+      <c r="AN9" s="235"/>
+      <c r="AO9" s="235">
+        <f t="shared" ca="1" si="0"/>
         <v>70</v>
       </c>
-      <c r="AP9" s="154"/>
-      <c r="AQ9" s="154"/>
-      <c r="AR9" s="201">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.15418502202643172</v>
-      </c>
-      <c r="AS9" s="202"/>
-      <c r="AT9" s="204"/>
+      <c r="AP9" s="235"/>
+      <c r="AQ9" s="235"/>
+      <c r="AR9" s="243">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.15765765765765766</v>
+      </c>
+      <c r="AS9" s="244"/>
+      <c r="AT9" s="3"/>
       <c r="AU9" s="86" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Phase 6</v>
       </c>
       <c r="AV9" s="86">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>70</v>
       </c>
       <c r="AW9" s="86"/>
@@ -6280,16 +6242,16 @@
     </row>
     <row r="10" spans="1:68" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="157"/>
+      <c r="C10" s="129"/>
       <c r="D10" s="294">
         <v>45624</v>
       </c>
       <c r="E10" s="294"/>
-      <c r="F10" s="290"/>
-      <c r="G10" s="290"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="269"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -6318,22 +6280,22 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-      <c r="AJ10" s="158" t="s">
+      <c r="AJ10" s="246" t="s">
         <v>24</v>
       </c>
-      <c r="AK10" s="158"/>
-      <c r="AL10" s="158"/>
-      <c r="AM10" s="158"/>
-      <c r="AN10" s="158"/>
-      <c r="AO10" s="200">
+      <c r="AK10" s="246"/>
+      <c r="AL10" s="246"/>
+      <c r="AM10" s="246"/>
+      <c r="AN10" s="246"/>
+      <c r="AO10" s="283">
         <f ca="1">SUM(AO4:AQ9)</f>
-        <v>454</v>
-      </c>
-      <c r="AP10" s="200"/>
-      <c r="AQ10" s="200"/>
-      <c r="AR10" s="205"/>
-      <c r="AS10" s="205"/>
-      <c r="AT10" s="206"/>
+        <v>444</v>
+      </c>
+      <c r="AP10" s="283"/>
+      <c r="AQ10" s="283"/>
+      <c r="AR10" s="154"/>
+      <c r="AS10" s="154"/>
+      <c r="AT10" s="155"/>
       <c r="AU10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="3"/>
@@ -6359,12 +6321,12 @@
     </row>
     <row r="11" spans="1:68" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="292"/>
-      <c r="E11" s="292"/>
-      <c r="F11" s="290"/>
-      <c r="G11" s="290"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="269"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -6429,75 +6391,75 @@
     </row>
     <row r="12" spans="1:68" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="F12" s="290"/>
-      <c r="G12" s="290"/>
+      <c r="F12" s="269"/>
+      <c r="G12" s="269"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="112" t="s">
+      <c r="K12" s="240" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="114"/>
-      <c r="S12" s="108" t="s">
+      <c r="L12" s="241"/>
+      <c r="M12" s="241"/>
+      <c r="N12" s="241"/>
+      <c r="O12" s="241"/>
+      <c r="P12" s="241"/>
+      <c r="Q12" s="241"/>
+      <c r="R12" s="242"/>
+      <c r="S12" s="236" t="s">
         <v>2</v>
       </c>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
-      <c r="W12" s="109"/>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="109"/>
-      <c r="AA12" s="109"/>
-      <c r="AB12" s="109"/>
-      <c r="AC12" s="109"/>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="109"/>
-      <c r="AF12" s="109"/>
-      <c r="AG12" s="109"/>
-      <c r="AH12" s="109"/>
-      <c r="AI12" s="109"/>
-      <c r="AJ12" s="109"/>
-      <c r="AK12" s="109"/>
-      <c r="AL12" s="109"/>
-      <c r="AM12" s="109"/>
-      <c r="AN12" s="109"/>
-      <c r="AO12" s="110"/>
-      <c r="AP12" s="111" t="s">
+      <c r="T12" s="237"/>
+      <c r="U12" s="237"/>
+      <c r="V12" s="237"/>
+      <c r="W12" s="237"/>
+      <c r="X12" s="237"/>
+      <c r="Y12" s="237"/>
+      <c r="Z12" s="237"/>
+      <c r="AA12" s="237"/>
+      <c r="AB12" s="237"/>
+      <c r="AC12" s="237"/>
+      <c r="AD12" s="237"/>
+      <c r="AE12" s="237"/>
+      <c r="AF12" s="237"/>
+      <c r="AG12" s="237"/>
+      <c r="AH12" s="237"/>
+      <c r="AI12" s="237"/>
+      <c r="AJ12" s="237"/>
+      <c r="AK12" s="237"/>
+      <c r="AL12" s="237"/>
+      <c r="AM12" s="237"/>
+      <c r="AN12" s="237"/>
+      <c r="AO12" s="238"/>
+      <c r="AP12" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="AQ12" s="109"/>
-      <c r="AR12" s="109"/>
-      <c r="AS12" s="109"/>
-      <c r="AT12" s="109"/>
-      <c r="AU12" s="109"/>
-      <c r="AV12" s="109"/>
-      <c r="AW12" s="109"/>
-      <c r="AX12" s="109"/>
-      <c r="AY12" s="109"/>
-      <c r="AZ12" s="109"/>
-      <c r="BA12" s="109"/>
-      <c r="BB12" s="109"/>
-      <c r="BC12" s="109"/>
-      <c r="BD12" s="109"/>
-      <c r="BE12" s="109"/>
-      <c r="BF12" s="109"/>
-      <c r="BG12" s="109"/>
-      <c r="BH12" s="109"/>
-      <c r="BI12" s="109"/>
-      <c r="BJ12" s="109"/>
-      <c r="BK12" s="109"/>
-      <c r="BL12" s="109"/>
-      <c r="BM12" s="109"/>
-      <c r="BN12" s="109"/>
-      <c r="BO12" s="109"/>
-      <c r="BP12" s="110"/>
+      <c r="AQ12" s="237"/>
+      <c r="AR12" s="237"/>
+      <c r="AS12" s="237"/>
+      <c r="AT12" s="237"/>
+      <c r="AU12" s="237"/>
+      <c r="AV12" s="237"/>
+      <c r="AW12" s="237"/>
+      <c r="AX12" s="237"/>
+      <c r="AY12" s="237"/>
+      <c r="AZ12" s="237"/>
+      <c r="BA12" s="237"/>
+      <c r="BB12" s="237"/>
+      <c r="BC12" s="237"/>
+      <c r="BD12" s="237"/>
+      <c r="BE12" s="237"/>
+      <c r="BF12" s="237"/>
+      <c r="BG12" s="237"/>
+      <c r="BH12" s="237"/>
+      <c r="BI12" s="237"/>
+      <c r="BJ12" s="237"/>
+      <c r="BK12" s="237"/>
+      <c r="BL12" s="237"/>
+      <c r="BM12" s="237"/>
+      <c r="BN12" s="237"/>
+      <c r="BO12" s="237"/>
+      <c r="BP12" s="238"/>
     </row>
     <row r="13" spans="1:68" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
@@ -6505,8 +6467,8 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="123"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="106"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -6591,7 +6553,7 @@
       <c r="AK13" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="AL13" s="160" t="s">
+      <c r="AL13" s="131" t="s">
         <v>15</v>
       </c>
       <c r="AM13" s="83" t="s">
@@ -6690,12 +6652,12 @@
       <c r="B14" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="250" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="118"/>
+      <c r="D14" s="251"/>
       <c r="E14" s="95"/>
-      <c r="F14" s="131"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="96" t="s">
         <v>72</v>
       </c>
@@ -6708,25 +6670,25 @@
       <c r="J14" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="264">
+      <c r="K14" s="198">
         <v>19</v>
       </c>
-      <c r="L14" s="264">
+      <c r="L14" s="198">
         <v>20</v>
       </c>
       <c r="M14" s="79">
         <v>23</v>
       </c>
-      <c r="N14" s="264">
+      <c r="N14" s="198">
         <v>24</v>
       </c>
-      <c r="O14" s="264">
+      <c r="O14" s="198">
         <v>25</v>
       </c>
-      <c r="P14" s="264">
+      <c r="P14" s="198">
         <v>26</v>
       </c>
-      <c r="Q14" s="264">
+      <c r="Q14" s="198">
         <v>27</v>
       </c>
       <c r="R14" s="79">
@@ -6749,19 +6711,19 @@
         <v>7</v>
       </c>
       <c r="X14" s="14">
-        <f t="shared" ref="X14:AA14" si="6">W14+1</f>
+        <f t="shared" ref="X14:AA14" si="7">W14+1</f>
         <v>8</v>
       </c>
       <c r="Y14" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="Z14" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AA14" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="AB14" s="79">
@@ -6769,19 +6731,19 @@
         <v>14</v>
       </c>
       <c r="AC14" s="14">
-        <f t="shared" ref="AC14:AF14" si="7">AB14+1</f>
+        <f t="shared" ref="AC14:AF14" si="8">AB14+1</f>
         <v>15</v>
       </c>
       <c r="AD14" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="AE14" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="AF14" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="AG14" s="79">
@@ -6789,156 +6751,153 @@
         <v>21</v>
       </c>
       <c r="AH14" s="14">
-        <f t="shared" ref="AH14:AK14" si="8">AG14+1</f>
+        <f t="shared" ref="AH14:AK14" si="9">AG14+1</f>
         <v>22</v>
       </c>
       <c r="AI14" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="AJ14" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="AK14" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="AL14" s="161">
+      <c r="AL14" s="132">
         <f>AK14+3</f>
         <v>28</v>
       </c>
       <c r="AM14" s="14">
-        <f t="shared" ref="AM14:AO14" si="9">AL14+1</f>
+        <f t="shared" ref="AM14:AO14" si="10">AL14+1</f>
         <v>29</v>
       </c>
       <c r="AN14" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="AO14" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="AP14" s="16">
         <v>1</v>
       </c>
       <c r="AQ14" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR14" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS14" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT14" s="12">
-        <f>AS14+3</f>
         <v>7</v>
       </c>
       <c r="AU14" s="12">
-        <f t="shared" ref="AU14:AX14" si="10">AT14+1</f>
         <v>8</v>
       </c>
       <c r="AV14" s="13">
-        <f t="shared" si="10"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW14" s="12">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" ref="AW14:AX14" si="11">AV14+1</f>
+        <v>12</v>
       </c>
       <c r="AX14" s="12">
-        <f t="shared" si="10"/>
-        <v>11</v>
+        <f t="shared" si="11"/>
+        <v>13</v>
       </c>
       <c r="AY14" s="12">
         <f>AX14+3</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ14" s="12">
-        <f t="shared" ref="AZ14:BC14" si="11">AY14+1</f>
-        <v>15</v>
+        <f t="shared" ref="AZ14:BC14" si="12">AY14+1</f>
+        <v>17</v>
       </c>
       <c r="BA14" s="13">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <f t="shared" si="12"/>
+        <v>18</v>
       </c>
       <c r="BB14" s="12">
-        <f t="shared" si="11"/>
-        <v>17</v>
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
       <c r="BC14" s="12">
-        <f t="shared" si="11"/>
-        <v>18</v>
+        <f t="shared" si="12"/>
+        <v>20</v>
       </c>
       <c r="BD14" s="12">
         <f>BC14+3</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BE14" s="12">
-        <f t="shared" ref="BE14:BH14" si="12">BD14+1</f>
-        <v>22</v>
+        <f t="shared" ref="BE14:BH14" si="13">BD14+1</f>
+        <v>24</v>
       </c>
       <c r="BF14" s="13">
-        <f t="shared" si="12"/>
-        <v>23</v>
+        <f t="shared" si="13"/>
+        <v>25</v>
       </c>
       <c r="BG14" s="12">
-        <f t="shared" si="12"/>
-        <v>24</v>
+        <f t="shared" si="13"/>
+        <v>26</v>
       </c>
       <c r="BH14" s="12">
-        <f t="shared" si="12"/>
-        <v>25</v>
+        <f t="shared" si="13"/>
+        <v>27</v>
       </c>
       <c r="BI14" s="12">
         <f>BH14+3</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BJ14" s="12">
-        <f t="shared" ref="BJ14:BM14" si="13">BI14+1</f>
-        <v>29</v>
+        <f t="shared" ref="BJ14:BM14" si="14">BI14+1</f>
+        <v>31</v>
       </c>
       <c r="BK14" s="13">
-        <f t="shared" si="13"/>
-        <v>30</v>
+        <f t="shared" si="14"/>
+        <v>32</v>
       </c>
       <c r="BL14" s="12">
-        <f t="shared" si="13"/>
-        <v>31</v>
+        <f t="shared" si="14"/>
+        <v>33</v>
       </c>
       <c r="BM14" s="12">
-        <f t="shared" si="13"/>
-        <v>32</v>
+        <f t="shared" si="14"/>
+        <v>34</v>
       </c>
       <c r="BN14" s="12">
         <f>BM14+3</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BO14" s="12">
-        <f t="shared" ref="BO14:BP14" si="14">BN14+1</f>
-        <v>36</v>
+        <f t="shared" ref="BO14:BP14" si="15">BN14+1</f>
+        <v>38</v>
       </c>
       <c r="BP14" s="78">
-        <f t="shared" si="14"/>
-        <v>37</v>
+        <f t="shared" si="15"/>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="B15" s="267"/>
-      <c r="C15" s="260" t="s">
+      <c r="B15" s="201"/>
+      <c r="C15" s="290" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="260"/>
-      <c r="E15" s="261"/>
-      <c r="F15" s="262">
+      <c r="D15" s="290"/>
+      <c r="E15" s="291"/>
+      <c r="F15" s="292">
         <v>45558</v>
       </c>
-      <c r="G15" s="263"/>
-      <c r="H15" s="265"/>
-      <c r="I15" s="266"/>
+      <c r="G15" s="293"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="200"/>
       <c r="J15" s="100"/>
       <c r="K15" s="19"/>
       <c r="L15" s="18"/>
@@ -7001,105 +6960,279 @@
     </row>
     <row r="16" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="243">
+      <c r="B16" s="252">
         <v>1</v>
       </c>
-      <c r="C16" s="162" t="s">
+      <c r="C16" s="298" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="162"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="133">
+      <c r="D16" s="298"/>
+      <c r="E16" s="299"/>
+      <c r="F16" s="115">
         <v>1</v>
       </c>
-      <c r="G16" s="169" t="s">
+      <c r="G16" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="174" t="s">
+      <c r="H16" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="179">
-        <v>50</v>
+      <c r="I16" s="145">
+        <v>60</v>
       </c>
       <c r="J16" s="100">
+        <v>8</v>
+      </c>
+      <c r="K16" s="230">
+        <f>IF(J16+1-1&gt;0,J16+1-1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="L16" s="231">
+        <f t="shared" ref="L16:BP16" si="16">IF(K16-1&gt;0,K16-1,0)</f>
         <v>7</v>
       </c>
-      <c r="K16" s="306"/>
-      <c r="L16" s="306"/>
-      <c r="M16" s="306"/>
-      <c r="N16" s="306"/>
-      <c r="O16" s="306"/>
-      <c r="P16" s="306"/>
-      <c r="Q16" s="306"/>
-      <c r="R16" s="307"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="20"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="19"/>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="19"/>
-      <c r="AU16" s="19"/>
-      <c r="AV16" s="19"/>
-      <c r="AW16" s="19"/>
-      <c r="AX16" s="19"/>
-      <c r="AY16" s="19"/>
-      <c r="AZ16" s="19"/>
-      <c r="BA16" s="19"/>
-      <c r="BB16" s="19"/>
-      <c r="BC16" s="19"/>
-      <c r="BD16" s="19"/>
-      <c r="BE16" s="19"/>
-      <c r="BF16" s="19"/>
-      <c r="BG16" s="19"/>
-      <c r="BH16" s="19"/>
-      <c r="BI16" s="19"/>
-      <c r="BJ16" s="19"/>
-      <c r="BK16" s="19"/>
-      <c r="BL16" s="19"/>
-      <c r="BM16" s="19"/>
-      <c r="BN16" s="19"/>
-      <c r="BO16" s="19"/>
-      <c r="BP16" s="20"/>
+      <c r="M16" s="231">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="N16" s="231">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="O16" s="231">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="P16" s="231">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="Q16" s="231">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="R16" s="231">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AP16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AR16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AS16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AT16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AV16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AW16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AX16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AY16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BA16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BB16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BC16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BD16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BE16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BF16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BG16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BH16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BI16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BK16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BL16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BM16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BN16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BP16" s="231">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="243"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="133">
-        <v>1</v>
-      </c>
-      <c r="G17" s="169" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="174" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="179">
-        <v>4</v>
+      <c r="A17" s="3"/>
+      <c r="B17" s="253"/>
+      <c r="C17" s="298"/>
+      <c r="D17" s="298"/>
+      <c r="E17" s="299"/>
+      <c r="F17" s="115">
+        <v>2</v>
+      </c>
+      <c r="G17" s="135" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="145">
+        <v>12</v>
       </c>
       <c r="J17" s="100">
         <v>2</v>
@@ -7107,166 +7240,168 @@
       <c r="K17" s="25"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
-      <c r="N17" s="195"/>
-      <c r="O17" s="196"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
       <c r="P17" s="19"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="194"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="20"/>
-      <c r="AP17" s="21"/>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="19"/>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="19"/>
-      <c r="AU17" s="19"/>
-      <c r="AV17" s="19"/>
-      <c r="AW17" s="19"/>
-      <c r="AX17" s="19"/>
-      <c r="AY17" s="19"/>
-      <c r="AZ17" s="19"/>
-      <c r="BA17" s="19"/>
-      <c r="BB17" s="19"/>
-      <c r="BC17" s="19"/>
-      <c r="BD17" s="19"/>
-      <c r="BE17" s="19"/>
-      <c r="BF17" s="19"/>
-      <c r="BG17" s="19"/>
-      <c r="BH17" s="19"/>
-      <c r="BI17" s="19"/>
-      <c r="BJ17" s="19"/>
-      <c r="BK17" s="19"/>
-      <c r="BL17" s="19"/>
-      <c r="BM17" s="19"/>
-      <c r="BN17" s="19"/>
-      <c r="BO17" s="19"/>
-      <c r="BP17" s="20"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="272" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="273"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="23"/>
+      <c r="AP17" s="24"/>
+      <c r="AQ17" s="22"/>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="22"/>
+      <c r="AT17" s="22"/>
+      <c r="AU17" s="22"/>
+      <c r="AV17" s="22"/>
+      <c r="AW17" s="22"/>
+      <c r="AX17" s="22"/>
+      <c r="AY17" s="22"/>
+      <c r="AZ17" s="22"/>
+      <c r="BA17" s="22"/>
+      <c r="BB17" s="22"/>
+      <c r="BC17" s="22"/>
+      <c r="BD17" s="22"/>
+      <c r="BE17" s="22"/>
+      <c r="BF17" s="22"/>
+      <c r="BG17" s="22"/>
+      <c r="BH17" s="22"/>
+      <c r="BI17" s="22"/>
+      <c r="BJ17" s="22"/>
+      <c r="BK17" s="22"/>
+      <c r="BL17" s="22"/>
+      <c r="BM17" s="22"/>
+      <c r="BN17" s="22"/>
+      <c r="BO17" s="22"/>
+      <c r="BP17" s="23"/>
     </row>
     <row r="18" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="244"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="133">
+      <c r="B18" s="253"/>
+      <c r="C18" s="270" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="270"/>
+      <c r="E18" s="271"/>
+      <c r="F18" s="115">
         <v>2</v>
       </c>
-      <c r="G18" s="169" t="s">
+      <c r="G18" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="179">
+      <c r="H18" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="145">
         <v>12</v>
       </c>
       <c r="J18" s="100">
         <v>2</v>
       </c>
       <c r="K18" s="25"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="145" t="s">
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="272" t="s">
         <v>33</v>
       </c>
-      <c r="T18" s="146"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
-      <c r="AJ18" s="22"/>
-      <c r="AK18" s="22"/>
-      <c r="AL18" s="22"/>
-      <c r="AM18" s="22"/>
-      <c r="AN18" s="22"/>
-      <c r="AO18" s="23"/>
-      <c r="AP18" s="24"/>
-      <c r="AQ18" s="22"/>
-      <c r="AR18" s="22"/>
-      <c r="AS18" s="22"/>
-      <c r="AT18" s="22"/>
-      <c r="AU18" s="22"/>
-      <c r="AV18" s="22"/>
-      <c r="AW18" s="22"/>
-      <c r="AX18" s="22"/>
-      <c r="AY18" s="22"/>
-      <c r="AZ18" s="22"/>
-      <c r="BA18" s="22"/>
-      <c r="BB18" s="22"/>
-      <c r="BC18" s="22"/>
-      <c r="BD18" s="22"/>
-      <c r="BE18" s="22"/>
-      <c r="BF18" s="22"/>
-      <c r="BG18" s="22"/>
-      <c r="BH18" s="22"/>
-      <c r="BI18" s="22"/>
-      <c r="BJ18" s="22"/>
-      <c r="BK18" s="22"/>
-      <c r="BL18" s="22"/>
-      <c r="BM18" s="22"/>
-      <c r="BN18" s="22"/>
-      <c r="BO18" s="22"/>
-      <c r="BP18" s="23"/>
+      <c r="T18" s="273"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="26"/>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="26"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="26"/>
+      <c r="AU18" s="26"/>
+      <c r="AV18" s="26"/>
+      <c r="AW18" s="26"/>
+      <c r="AX18" s="26"/>
+      <c r="AY18" s="26"/>
+      <c r="AZ18" s="26"/>
+      <c r="BA18" s="26"/>
+      <c r="BB18" s="26"/>
+      <c r="BC18" s="26"/>
+      <c r="BD18" s="26"/>
+      <c r="BE18" s="26"/>
+      <c r="BF18" s="26"/>
+      <c r="BG18" s="26"/>
+      <c r="BH18" s="26"/>
+      <c r="BI18" s="26"/>
+      <c r="BJ18" s="26"/>
+      <c r="BK18" s="26"/>
+      <c r="BL18" s="26"/>
+      <c r="BM18" s="26"/>
+      <c r="BN18" s="26"/>
+      <c r="BO18" s="26"/>
+      <c r="BP18" s="27"/>
     </row>
     <row r="19" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="244"/>
-      <c r="C19" s="183" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="183"/>
-      <c r="E19" s="184"/>
-      <c r="F19" s="133">
-        <v>2</v>
-      </c>
-      <c r="G19" s="169" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="174" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="179">
-        <v>12</v>
+      <c r="B19" s="253"/>
+      <c r="C19" s="270"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="271"/>
+      <c r="F19" s="115">
+        <v>3</v>
+      </c>
+      <c r="G19" s="135" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="145">
+        <v>25</v>
       </c>
       <c r="J19" s="100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K19" s="25"/>
       <c r="L19" s="26"/>
@@ -7276,15 +7411,13 @@
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="27"/>
-      <c r="S19" s="145" t="s">
-        <v>33</v>
-      </c>
-      <c r="T19" s="146"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="122"/>
+      <c r="V19" s="123"/>
+      <c r="W19" s="123"/>
+      <c r="X19" s="123"/>
+      <c r="Y19" s="123"/>
       <c r="Z19" s="26"/>
       <c r="AA19" s="26"/>
       <c r="AB19" s="26"/>
@@ -7301,11 +7434,11 @@
       <c r="AM19" s="26"/>
       <c r="AN19" s="26"/>
       <c r="AO19" s="27"/>
-      <c r="AP19" s="28"/>
-      <c r="AQ19" s="26"/>
-      <c r="AR19" s="26"/>
-      <c r="AS19" s="26"/>
-      <c r="AT19" s="26"/>
+      <c r="AP19" s="30"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29"/>
+      <c r="AT19" s="29"/>
       <c r="AU19" s="26"/>
       <c r="AV19" s="26"/>
       <c r="AW19" s="26"/>
@@ -7331,24 +7464,24 @@
     </row>
     <row r="20" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="244"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="183"/>
-      <c r="E20" s="184"/>
-      <c r="F20" s="133">
+      <c r="B20" s="253"/>
+      <c r="C20" s="270"/>
+      <c r="D20" s="270"/>
+      <c r="E20" s="271"/>
+      <c r="F20" s="115">
         <v>3</v>
       </c>
-      <c r="G20" s="169" t="s">
+      <c r="G20" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="179">
-        <v>35</v>
+      <c r="H20" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="145">
+        <v>2</v>
       </c>
       <c r="J20" s="100">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K20" s="25"/>
       <c r="L20" s="26"/>
@@ -7359,12 +7492,12 @@
       <c r="Q20" s="26"/>
       <c r="R20" s="27"/>
       <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="141"/>
-      <c r="V20" s="142"/>
-      <c r="W20" s="142"/>
-      <c r="X20" s="142"/>
-      <c r="Y20" s="142"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="279"/>
+      <c r="Y20" s="280"/>
       <c r="Z20" s="26"/>
       <c r="AA20" s="26"/>
       <c r="AB20" s="26"/>
@@ -7411,24 +7544,24 @@
     </row>
     <row r="21" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="244"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="183"/>
-      <c r="E21" s="184"/>
-      <c r="F21" s="133">
+      <c r="B21" s="253"/>
+      <c r="C21" s="270"/>
+      <c r="D21" s="270"/>
+      <c r="E21" s="271"/>
+      <c r="F21" s="115">
+        <v>4</v>
+      </c>
+      <c r="G21" s="135" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="145">
+        <v>12</v>
+      </c>
+      <c r="J21" s="100">
         <v>3</v>
-      </c>
-      <c r="G21" s="169" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="174" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="179">
-        <v>8</v>
-      </c>
-      <c r="J21" s="100">
-        <v>2</v>
       </c>
       <c r="K21" s="25"/>
       <c r="L21" s="26"/>
@@ -7439,14 +7572,16 @@
       <c r="Q21" s="26"/>
       <c r="R21" s="27"/>
       <c r="S21" s="29"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="143"/>
-      <c r="Y21" s="140"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="26"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="272" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA21" s="273"/>
       <c r="AB21" s="26"/>
       <c r="AC21" s="26"/>
       <c r="AD21" s="26"/>
@@ -7491,20 +7626,20 @@
     </row>
     <row r="22" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="244"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="183"/>
-      <c r="E22" s="184"/>
-      <c r="F22" s="133">
+      <c r="B22" s="253"/>
+      <c r="C22" s="270"/>
+      <c r="D22" s="270"/>
+      <c r="E22" s="271"/>
+      <c r="F22" s="115">
         <v>4</v>
       </c>
-      <c r="G22" s="169" t="s">
+      <c r="G22" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="179">
+      <c r="H22" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="145">
         <v>12</v>
       </c>
       <c r="J22" s="100">
@@ -7525,10 +7660,10 @@
       <c r="W22" s="29"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="26"/>
-      <c r="Z22" s="145" t="s">
+      <c r="Z22" s="272" t="s">
         <v>33</v>
       </c>
-      <c r="AA22" s="146"/>
+      <c r="AA22" s="273"/>
       <c r="AB22" s="26"/>
       <c r="AC22" s="26"/>
       <c r="AD22" s="26"/>
@@ -7573,24 +7708,24 @@
     </row>
     <row r="23" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="244"/>
-      <c r="C23" s="183"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="184"/>
-      <c r="F23" s="133">
-        <v>4</v>
-      </c>
-      <c r="G23" s="169" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="174" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="179">
-        <v>12</v>
+      <c r="B23" s="253"/>
+      <c r="C23" s="270"/>
+      <c r="D23" s="270"/>
+      <c r="E23" s="271"/>
+      <c r="F23" s="115">
+        <v>5</v>
+      </c>
+      <c r="G23" s="135" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="145">
+        <v>35</v>
       </c>
       <c r="J23" s="100">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K23" s="25"/>
       <c r="L23" s="26"/>
@@ -7607,15 +7742,13 @@
       <c r="W23" s="29"/>
       <c r="X23" s="26"/>
       <c r="Y23" s="26"/>
-      <c r="Z23" s="145" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA23" s="146"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="279"/>
+      <c r="AC23" s="297"/>
+      <c r="AD23" s="297"/>
+      <c r="AE23" s="297"/>
+      <c r="AF23" s="280"/>
       <c r="AG23" s="26"/>
       <c r="AH23" s="26"/>
       <c r="AI23" s="26"/>
@@ -7655,24 +7788,24 @@
     </row>
     <row r="24" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="244"/>
-      <c r="C24" s="183"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="184"/>
-      <c r="F24" s="133">
-        <v>5</v>
-      </c>
-      <c r="G24" s="169" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="174" t="s">
+      <c r="B24" s="253"/>
+      <c r="C24" s="270"/>
+      <c r="D24" s="270"/>
+      <c r="E24" s="271"/>
+      <c r="F24" s="115">
         <v>6</v>
       </c>
-      <c r="I24" s="179">
-        <v>35</v>
+      <c r="G24" s="135" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="145">
+        <v>4</v>
       </c>
       <c r="J24" s="100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K24" s="25"/>
       <c r="L24" s="26"/>
@@ -7691,12 +7824,12 @@
       <c r="Y24" s="26"/>
       <c r="Z24" s="26"/>
       <c r="AA24" s="26"/>
-      <c r="AB24" s="143"/>
-      <c r="AC24" s="144"/>
-      <c r="AD24" s="144"/>
-      <c r="AE24" s="144"/>
-      <c r="AF24" s="140"/>
-      <c r="AG24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="121"/>
       <c r="AH24" s="26"/>
       <c r="AI24" s="26"/>
       <c r="AJ24" s="26"/>
@@ -7735,20 +7868,20 @@
     </row>
     <row r="25" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="244"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="133">
+      <c r="B25" s="253"/>
+      <c r="C25" s="270"/>
+      <c r="D25" s="270"/>
+      <c r="E25" s="271"/>
+      <c r="F25" s="115">
         <v>6</v>
       </c>
-      <c r="G25" s="169" t="s">
+      <c r="G25" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="179">
+      <c r="H25" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="145">
         <v>4</v>
       </c>
       <c r="J25" s="100">
@@ -7776,7 +7909,7 @@
       <c r="AD25" s="26"/>
       <c r="AE25" s="26"/>
       <c r="AF25" s="26"/>
-      <c r="AG25" s="139"/>
+      <c r="AG25" s="121"/>
       <c r="AH25" s="26"/>
       <c r="AI25" s="26"/>
       <c r="AJ25" s="26"/>
@@ -7815,20 +7948,20 @@
     </row>
     <row r="26" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="244"/>
-      <c r="C26" s="183"/>
-      <c r="D26" s="183"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="133">
+      <c r="B26" s="253"/>
+      <c r="C26" s="270"/>
+      <c r="D26" s="270"/>
+      <c r="E26" s="271"/>
+      <c r="F26" s="115">
         <v>6</v>
       </c>
-      <c r="G26" s="169" t="s">
+      <c r="G26" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="174" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="179">
+      <c r="H26" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="145">
         <v>4</v>
       </c>
       <c r="J26" s="100">
@@ -7856,7 +7989,7 @@
       <c r="AD26" s="26"/>
       <c r="AE26" s="26"/>
       <c r="AF26" s="26"/>
-      <c r="AG26" s="139"/>
+      <c r="AG26" s="121"/>
       <c r="AH26" s="26"/>
       <c r="AI26" s="26"/>
       <c r="AJ26" s="26"/>
@@ -7895,25 +8028,19 @@
     </row>
     <row r="27" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="244"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="183"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="133">
-        <v>6</v>
-      </c>
-      <c r="G27" s="169" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="174" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="179">
-        <v>4</v>
-      </c>
-      <c r="J27" s="100">
-        <v>1</v>
-      </c>
+      <c r="B27" s="253"/>
+      <c r="C27" s="270"/>
+      <c r="D27" s="270"/>
+      <c r="E27" s="271"/>
+      <c r="F27" s="115">
+        <v>7</v>
+      </c>
+      <c r="G27" s="135" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="140"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="100"/>
       <c r="K27" s="25"/>
       <c r="L27" s="26"/>
       <c r="M27" s="26"/>
@@ -7936,8 +8063,10 @@
       <c r="AD27" s="26"/>
       <c r="AE27" s="26"/>
       <c r="AF27" s="26"/>
-      <c r="AG27" s="139"/>
-      <c r="AH27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="124" t="s">
+        <v>35</v>
+      </c>
       <c r="AI27" s="26"/>
       <c r="AJ27" s="26"/>
       <c r="AK27" s="26"/>
@@ -7975,18 +8104,14 @@
     </row>
     <row r="28" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="244"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="183"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="133">
-        <v>7</v>
-      </c>
-      <c r="G28" s="169" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="174"/>
-      <c r="I28" s="179"/>
+      <c r="B28" s="253"/>
+      <c r="C28" s="270"/>
+      <c r="D28" s="270"/>
+      <c r="E28" s="271"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="145"/>
       <c r="J28" s="100"/>
       <c r="K28" s="25"/>
       <c r="L28" s="26"/>
@@ -8011,9 +8136,7 @@
       <c r="AE28" s="26"/>
       <c r="AF28" s="26"/>
       <c r="AG28" s="26"/>
-      <c r="AH28" s="147" t="s">
-        <v>35</v>
-      </c>
+      <c r="AH28" s="149"/>
       <c r="AI28" s="26"/>
       <c r="AJ28" s="26"/>
       <c r="AK28" s="26"/>
@@ -8049,330 +8172,342 @@
       <c r="BO28" s="26"/>
       <c r="BP28" s="27"/>
     </row>
-    <row r="29" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
-      <c r="B29" s="244"/>
-      <c r="C29" s="183"/>
-      <c r="D29" s="183"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
-      <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-      <c r="AE29" s="26"/>
-      <c r="AF29" s="26"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="189"/>
-      <c r="AI29" s="26"/>
-      <c r="AJ29" s="26"/>
-      <c r="AK29" s="26"/>
-      <c r="AL29" s="26"/>
-      <c r="AM29" s="26"/>
-      <c r="AN29" s="26"/>
-      <c r="AO29" s="27"/>
-      <c r="AP29" s="30"/>
-      <c r="AQ29" s="29"/>
-      <c r="AR29" s="29"/>
-      <c r="AS29" s="29"/>
-      <c r="AT29" s="29"/>
-      <c r="AU29" s="26"/>
-      <c r="AV29" s="26"/>
-      <c r="AW29" s="26"/>
-      <c r="AX29" s="26"/>
-      <c r="AY29" s="26"/>
-      <c r="AZ29" s="26"/>
-      <c r="BA29" s="26"/>
-      <c r="BB29" s="26"/>
-      <c r="BC29" s="26"/>
-      <c r="BD29" s="26"/>
-      <c r="BE29" s="26"/>
-      <c r="BF29" s="26"/>
-      <c r="BG29" s="26"/>
-      <c r="BH29" s="26"/>
-      <c r="BI29" s="26"/>
-      <c r="BJ29" s="26"/>
-      <c r="BK29" s="26"/>
-      <c r="BL29" s="26"/>
-      <c r="BM29" s="26"/>
-      <c r="BN29" s="26"/>
-      <c r="BO29" s="26"/>
-      <c r="BP29" s="27"/>
+      <c r="B29" s="254"/>
+      <c r="C29" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="99"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="185" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="186">
+        <f>SUM(I16:I28)</f>
+        <v>182</v>
+      </c>
+      <c r="J29" s="187"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="32"/>
+      <c r="AK29" s="32"/>
+      <c r="AL29" s="32"/>
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="32"/>
+      <c r="AO29" s="34"/>
+      <c r="AP29" s="35"/>
+      <c r="AQ29" s="33"/>
+      <c r="AR29" s="33"/>
+      <c r="AS29" s="33"/>
+      <c r="AT29" s="33"/>
+      <c r="AU29" s="32"/>
+      <c r="AV29" s="32"/>
+      <c r="AW29" s="32"/>
+      <c r="AX29" s="32"/>
+      <c r="AY29" s="32"/>
+      <c r="AZ29" s="32"/>
+      <c r="BA29" s="32"/>
+      <c r="BB29" s="32"/>
+      <c r="BC29" s="32"/>
+      <c r="BD29" s="32"/>
+      <c r="BE29" s="32"/>
+      <c r="BF29" s="32"/>
+      <c r="BG29" s="32"/>
+      <c r="BH29" s="32"/>
+      <c r="BI29" s="32"/>
+      <c r="BJ29" s="32"/>
+      <c r="BK29" s="32"/>
+      <c r="BL29" s="32"/>
+      <c r="BM29" s="32"/>
+      <c r="BN29" s="32"/>
+      <c r="BO29" s="32"/>
+      <c r="BP29" s="34"/>
     </row>
-    <row r="30" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="245"/>
-      <c r="C30" s="159" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="99"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="246"/>
-      <c r="H30" s="247" t="s">
-        <v>48</v>
-      </c>
-      <c r="I30" s="248">
-        <f>SUM(I16:I29)</f>
-        <v>192</v>
-      </c>
-      <c r="J30" s="249"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="32"/>
-      <c r="AI30" s="32"/>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="32"/>
-      <c r="AL30" s="32"/>
-      <c r="AM30" s="32"/>
-      <c r="AN30" s="32"/>
-      <c r="AO30" s="34"/>
-      <c r="AP30" s="35"/>
-      <c r="AQ30" s="33"/>
-      <c r="AR30" s="33"/>
-      <c r="AS30" s="33"/>
-      <c r="AT30" s="33"/>
-      <c r="AU30" s="32"/>
-      <c r="AV30" s="32"/>
-      <c r="AW30" s="32"/>
-      <c r="AX30" s="32"/>
-      <c r="AY30" s="32"/>
-      <c r="AZ30" s="32"/>
-      <c r="BA30" s="32"/>
-      <c r="BB30" s="32"/>
-      <c r="BC30" s="32"/>
-      <c r="BD30" s="32"/>
-      <c r="BE30" s="32"/>
-      <c r="BF30" s="32"/>
-      <c r="BG30" s="32"/>
-      <c r="BH30" s="32"/>
-      <c r="BI30" s="32"/>
-      <c r="BJ30" s="32"/>
-      <c r="BK30" s="32"/>
-      <c r="BL30" s="32"/>
-      <c r="BM30" s="32"/>
-      <c r="BN30" s="32"/>
-      <c r="BO30" s="32"/>
-      <c r="BP30" s="34"/>
+      <c r="B30" s="194"/>
+      <c r="C30" s="290" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="290"/>
+      <c r="E30" s="291"/>
+      <c r="F30" s="292">
+        <v>45588</v>
+      </c>
+      <c r="G30" s="293"/>
+      <c r="H30" s="195"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="197"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41"/>
+      <c r="AI30" s="41"/>
+      <c r="AJ30" s="41"/>
+      <c r="AK30" s="41"/>
+      <c r="AL30" s="41"/>
+      <c r="AM30" s="41"/>
+      <c r="AN30" s="41"/>
+      <c r="AO30" s="192"/>
+      <c r="AP30" s="193"/>
+      <c r="AQ30" s="191"/>
+      <c r="AR30" s="191"/>
+      <c r="AS30" s="191"/>
+      <c r="AT30" s="191"/>
+      <c r="AU30" s="189"/>
+      <c r="AV30" s="189"/>
+      <c r="AW30" s="189"/>
+      <c r="AX30" s="189"/>
+      <c r="AY30" s="189"/>
+      <c r="AZ30" s="189"/>
+      <c r="BA30" s="189"/>
+      <c r="BB30" s="189"/>
+      <c r="BC30" s="189"/>
+      <c r="BD30" s="189"/>
+      <c r="BE30" s="189"/>
+      <c r="BF30" s="189"/>
+      <c r="BG30" s="189"/>
+      <c r="BH30" s="189"/>
+      <c r="BI30" s="189"/>
+      <c r="BJ30" s="189"/>
+      <c r="BK30" s="189"/>
+      <c r="BL30" s="189"/>
+      <c r="BM30" s="189"/>
+      <c r="BN30" s="189"/>
+      <c r="BO30" s="189"/>
+      <c r="BP30" s="192"/>
     </row>
     <row r="31" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="256"/>
-      <c r="C31" s="260" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="260"/>
-      <c r="E31" s="261"/>
-      <c r="F31" s="262">
-        <v>45588</v>
-      </c>
-      <c r="G31" s="263"/>
-      <c r="H31" s="257"/>
-      <c r="I31" s="258"/>
-      <c r="J31" s="259"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="41"/>
-      <c r="AG31" s="41"/>
-      <c r="AH31" s="41"/>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="41"/>
-      <c r="AK31" s="41"/>
-      <c r="AL31" s="41"/>
-      <c r="AM31" s="41"/>
-      <c r="AN31" s="41"/>
-      <c r="AO31" s="254"/>
-      <c r="AP31" s="255"/>
-      <c r="AQ31" s="253"/>
-      <c r="AR31" s="253"/>
-      <c r="AS31" s="253"/>
-      <c r="AT31" s="253"/>
-      <c r="AU31" s="251"/>
-      <c r="AV31" s="251"/>
-      <c r="AW31" s="251"/>
-      <c r="AX31" s="251"/>
-      <c r="AY31" s="251"/>
-      <c r="AZ31" s="251"/>
-      <c r="BA31" s="251"/>
-      <c r="BB31" s="251"/>
-      <c r="BC31" s="251"/>
-      <c r="BD31" s="251"/>
-      <c r="BE31" s="251"/>
-      <c r="BF31" s="251"/>
-      <c r="BG31" s="251"/>
-      <c r="BH31" s="251"/>
-      <c r="BI31" s="251"/>
-      <c r="BJ31" s="251"/>
-      <c r="BK31" s="251"/>
-      <c r="BL31" s="251"/>
-      <c r="BM31" s="251"/>
-      <c r="BN31" s="251"/>
-      <c r="BO31" s="251"/>
-      <c r="BP31" s="254"/>
+      <c r="B31" s="255">
+        <v>2</v>
+      </c>
+      <c r="C31" s="300" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="300"/>
+      <c r="E31" s="301"/>
+      <c r="F31" s="115">
+        <v>1</v>
+      </c>
+      <c r="G31" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="145">
+        <v>30</v>
+      </c>
+      <c r="J31" s="142">
+        <v>5</v>
+      </c>
+      <c r="K31" s="182"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="183"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="36"/>
+      <c r="AA31" s="36"/>
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="36"/>
+      <c r="AF31" s="36"/>
+      <c r="AG31" s="36"/>
+      <c r="AH31" s="36"/>
+      <c r="AI31" s="202"/>
+      <c r="AJ31" s="202"/>
+      <c r="AK31" s="202"/>
+      <c r="AL31" s="202"/>
+      <c r="AM31" s="202"/>
+      <c r="AN31" s="202"/>
+      <c r="AO31" s="38"/>
+      <c r="AP31" s="39"/>
+      <c r="AQ31" s="36"/>
+      <c r="AR31" s="36"/>
+      <c r="AS31" s="36"/>
+      <c r="AT31" s="36"/>
+      <c r="AU31" s="36"/>
+      <c r="AV31" s="36"/>
+      <c r="AW31" s="36"/>
+      <c r="AX31" s="36"/>
+      <c r="AY31" s="36"/>
+      <c r="AZ31" s="36"/>
+      <c r="BA31" s="36"/>
+      <c r="BB31" s="36"/>
+      <c r="BC31" s="36"/>
+      <c r="BD31" s="36"/>
+      <c r="BE31" s="36"/>
+      <c r="BF31" s="36"/>
+      <c r="BG31" s="36"/>
+      <c r="BH31" s="36"/>
+      <c r="BI31" s="36"/>
+      <c r="BJ31" s="36"/>
+      <c r="BK31" s="36"/>
+      <c r="BL31" s="36"/>
+      <c r="BM31" s="36"/>
+      <c r="BN31" s="36"/>
+      <c r="BO31" s="36"/>
+      <c r="BP31" s="38"/>
     </row>
     <row r="32" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="237">
+      <c r="B32" s="256"/>
+      <c r="C32" s="300"/>
+      <c r="D32" s="300"/>
+      <c r="E32" s="301"/>
+      <c r="F32" s="115">
         <v>2</v>
       </c>
-      <c r="C32" s="124" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="124"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="133">
+      <c r="G32" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="145">
+        <v>4</v>
+      </c>
+      <c r="J32" s="142">
         <v>1</v>
       </c>
-      <c r="G32" s="169" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="179">
-        <v>30</v>
-      </c>
-      <c r="J32" s="176">
-        <v>5</v>
-      </c>
-      <c r="K32" s="241"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="242"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="36"/>
-      <c r="AI32" s="268"/>
-      <c r="AJ32" s="268"/>
-      <c r="AK32" s="268"/>
-      <c r="AL32" s="268"/>
-      <c r="AM32" s="268"/>
-      <c r="AN32" s="268"/>
-      <c r="AO32" s="38"/>
-      <c r="AP32" s="39"/>
-      <c r="AQ32" s="36"/>
-      <c r="AR32" s="36"/>
-      <c r="AS32" s="36"/>
-      <c r="AT32" s="36"/>
-      <c r="AU32" s="36"/>
-      <c r="AV32" s="36"/>
-      <c r="AW32" s="36"/>
-      <c r="AX32" s="36"/>
-      <c r="AY32" s="36"/>
-      <c r="AZ32" s="36"/>
-      <c r="BA32" s="36"/>
-      <c r="BB32" s="36"/>
-      <c r="BC32" s="36"/>
-      <c r="BD32" s="36"/>
-      <c r="BE32" s="36"/>
-      <c r="BF32" s="36"/>
-      <c r="BG32" s="36"/>
-      <c r="BH32" s="36"/>
-      <c r="BI32" s="36"/>
-      <c r="BJ32" s="36"/>
-      <c r="BK32" s="36"/>
-      <c r="BL32" s="36"/>
-      <c r="BM32" s="36"/>
-      <c r="BN32" s="36"/>
-      <c r="BO32" s="36"/>
-      <c r="BP32" s="38"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="41"/>
+      <c r="AI32" s="41"/>
+      <c r="AJ32" s="41"/>
+      <c r="AK32" s="41"/>
+      <c r="AL32" s="41"/>
+      <c r="AM32" s="41"/>
+      <c r="AN32" s="203"/>
+      <c r="AO32" s="44"/>
+      <c r="AP32" s="45"/>
+      <c r="AQ32" s="41"/>
+      <c r="AR32" s="41"/>
+      <c r="AS32" s="41"/>
+      <c r="AT32" s="41"/>
+      <c r="AU32" s="41"/>
+      <c r="AV32" s="41"/>
+      <c r="AW32" s="41"/>
+      <c r="AX32" s="41"/>
+      <c r="AY32" s="41"/>
+      <c r="AZ32" s="41"/>
+      <c r="BA32" s="41"/>
+      <c r="BB32" s="41"/>
+      <c r="BC32" s="41"/>
+      <c r="BD32" s="41"/>
+      <c r="BE32" s="41"/>
+      <c r="BF32" s="41"/>
+      <c r="BG32" s="41"/>
+      <c r="BH32" s="41"/>
+      <c r="BI32" s="41"/>
+      <c r="BJ32" s="41"/>
+      <c r="BK32" s="41"/>
+      <c r="BL32" s="41"/>
+      <c r="BM32" s="41"/>
+      <c r="BN32" s="41"/>
+      <c r="BO32" s="41"/>
+      <c r="BP32" s="44"/>
     </row>
     <row r="33" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="238"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="133">
+      <c r="B33" s="256"/>
+      <c r="C33" s="270" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="270"/>
+      <c r="E33" s="271"/>
+      <c r="F33" s="115">
         <v>2</v>
       </c>
-      <c r="G33" s="169" t="s">
+      <c r="G33" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="H33" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="179">
+      <c r="H33" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="145">
         <v>4</v>
       </c>
-      <c r="J33" s="176">
+      <c r="J33" s="142">
         <v>1</v>
       </c>
       <c r="K33" s="40"/>
@@ -8404,7 +8539,7 @@
       <c r="AK33" s="41"/>
       <c r="AL33" s="41"/>
       <c r="AM33" s="41"/>
-      <c r="AN33" s="269"/>
+      <c r="AN33" s="203"/>
       <c r="AO33" s="44"/>
       <c r="AP33" s="45"/>
       <c r="AQ33" s="41"/>
@@ -8436,25 +8571,23 @@
     </row>
     <row r="34" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="238"/>
-      <c r="C34" s="183" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="183"/>
-      <c r="E34" s="184"/>
-      <c r="F34" s="133">
-        <v>2</v>
-      </c>
-      <c r="G34" s="169" t="s">
-        <v>51</v>
-      </c>
-      <c r="H34" s="174" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="179">
-        <v>4</v>
-      </c>
-      <c r="J34" s="176">
+      <c r="B34" s="256"/>
+      <c r="C34" s="270"/>
+      <c r="D34" s="270"/>
+      <c r="E34" s="271"/>
+      <c r="F34" s="115">
+        <v>3</v>
+      </c>
+      <c r="G34" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="145">
+        <v>7</v>
+      </c>
+      <c r="J34" s="142">
         <v>1</v>
       </c>
       <c r="K34" s="40"/>
@@ -8486,8 +8619,8 @@
       <c r="AK34" s="41"/>
       <c r="AL34" s="41"/>
       <c r="AM34" s="41"/>
-      <c r="AN34" s="269"/>
-      <c r="AO34" s="44"/>
+      <c r="AN34" s="41"/>
+      <c r="AO34" s="204"/>
       <c r="AP34" s="45"/>
       <c r="AQ34" s="41"/>
       <c r="AR34" s="41"/>
@@ -8518,23 +8651,23 @@
     </row>
     <row r="35" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="238"/>
-      <c r="C35" s="183"/>
-      <c r="D35" s="183"/>
-      <c r="E35" s="184"/>
-      <c r="F35" s="133">
-        <v>3</v>
-      </c>
-      <c r="G35" s="169" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" s="174" t="s">
+      <c r="B35" s="256"/>
+      <c r="C35" s="270"/>
+      <c r="D35" s="270"/>
+      <c r="E35" s="271"/>
+      <c r="F35" s="115">
+        <v>4</v>
+      </c>
+      <c r="G35" s="135" t="s">
+        <v>73</v>
+      </c>
+      <c r="H35" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="179">
-        <v>7</v>
-      </c>
-      <c r="J35" s="176">
+      <c r="I35" s="145">
+        <v>1</v>
+      </c>
+      <c r="J35" s="142">
         <v>1</v>
       </c>
       <c r="K35" s="40"/>
@@ -8567,8 +8700,8 @@
       <c r="AL35" s="41"/>
       <c r="AM35" s="41"/>
       <c r="AN35" s="41"/>
-      <c r="AO35" s="270"/>
-      <c r="AP35" s="45"/>
+      <c r="AO35" s="44"/>
+      <c r="AP35" s="205"/>
       <c r="AQ35" s="41"/>
       <c r="AR35" s="41"/>
       <c r="AS35" s="41"/>
@@ -8598,23 +8731,23 @@
     </row>
     <row r="36" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="238"/>
-      <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="184"/>
-      <c r="F36" s="133">
+      <c r="B36" s="256"/>
+      <c r="C36" s="270"/>
+      <c r="D36" s="270"/>
+      <c r="E36" s="271"/>
+      <c r="F36" s="115">
         <v>4</v>
       </c>
-      <c r="G36" s="169" t="s">
+      <c r="G36" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="179">
+      <c r="H36" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="145">
         <v>1</v>
       </c>
-      <c r="J36" s="176">
+      <c r="J36" s="142">
         <v>1</v>
       </c>
       <c r="K36" s="40"/>
@@ -8648,7 +8781,7 @@
       <c r="AM36" s="41"/>
       <c r="AN36" s="41"/>
       <c r="AO36" s="44"/>
-      <c r="AP36" s="271"/>
+      <c r="AP36" s="205"/>
       <c r="AQ36" s="41"/>
       <c r="AR36" s="41"/>
       <c r="AS36" s="41"/>
@@ -8678,23 +8811,23 @@
     </row>
     <row r="37" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="238"/>
-      <c r="C37" s="183"/>
-      <c r="D37" s="183"/>
-      <c r="E37" s="184"/>
-      <c r="F37" s="133">
+      <c r="B37" s="256"/>
+      <c r="C37" s="270"/>
+      <c r="D37" s="270"/>
+      <c r="E37" s="271"/>
+      <c r="F37" s="115">
         <v>4</v>
       </c>
-      <c r="G37" s="169" t="s">
+      <c r="G37" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="174" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="179">
+      <c r="H37" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="145">
         <v>1</v>
       </c>
-      <c r="J37" s="176">
+      <c r="J37" s="142">
         <v>1</v>
       </c>
       <c r="K37" s="40"/>
@@ -8728,7 +8861,7 @@
       <c r="AM37" s="41"/>
       <c r="AN37" s="41"/>
       <c r="AO37" s="44"/>
-      <c r="AP37" s="271"/>
+      <c r="AP37" s="205"/>
       <c r="AQ37" s="41"/>
       <c r="AR37" s="41"/>
       <c r="AS37" s="41"/>
@@ -8758,329 +8891,329 @@
     </row>
     <row r="38" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="238"/>
-      <c r="C38" s="183"/>
-      <c r="D38" s="183"/>
-      <c r="E38" s="184"/>
-      <c r="F38" s="133">
-        <v>4</v>
-      </c>
-      <c r="G38" s="169" t="s">
-        <v>73</v>
-      </c>
-      <c r="H38" s="174" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="179">
-        <v>1</v>
-      </c>
-      <c r="J38" s="176">
-        <v>1</v>
-      </c>
-      <c r="K38" s="40"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="41"/>
-      <c r="AB38" s="41"/>
-      <c r="AC38" s="41"/>
-      <c r="AD38" s="41"/>
-      <c r="AE38" s="41"/>
-      <c r="AF38" s="41"/>
-      <c r="AG38" s="41"/>
-      <c r="AH38" s="41"/>
-      <c r="AI38" s="41"/>
-      <c r="AJ38" s="41"/>
-      <c r="AK38" s="41"/>
-      <c r="AL38" s="41"/>
-      <c r="AM38" s="41"/>
-      <c r="AN38" s="41"/>
-      <c r="AO38" s="44"/>
-      <c r="AP38" s="271"/>
-      <c r="AQ38" s="41"/>
-      <c r="AR38" s="41"/>
-      <c r="AS38" s="41"/>
-      <c r="AT38" s="41"/>
-      <c r="AU38" s="41"/>
-      <c r="AV38" s="41"/>
-      <c r="AW38" s="41"/>
-      <c r="AX38" s="41"/>
-      <c r="AY38" s="41"/>
-      <c r="AZ38" s="41"/>
-      <c r="BA38" s="41"/>
-      <c r="BB38" s="41"/>
-      <c r="BC38" s="41"/>
-      <c r="BD38" s="41"/>
-      <c r="BE38" s="41"/>
-      <c r="BF38" s="41"/>
-      <c r="BG38" s="41"/>
-      <c r="BH38" s="41"/>
-      <c r="BI38" s="41"/>
-      <c r="BJ38" s="41"/>
-      <c r="BK38" s="41"/>
-      <c r="BL38" s="41"/>
-      <c r="BM38" s="41"/>
-      <c r="BN38" s="41"/>
-      <c r="BO38" s="41"/>
-      <c r="BP38" s="44"/>
+      <c r="B38" s="256"/>
+      <c r="C38" s="270"/>
+      <c r="D38" s="270"/>
+      <c r="E38" s="271"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="135"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="142"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="29"/>
+      <c r="AI38" s="29"/>
+      <c r="AJ38" s="29"/>
+      <c r="AK38" s="29"/>
+      <c r="AL38" s="29"/>
+      <c r="AM38" s="29"/>
+      <c r="AN38" s="29"/>
+      <c r="AO38" s="49"/>
+      <c r="AP38" s="30"/>
+      <c r="AQ38" s="29"/>
+      <c r="AR38" s="29"/>
+      <c r="AS38" s="29"/>
+      <c r="AT38" s="29"/>
+      <c r="AU38" s="29"/>
+      <c r="AV38" s="29"/>
+      <c r="AW38" s="29"/>
+      <c r="AX38" s="29"/>
+      <c r="AY38" s="29"/>
+      <c r="AZ38" s="29"/>
+      <c r="BA38" s="29"/>
+      <c r="BB38" s="29"/>
+      <c r="BC38" s="29"/>
+      <c r="BD38" s="29"/>
+      <c r="BE38" s="29"/>
+      <c r="BF38" s="29"/>
+      <c r="BG38" s="29"/>
+      <c r="BH38" s="29"/>
+      <c r="BI38" s="29"/>
+      <c r="BJ38" s="29"/>
+      <c r="BK38" s="29"/>
+      <c r="BL38" s="29"/>
+      <c r="BM38" s="29"/>
+      <c r="BN38" s="29"/>
+      <c r="BO38" s="29"/>
+      <c r="BP38" s="49"/>
     </row>
-    <row r="39" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
-      <c r="B39" s="238"/>
-      <c r="C39" s="183"/>
-      <c r="D39" s="183"/>
-      <c r="E39" s="184"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="169"/>
-      <c r="H39" s="174"/>
-      <c r="I39" s="179"/>
-      <c r="J39" s="176"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="29"/>
-      <c r="AF39" s="29"/>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="29"/>
-      <c r="AI39" s="29"/>
-      <c r="AJ39" s="29"/>
-      <c r="AK39" s="29"/>
-      <c r="AL39" s="29"/>
-      <c r="AM39" s="29"/>
-      <c r="AN39" s="29"/>
-      <c r="AO39" s="49"/>
-      <c r="AP39" s="30"/>
-      <c r="AQ39" s="29"/>
-      <c r="AR39" s="29"/>
-      <c r="AS39" s="29"/>
-      <c r="AT39" s="29"/>
-      <c r="AU39" s="29"/>
-      <c r="AV39" s="29"/>
-      <c r="AW39" s="29"/>
-      <c r="AX39" s="29"/>
-      <c r="AY39" s="29"/>
-      <c r="AZ39" s="29"/>
-      <c r="BA39" s="29"/>
-      <c r="BB39" s="29"/>
-      <c r="BC39" s="29"/>
-      <c r="BD39" s="29"/>
-      <c r="BE39" s="29"/>
-      <c r="BF39" s="29"/>
-      <c r="BG39" s="29"/>
-      <c r="BH39" s="29"/>
-      <c r="BI39" s="29"/>
-      <c r="BJ39" s="29"/>
-      <c r="BK39" s="29"/>
-      <c r="BL39" s="29"/>
-      <c r="BM39" s="29"/>
-      <c r="BN39" s="29"/>
-      <c r="BO39" s="29"/>
-      <c r="BP39" s="49"/>
+      <c r="B39" s="257"/>
+      <c r="C39" s="181" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="101"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="141" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="146">
+        <f>SUM(I31:I38)</f>
+        <v>48</v>
+      </c>
+      <c r="J39" s="143"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="53"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="51"/>
+      <c r="AF39" s="51"/>
+      <c r="AG39" s="51"/>
+      <c r="AH39" s="51"/>
+      <c r="AI39" s="51"/>
+      <c r="AJ39" s="51"/>
+      <c r="AK39" s="51"/>
+      <c r="AL39" s="51"/>
+      <c r="AM39" s="51"/>
+      <c r="AN39" s="51"/>
+      <c r="AO39" s="54"/>
+      <c r="AP39" s="55"/>
+      <c r="AQ39" s="51"/>
+      <c r="AR39" s="51"/>
+      <c r="AS39" s="51"/>
+      <c r="AT39" s="51"/>
+      <c r="AU39" s="51"/>
+      <c r="AV39" s="51"/>
+      <c r="AW39" s="51"/>
+      <c r="AX39" s="51"/>
+      <c r="AY39" s="51"/>
+      <c r="AZ39" s="51"/>
+      <c r="BA39" s="51"/>
+      <c r="BB39" s="51"/>
+      <c r="BC39" s="51"/>
+      <c r="BD39" s="51"/>
+      <c r="BE39" s="51"/>
+      <c r="BF39" s="51"/>
+      <c r="BG39" s="51"/>
+      <c r="BH39" s="51"/>
+      <c r="BI39" s="51"/>
+      <c r="BJ39" s="51"/>
+      <c r="BK39" s="51"/>
+      <c r="BL39" s="51"/>
+      <c r="BM39" s="51"/>
+      <c r="BN39" s="51"/>
+      <c r="BO39" s="51"/>
+      <c r="BP39" s="54"/>
     </row>
-    <row r="40" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
-      <c r="B40" s="239"/>
-      <c r="C40" s="240" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="101"/>
-      <c r="E40" s="165"/>
-      <c r="F40" s="134"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="175" t="s">
-        <v>48</v>
-      </c>
-      <c r="I40" s="180">
-        <f>SUM(I32:I39)</f>
-        <v>48</v>
-      </c>
-      <c r="J40" s="177"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="51"/>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="51"/>
-      <c r="AC40" s="51"/>
-      <c r="AD40" s="51"/>
-      <c r="AE40" s="51"/>
-      <c r="AF40" s="51"/>
-      <c r="AG40" s="51"/>
-      <c r="AH40" s="51"/>
-      <c r="AI40" s="51"/>
-      <c r="AJ40" s="51"/>
-      <c r="AK40" s="51"/>
-      <c r="AL40" s="51"/>
-      <c r="AM40" s="51"/>
-      <c r="AN40" s="51"/>
-      <c r="AO40" s="54"/>
-      <c r="AP40" s="55"/>
-      <c r="AQ40" s="51"/>
-      <c r="AR40" s="51"/>
-      <c r="AS40" s="51"/>
-      <c r="AT40" s="51"/>
-      <c r="AU40" s="51"/>
-      <c r="AV40" s="51"/>
-      <c r="AW40" s="51"/>
-      <c r="AX40" s="51"/>
-      <c r="AY40" s="51"/>
-      <c r="AZ40" s="51"/>
-      <c r="BA40" s="51"/>
-      <c r="BB40" s="51"/>
-      <c r="BC40" s="51"/>
-      <c r="BD40" s="51"/>
-      <c r="BE40" s="51"/>
-      <c r="BF40" s="51"/>
-      <c r="BG40" s="51"/>
-      <c r="BH40" s="51"/>
-      <c r="BI40" s="51"/>
-      <c r="BJ40" s="51"/>
-      <c r="BK40" s="51"/>
-      <c r="BL40" s="51"/>
-      <c r="BM40" s="51"/>
-      <c r="BN40" s="51"/>
-      <c r="BO40" s="51"/>
-      <c r="BP40" s="54"/>
+      <c r="B40" s="177"/>
+      <c r="C40" s="290" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="290"/>
+      <c r="E40" s="291"/>
+      <c r="F40" s="292">
+        <v>45600</v>
+      </c>
+      <c r="G40" s="293"/>
+      <c r="H40" s="195"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="197"/>
+      <c r="K40" s="206"/>
+      <c r="L40" s="191"/>
+      <c r="M40" s="190"/>
+      <c r="N40" s="191"/>
+      <c r="O40" s="190"/>
+      <c r="P40" s="191"/>
+      <c r="Q40" s="190"/>
+      <c r="R40" s="207"/>
+      <c r="S40" s="190"/>
+      <c r="T40" s="191"/>
+      <c r="U40" s="191"/>
+      <c r="V40" s="191"/>
+      <c r="W40" s="191"/>
+      <c r="X40" s="191"/>
+      <c r="Y40" s="191"/>
+      <c r="Z40" s="191"/>
+      <c r="AA40" s="191"/>
+      <c r="AB40" s="191"/>
+      <c r="AC40" s="191"/>
+      <c r="AD40" s="191"/>
+      <c r="AE40" s="191"/>
+      <c r="AF40" s="191"/>
+      <c r="AG40" s="191"/>
+      <c r="AH40" s="191"/>
+      <c r="AI40" s="191"/>
+      <c r="AJ40" s="191"/>
+      <c r="AK40" s="191"/>
+      <c r="AL40" s="191"/>
+      <c r="AM40" s="191"/>
+      <c r="AN40" s="191"/>
+      <c r="AO40" s="208"/>
+      <c r="AP40" s="193"/>
+      <c r="AQ40" s="191"/>
+      <c r="AR40" s="191"/>
+      <c r="AS40" s="191"/>
+      <c r="AT40" s="191"/>
+      <c r="AU40" s="191"/>
+      <c r="AV40" s="191"/>
+      <c r="AW40" s="191"/>
+      <c r="AX40" s="191"/>
+      <c r="AY40" s="191"/>
+      <c r="AZ40" s="191"/>
+      <c r="BA40" s="191"/>
+      <c r="BB40" s="191"/>
+      <c r="BC40" s="191"/>
+      <c r="BD40" s="191"/>
+      <c r="BE40" s="191"/>
+      <c r="BF40" s="191"/>
+      <c r="BG40" s="191"/>
+      <c r="BH40" s="191"/>
+      <c r="BI40" s="191"/>
+      <c r="BJ40" s="191"/>
+      <c r="BK40" s="191"/>
+      <c r="BL40" s="191"/>
+      <c r="BM40" s="191"/>
+      <c r="BN40" s="191"/>
+      <c r="BO40" s="191"/>
+      <c r="BP40" s="208"/>
     </row>
     <row r="41" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
-      <c r="B41" s="275"/>
-      <c r="C41" s="260" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="260"/>
-      <c r="E41" s="261"/>
-      <c r="F41" s="262">
-        <v>45598</v>
-      </c>
-      <c r="G41" s="263"/>
-      <c r="H41" s="257"/>
-      <c r="I41" s="258"/>
-      <c r="J41" s="259"/>
-      <c r="K41" s="272"/>
-      <c r="L41" s="253"/>
-      <c r="M41" s="252"/>
-      <c r="N41" s="253"/>
-      <c r="O41" s="252"/>
-      <c r="P41" s="253"/>
-      <c r="Q41" s="252"/>
-      <c r="R41" s="273"/>
-      <c r="S41" s="252"/>
-      <c r="T41" s="253"/>
-      <c r="U41" s="253"/>
-      <c r="V41" s="253"/>
-      <c r="W41" s="253"/>
-      <c r="X41" s="253"/>
-      <c r="Y41" s="253"/>
-      <c r="Z41" s="253"/>
-      <c r="AA41" s="253"/>
-      <c r="AB41" s="253"/>
-      <c r="AC41" s="253"/>
-      <c r="AD41" s="253"/>
-      <c r="AE41" s="253"/>
-      <c r="AF41" s="253"/>
-      <c r="AG41" s="253"/>
-      <c r="AH41" s="253"/>
-      <c r="AI41" s="253"/>
-      <c r="AJ41" s="253"/>
-      <c r="AK41" s="253"/>
-      <c r="AL41" s="253"/>
-      <c r="AM41" s="253"/>
-      <c r="AN41" s="253"/>
-      <c r="AO41" s="274"/>
-      <c r="AP41" s="255"/>
-      <c r="AQ41" s="253"/>
-      <c r="AR41" s="253"/>
-      <c r="AS41" s="253"/>
-      <c r="AT41" s="253"/>
-      <c r="AU41" s="253"/>
-      <c r="AV41" s="253"/>
-      <c r="AW41" s="253"/>
-      <c r="AX41" s="253"/>
-      <c r="AY41" s="253"/>
-      <c r="AZ41" s="253"/>
-      <c r="BA41" s="253"/>
-      <c r="BB41" s="253"/>
-      <c r="BC41" s="253"/>
-      <c r="BD41" s="253"/>
-      <c r="BE41" s="253"/>
-      <c r="BF41" s="253"/>
-      <c r="BG41" s="253"/>
-      <c r="BH41" s="253"/>
-      <c r="BI41" s="253"/>
-      <c r="BJ41" s="253"/>
-      <c r="BK41" s="253"/>
-      <c r="BL41" s="253"/>
-      <c r="BM41" s="253"/>
-      <c r="BN41" s="253"/>
-      <c r="BO41" s="253"/>
-      <c r="BP41" s="274"/>
+      <c r="B41" s="258">
+        <v>3</v>
+      </c>
+      <c r="C41" s="264" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="264"/>
+      <c r="E41" s="265"/>
+      <c r="F41" s="115">
+        <v>1</v>
+      </c>
+      <c r="G41" s="135" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="145">
+        <v>21</v>
+      </c>
+      <c r="J41" s="226">
+        <v>3</v>
+      </c>
+      <c r="K41" s="56"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="58"/>
+      <c r="T41" s="57"/>
+      <c r="U41" s="57"/>
+      <c r="V41" s="57"/>
+      <c r="W41" s="57"/>
+      <c r="X41" s="57"/>
+      <c r="Y41" s="57"/>
+      <c r="Z41" s="57"/>
+      <c r="AA41" s="57"/>
+      <c r="AB41" s="57"/>
+      <c r="AC41" s="57"/>
+      <c r="AD41" s="57"/>
+      <c r="AE41" s="57"/>
+      <c r="AF41" s="57"/>
+      <c r="AG41" s="57"/>
+      <c r="AH41" s="57"/>
+      <c r="AI41" s="57"/>
+      <c r="AJ41" s="57"/>
+      <c r="AK41" s="57"/>
+      <c r="AL41" s="57"/>
+      <c r="AM41" s="57"/>
+      <c r="AN41" s="57"/>
+      <c r="AO41" s="59"/>
+      <c r="AP41" s="60"/>
+      <c r="AQ41" s="209"/>
+      <c r="AR41" s="209"/>
+      <c r="AS41" s="209"/>
+      <c r="AT41" s="57"/>
+      <c r="AU41" s="57"/>
+      <c r="AV41" s="57"/>
+      <c r="AW41" s="57"/>
+      <c r="AX41" s="57"/>
+      <c r="AY41" s="57"/>
+      <c r="AZ41" s="57"/>
+      <c r="BA41" s="57"/>
+      <c r="BB41" s="57"/>
+      <c r="BC41" s="57"/>
+      <c r="BD41" s="57"/>
+      <c r="BE41" s="57"/>
+      <c r="BF41" s="57"/>
+      <c r="BG41" s="57"/>
+      <c r="BH41" s="57"/>
+      <c r="BI41" s="57"/>
+      <c r="BJ41" s="57"/>
+      <c r="BK41" s="57"/>
+      <c r="BL41" s="57"/>
+      <c r="BM41" s="57"/>
+      <c r="BN41" s="57"/>
+      <c r="BO41" s="57"/>
+      <c r="BP41" s="59"/>
     </row>
     <row r="42" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-      <c r="B42" s="232">
-        <v>3</v>
-      </c>
-      <c r="C42" s="166" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="166"/>
-      <c r="E42" s="182"/>
-      <c r="F42" s="133">
+      <c r="B42" s="258"/>
+      <c r="C42" s="264"/>
+      <c r="D42" s="264"/>
+      <c r="E42" s="265"/>
+      <c r="F42" s="115">
+        <v>2</v>
+      </c>
+      <c r="G42" s="135" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="145">
+        <v>5</v>
+      </c>
+      <c r="J42" s="226">
         <v>1</v>
-      </c>
-      <c r="G42" s="169" t="s">
-        <v>74</v>
-      </c>
-      <c r="H42" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="179">
-        <v>21</v>
-      </c>
-      <c r="J42" s="302">
-        <v>3</v>
       </c>
       <c r="K42" s="56"/>
       <c r="L42" s="57"/>
@@ -9114,10 +9247,10 @@
       <c r="AN42" s="57"/>
       <c r="AO42" s="59"/>
       <c r="AP42" s="60"/>
-      <c r="AQ42" s="276"/>
-      <c r="AR42" s="276"/>
-      <c r="AS42" s="276"/>
-      <c r="AT42" s="57"/>
+      <c r="AQ42" s="57"/>
+      <c r="AR42" s="57"/>
+      <c r="AS42" s="57"/>
+      <c r="AT42" s="209"/>
       <c r="AU42" s="57"/>
       <c r="AV42" s="57"/>
       <c r="AW42" s="57"/>
@@ -9143,23 +9276,25 @@
     </row>
     <row r="43" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-      <c r="B43" s="232"/>
-      <c r="C43" s="166"/>
-      <c r="D43" s="166"/>
-      <c r="E43" s="182"/>
-      <c r="F43" s="133">
-        <v>2</v>
-      </c>
-      <c r="G43" s="169" t="s">
-        <v>54</v>
-      </c>
-      <c r="H43" s="174" t="s">
+      <c r="B43" s="258"/>
+      <c r="C43" s="270" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="270"/>
+      <c r="E43" s="271"/>
+      <c r="F43" s="115">
+        <v>3</v>
+      </c>
+      <c r="G43" s="135" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="I43" s="179">
-        <v>5</v>
-      </c>
-      <c r="J43" s="302">
+      <c r="I43" s="145">
+        <v>7</v>
+      </c>
+      <c r="J43" s="226">
         <v>1</v>
       </c>
       <c r="K43" s="56"/>
@@ -9197,8 +9332,8 @@
       <c r="AQ43" s="57"/>
       <c r="AR43" s="57"/>
       <c r="AS43" s="57"/>
-      <c r="AT43" s="276"/>
-      <c r="AU43" s="57"/>
+      <c r="AT43" s="57"/>
+      <c r="AU43" s="209"/>
       <c r="AV43" s="57"/>
       <c r="AW43" s="57"/>
       <c r="AX43" s="57"/>
@@ -9223,25 +9358,23 @@
     </row>
     <row r="44" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="232"/>
-      <c r="C44" s="183" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="183"/>
-      <c r="E44" s="184"/>
-      <c r="F44" s="133">
+      <c r="B44" s="258"/>
+      <c r="C44" s="270"/>
+      <c r="D44" s="270"/>
+      <c r="E44" s="271"/>
+      <c r="F44" s="115">
         <v>3</v>
       </c>
-      <c r="G44" s="169" t="s">
+      <c r="G44" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="H44" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="I44" s="179">
+      <c r="H44" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="145">
         <v>7</v>
       </c>
-      <c r="J44" s="302">
+      <c r="J44" s="226">
         <v>1</v>
       </c>
       <c r="K44" s="56"/>
@@ -9280,7 +9413,7 @@
       <c r="AR44" s="57"/>
       <c r="AS44" s="57"/>
       <c r="AT44" s="57"/>
-      <c r="AU44" s="276"/>
+      <c r="AU44" s="209"/>
       <c r="AV44" s="57"/>
       <c r="AW44" s="57"/>
       <c r="AX44" s="57"/>
@@ -9305,23 +9438,23 @@
     </row>
     <row r="45" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-      <c r="B45" s="232"/>
-      <c r="C45" s="183"/>
-      <c r="D45" s="183"/>
-      <c r="E45" s="184"/>
-      <c r="F45" s="133">
-        <v>3</v>
-      </c>
-      <c r="G45" s="169" t="s">
-        <v>55</v>
-      </c>
-      <c r="H45" s="174" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="179">
-        <v>7</v>
-      </c>
-      <c r="J45" s="302">
+      <c r="B45" s="258"/>
+      <c r="C45" s="270"/>
+      <c r="D45" s="270"/>
+      <c r="E45" s="271"/>
+      <c r="F45" s="115">
+        <v>4</v>
+      </c>
+      <c r="G45" s="135" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="145">
+        <v>4</v>
+      </c>
+      <c r="J45" s="226">
         <v>1</v>
       </c>
       <c r="K45" s="56"/>
@@ -9360,8 +9493,8 @@
       <c r="AR45" s="57"/>
       <c r="AS45" s="57"/>
       <c r="AT45" s="57"/>
-      <c r="AU45" s="276"/>
-      <c r="AV45" s="57"/>
+      <c r="AU45" s="57"/>
+      <c r="AV45" s="209"/>
       <c r="AW45" s="57"/>
       <c r="AX45" s="57"/>
       <c r="AY45" s="57"/>
@@ -9385,23 +9518,23 @@
     </row>
     <row r="46" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-      <c r="B46" s="232"/>
-      <c r="C46" s="183"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="133">
+      <c r="B46" s="258"/>
+      <c r="C46" s="270"/>
+      <c r="D46" s="270"/>
+      <c r="E46" s="271"/>
+      <c r="F46" s="115">
         <v>4</v>
       </c>
-      <c r="G46" s="169" t="s">
+      <c r="G46" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="H46" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" s="179">
+      <c r="H46" s="140" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="145">
         <v>4</v>
       </c>
-      <c r="J46" s="302">
+      <c r="J46" s="226">
         <v>1</v>
       </c>
       <c r="K46" s="56"/>
@@ -9441,7 +9574,7 @@
       <c r="AS46" s="57"/>
       <c r="AT46" s="57"/>
       <c r="AU46" s="57"/>
-      <c r="AV46" s="276"/>
+      <c r="AV46" s="209"/>
       <c r="AW46" s="57"/>
       <c r="AX46" s="57"/>
       <c r="AY46" s="57"/>
@@ -9465,23 +9598,23 @@
     </row>
     <row r="47" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="232"/>
-      <c r="C47" s="183"/>
-      <c r="D47" s="183"/>
-      <c r="E47" s="184"/>
-      <c r="F47" s="133">
+      <c r="B47" s="258"/>
+      <c r="C47" s="270"/>
+      <c r="D47" s="270"/>
+      <c r="E47" s="271"/>
+      <c r="F47" s="115">
         <v>4</v>
       </c>
-      <c r="G47" s="169" t="s">
+      <c r="G47" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="H47" s="174" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="179">
+      <c r="H47" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="145">
         <v>4</v>
       </c>
-      <c r="J47" s="302">
+      <c r="J47" s="226">
         <v>1</v>
       </c>
       <c r="K47" s="56"/>
@@ -9521,7 +9654,7 @@
       <c r="AS47" s="57"/>
       <c r="AT47" s="57"/>
       <c r="AU47" s="57"/>
-      <c r="AV47" s="276"/>
+      <c r="AV47" s="209"/>
       <c r="AW47" s="57"/>
       <c r="AX47" s="57"/>
       <c r="AY47" s="57"/>
@@ -9545,95 +9678,85 @@
     </row>
     <row r="48" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="232"/>
-      <c r="C48" s="183"/>
-      <c r="D48" s="183"/>
-      <c r="E48" s="184"/>
-      <c r="F48" s="133">
-        <v>4</v>
-      </c>
-      <c r="G48" s="169" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" s="174" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="179">
-        <v>4</v>
-      </c>
-      <c r="J48" s="302">
-        <v>1</v>
-      </c>
-      <c r="K48" s="56"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="61"/>
-      <c r="S48" s="58"/>
-      <c r="T48" s="57"/>
-      <c r="U48" s="57"/>
-      <c r="V48" s="57"/>
-      <c r="W48" s="57"/>
-      <c r="X48" s="57"/>
-      <c r="Y48" s="57"/>
-      <c r="Z48" s="57"/>
-      <c r="AA48" s="57"/>
-      <c r="AB48" s="57"/>
-      <c r="AC48" s="57"/>
-      <c r="AD48" s="57"/>
-      <c r="AE48" s="57"/>
-      <c r="AF48" s="57"/>
-      <c r="AG48" s="57"/>
-      <c r="AH48" s="57"/>
-      <c r="AI48" s="57"/>
-      <c r="AJ48" s="57"/>
-      <c r="AK48" s="57"/>
-      <c r="AL48" s="57"/>
-      <c r="AM48" s="57"/>
-      <c r="AN48" s="57"/>
-      <c r="AO48" s="59"/>
-      <c r="AP48" s="60"/>
-      <c r="AQ48" s="57"/>
-      <c r="AR48" s="57"/>
-      <c r="AS48" s="57"/>
-      <c r="AT48" s="57"/>
-      <c r="AU48" s="57"/>
-      <c r="AV48" s="276"/>
-      <c r="AW48" s="57"/>
-      <c r="AX48" s="57"/>
-      <c r="AY48" s="57"/>
-      <c r="AZ48" s="57"/>
-      <c r="BA48" s="57"/>
-      <c r="BB48" s="57"/>
-      <c r="BC48" s="57"/>
-      <c r="BD48" s="57"/>
-      <c r="BE48" s="57"/>
-      <c r="BF48" s="57"/>
-      <c r="BG48" s="57"/>
-      <c r="BH48" s="57"/>
-      <c r="BI48" s="57"/>
-      <c r="BJ48" s="57"/>
-      <c r="BK48" s="57"/>
-      <c r="BL48" s="57"/>
-      <c r="BM48" s="57"/>
-      <c r="BN48" s="57"/>
-      <c r="BO48" s="57"/>
-      <c r="BP48" s="59"/>
+      <c r="B48" s="259"/>
+      <c r="C48" s="270"/>
+      <c r="D48" s="270"/>
+      <c r="E48" s="271"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="135"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="226"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+      <c r="P48" s="63"/>
+      <c r="Q48" s="63"/>
+      <c r="R48" s="64"/>
+      <c r="S48" s="65"/>
+      <c r="T48" s="63"/>
+      <c r="U48" s="63"/>
+      <c r="V48" s="63"/>
+      <c r="W48" s="63"/>
+      <c r="X48" s="63"/>
+      <c r="Y48" s="63"/>
+      <c r="Z48" s="63"/>
+      <c r="AA48" s="63"/>
+      <c r="AB48" s="63"/>
+      <c r="AC48" s="63"/>
+      <c r="AD48" s="63"/>
+      <c r="AE48" s="63"/>
+      <c r="AF48" s="63"/>
+      <c r="AG48" s="63"/>
+      <c r="AH48" s="63"/>
+      <c r="AI48" s="63"/>
+      <c r="AJ48" s="63"/>
+      <c r="AK48" s="63"/>
+      <c r="AL48" s="63"/>
+      <c r="AM48" s="63"/>
+      <c r="AN48" s="63"/>
+      <c r="AO48" s="66"/>
+      <c r="AP48" s="67"/>
+      <c r="AQ48" s="63"/>
+      <c r="AR48" s="63"/>
+      <c r="AS48" s="63"/>
+      <c r="AT48" s="63"/>
+      <c r="AU48" s="63"/>
+      <c r="AV48" s="63"/>
+      <c r="AW48" s="63"/>
+      <c r="AX48" s="63"/>
+      <c r="AY48" s="63"/>
+      <c r="AZ48" s="63"/>
+      <c r="BA48" s="63"/>
+      <c r="BB48" s="63"/>
+      <c r="BC48" s="63"/>
+      <c r="BD48" s="63"/>
+      <c r="BE48" s="63"/>
+      <c r="BF48" s="63"/>
+      <c r="BG48" s="63"/>
+      <c r="BH48" s="63"/>
+      <c r="BI48" s="63"/>
+      <c r="BJ48" s="63"/>
+      <c r="BK48" s="63"/>
+      <c r="BL48" s="63"/>
+      <c r="BM48" s="63"/>
+      <c r="BN48" s="63"/>
+      <c r="BO48" s="63"/>
+      <c r="BP48" s="66"/>
     </row>
     <row r="49" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
-      <c r="B49" s="233"/>
-      <c r="C49" s="183"/>
-      <c r="D49" s="183"/>
-      <c r="E49" s="184"/>
-      <c r="F49" s="133"/>
-      <c r="G49" s="169"/>
-      <c r="H49" s="174"/>
-      <c r="I49" s="179"/>
-      <c r="J49" s="302"/>
+      <c r="B49" s="259"/>
+      <c r="C49" s="270"/>
+      <c r="D49" s="270"/>
+      <c r="E49" s="271"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="135"/>
+      <c r="H49" s="140"/>
+      <c r="I49" s="145"/>
+      <c r="J49" s="226"/>
       <c r="K49" s="62"/>
       <c r="L49" s="63"/>
       <c r="M49" s="63"/>
@@ -9693,250 +9816,260 @@
       <c r="BO49" s="63"/>
       <c r="BP49" s="66"/>
     </row>
-    <row r="50" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
-      <c r="B50" s="233"/>
-      <c r="C50" s="183"/>
-      <c r="D50" s="183"/>
-      <c r="E50" s="184"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="169"/>
-      <c r="H50" s="174"/>
-      <c r="I50" s="179"/>
-      <c r="J50" s="302"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="63"/>
-      <c r="O50" s="63"/>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="63"/>
-      <c r="R50" s="64"/>
-      <c r="S50" s="65"/>
-      <c r="T50" s="63"/>
-      <c r="U50" s="63"/>
-      <c r="V50" s="63"/>
-      <c r="W50" s="63"/>
-      <c r="X50" s="63"/>
-      <c r="Y50" s="63"/>
-      <c r="Z50" s="63"/>
-      <c r="AA50" s="63"/>
-      <c r="AB50" s="63"/>
-      <c r="AC50" s="63"/>
-      <c r="AD50" s="63"/>
-      <c r="AE50" s="63"/>
-      <c r="AF50" s="63"/>
-      <c r="AG50" s="63"/>
-      <c r="AH50" s="63"/>
-      <c r="AI50" s="63"/>
-      <c r="AJ50" s="63"/>
-      <c r="AK50" s="63"/>
-      <c r="AL50" s="63"/>
-      <c r="AM50" s="63"/>
-      <c r="AN50" s="63"/>
-      <c r="AO50" s="66"/>
-      <c r="AP50" s="67"/>
-      <c r="AQ50" s="63"/>
-      <c r="AR50" s="63"/>
-      <c r="AS50" s="63"/>
-      <c r="AT50" s="63"/>
-      <c r="AU50" s="63"/>
-      <c r="AV50" s="63"/>
-      <c r="AW50" s="63"/>
-      <c r="AX50" s="63"/>
-      <c r="AY50" s="63"/>
-      <c r="AZ50" s="63"/>
-      <c r="BA50" s="63"/>
-      <c r="BB50" s="63"/>
-      <c r="BC50" s="63"/>
-      <c r="BD50" s="63"/>
-      <c r="BE50" s="63"/>
-      <c r="BF50" s="63"/>
-      <c r="BG50" s="63"/>
-      <c r="BH50" s="63"/>
-      <c r="BI50" s="63"/>
-      <c r="BJ50" s="63"/>
-      <c r="BK50" s="63"/>
-      <c r="BL50" s="63"/>
-      <c r="BM50" s="63"/>
-      <c r="BN50" s="63"/>
-      <c r="BO50" s="63"/>
-      <c r="BP50" s="66"/>
+      <c r="B50" s="260"/>
+      <c r="C50" s="178" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="102"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="179" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" s="180">
+        <f>SUM(I41:I49)</f>
+        <v>52</v>
+      </c>
+      <c r="J50" s="229"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="69"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="69"/>
+      <c r="R50" s="90"/>
+      <c r="S50" s="91"/>
+      <c r="T50" s="69"/>
+      <c r="U50" s="69"/>
+      <c r="V50" s="69"/>
+      <c r="W50" s="69"/>
+      <c r="X50" s="69"/>
+      <c r="Y50" s="69"/>
+      <c r="Z50" s="69"/>
+      <c r="AA50" s="69"/>
+      <c r="AB50" s="69"/>
+      <c r="AC50" s="69"/>
+      <c r="AD50" s="69"/>
+      <c r="AE50" s="69"/>
+      <c r="AF50" s="69"/>
+      <c r="AG50" s="69"/>
+      <c r="AH50" s="69"/>
+      <c r="AI50" s="69"/>
+      <c r="AJ50" s="69"/>
+      <c r="AK50" s="69"/>
+      <c r="AL50" s="69"/>
+      <c r="AM50" s="69"/>
+      <c r="AN50" s="69"/>
+      <c r="AO50" s="92"/>
+      <c r="AP50" s="93"/>
+      <c r="AQ50" s="69"/>
+      <c r="AR50" s="69"/>
+      <c r="AS50" s="69"/>
+      <c r="AT50" s="69"/>
+      <c r="AU50" s="69"/>
+      <c r="AV50" s="69"/>
+      <c r="AW50" s="69"/>
+      <c r="AX50" s="69"/>
+      <c r="AY50" s="69"/>
+      <c r="AZ50" s="69"/>
+      <c r="BA50" s="69"/>
+      <c r="BB50" s="69"/>
+      <c r="BC50" s="69"/>
+      <c r="BD50" s="69"/>
+      <c r="BE50" s="69"/>
+      <c r="BF50" s="69"/>
+      <c r="BG50" s="69"/>
+      <c r="BH50" s="69"/>
+      <c r="BI50" s="69"/>
+      <c r="BJ50" s="69"/>
+      <c r="BK50" s="69"/>
+      <c r="BL50" s="69"/>
+      <c r="BM50" s="69"/>
+      <c r="BN50" s="69"/>
+      <c r="BO50" s="69"/>
+      <c r="BP50" s="92"/>
     </row>
-    <row r="51" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="B51" s="120"/>
-      <c r="C51" s="234" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" s="102"/>
-      <c r="E51" s="181"/>
-      <c r="F51" s="135"/>
-      <c r="G51" s="171"/>
-      <c r="H51" s="235" t="s">
-        <v>48</v>
-      </c>
-      <c r="I51" s="236">
-        <f>SUM(I42:I50)</f>
-        <v>52</v>
-      </c>
-      <c r="J51" s="305"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="69"/>
-      <c r="N51" s="69"/>
-      <c r="O51" s="69"/>
-      <c r="P51" s="69"/>
-      <c r="Q51" s="69"/>
-      <c r="R51" s="90"/>
-      <c r="S51" s="91"/>
-      <c r="T51" s="69"/>
-      <c r="U51" s="69"/>
-      <c r="V51" s="69"/>
-      <c r="W51" s="69"/>
-      <c r="X51" s="69"/>
-      <c r="Y51" s="69"/>
-      <c r="Z51" s="69"/>
-      <c r="AA51" s="69"/>
-      <c r="AB51" s="69"/>
-      <c r="AC51" s="69"/>
-      <c r="AD51" s="69"/>
-      <c r="AE51" s="69"/>
-      <c r="AF51" s="69"/>
-      <c r="AG51" s="69"/>
-      <c r="AH51" s="69"/>
-      <c r="AI51" s="69"/>
-      <c r="AJ51" s="69"/>
-      <c r="AK51" s="69"/>
-      <c r="AL51" s="69"/>
-      <c r="AM51" s="69"/>
-      <c r="AN51" s="69"/>
-      <c r="AO51" s="92"/>
-      <c r="AP51" s="93"/>
-      <c r="AQ51" s="69"/>
-      <c r="AR51" s="69"/>
-      <c r="AS51" s="69"/>
-      <c r="AT51" s="69"/>
-      <c r="AU51" s="69"/>
-      <c r="AV51" s="69"/>
-      <c r="AW51" s="69"/>
-      <c r="AX51" s="69"/>
-      <c r="AY51" s="69"/>
-      <c r="AZ51" s="69"/>
-      <c r="BA51" s="69"/>
-      <c r="BB51" s="69"/>
-      <c r="BC51" s="69"/>
-      <c r="BD51" s="69"/>
-      <c r="BE51" s="69"/>
-      <c r="BF51" s="69"/>
-      <c r="BG51" s="69"/>
-      <c r="BH51" s="69"/>
-      <c r="BI51" s="69"/>
-      <c r="BJ51" s="69"/>
-      <c r="BK51" s="69"/>
-      <c r="BL51" s="69"/>
-      <c r="BM51" s="69"/>
-      <c r="BN51" s="69"/>
-      <c r="BO51" s="69"/>
-      <c r="BP51" s="92"/>
+      <c r="B51" s="173"/>
+      <c r="C51" s="284" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="284"/>
+      <c r="E51" s="285"/>
+      <c r="F51" s="288">
+        <v>45607</v>
+      </c>
+      <c r="G51" s="289"/>
+      <c r="H51" s="223"/>
+      <c r="I51" s="224"/>
+      <c r="J51" s="225"/>
+      <c r="K51" s="210"/>
+      <c r="L51" s="211"/>
+      <c r="M51" s="211"/>
+      <c r="N51" s="211"/>
+      <c r="O51" s="211"/>
+      <c r="P51" s="211"/>
+      <c r="Q51" s="211"/>
+      <c r="R51" s="212"/>
+      <c r="S51" s="213"/>
+      <c r="T51" s="211"/>
+      <c r="U51" s="211"/>
+      <c r="V51" s="211"/>
+      <c r="W51" s="211"/>
+      <c r="X51" s="211"/>
+      <c r="Y51" s="211"/>
+      <c r="Z51" s="211"/>
+      <c r="AA51" s="211"/>
+      <c r="AB51" s="211"/>
+      <c r="AC51" s="211"/>
+      <c r="AD51" s="211"/>
+      <c r="AE51" s="211"/>
+      <c r="AF51" s="211"/>
+      <c r="AG51" s="211"/>
+      <c r="AH51" s="211"/>
+      <c r="AI51" s="211"/>
+      <c r="AJ51" s="211"/>
+      <c r="AK51" s="211"/>
+      <c r="AL51" s="211"/>
+      <c r="AM51" s="211"/>
+      <c r="AN51" s="211"/>
+      <c r="AO51" s="214"/>
+      <c r="AP51" s="215"/>
+      <c r="AQ51" s="211"/>
+      <c r="AR51" s="211"/>
+      <c r="AS51" s="211"/>
+      <c r="AT51" s="211"/>
+      <c r="AU51" s="211"/>
+      <c r="AV51" s="211"/>
+      <c r="AW51" s="211"/>
+      <c r="AX51" s="211"/>
+      <c r="AY51" s="211"/>
+      <c r="AZ51" s="211"/>
+      <c r="BA51" s="211"/>
+      <c r="BB51" s="211"/>
+      <c r="BC51" s="211"/>
+      <c r="BD51" s="211"/>
+      <c r="BE51" s="211"/>
+      <c r="BF51" s="211"/>
+      <c r="BG51" s="211"/>
+      <c r="BH51" s="211"/>
+      <c r="BI51" s="211"/>
+      <c r="BJ51" s="211"/>
+      <c r="BK51" s="211"/>
+      <c r="BL51" s="211"/>
+      <c r="BM51" s="211"/>
+      <c r="BN51" s="211"/>
+      <c r="BO51" s="211"/>
+      <c r="BP51" s="214"/>
     </row>
     <row r="52" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="283"/>
-      <c r="C52" s="295" t="s">
-        <v>75</v>
-      </c>
-      <c r="D52" s="295"/>
-      <c r="E52" s="296"/>
-      <c r="F52" s="297">
-        <v>45606</v>
-      </c>
-      <c r="G52" s="298"/>
-      <c r="H52" s="299"/>
-      <c r="I52" s="300"/>
-      <c r="J52" s="301"/>
-      <c r="K52" s="277"/>
-      <c r="L52" s="278"/>
-      <c r="M52" s="278"/>
-      <c r="N52" s="278"/>
-      <c r="O52" s="278"/>
-      <c r="P52" s="278"/>
-      <c r="Q52" s="278"/>
-      <c r="R52" s="279"/>
-      <c r="S52" s="280"/>
-      <c r="T52" s="278"/>
-      <c r="U52" s="278"/>
-      <c r="V52" s="278"/>
-      <c r="W52" s="278"/>
-      <c r="X52" s="278"/>
-      <c r="Y52" s="278"/>
-      <c r="Z52" s="278"/>
-      <c r="AA52" s="278"/>
-      <c r="AB52" s="278"/>
-      <c r="AC52" s="278"/>
-      <c r="AD52" s="278"/>
-      <c r="AE52" s="278"/>
-      <c r="AF52" s="278"/>
-      <c r="AG52" s="278"/>
-      <c r="AH52" s="278"/>
-      <c r="AI52" s="278"/>
-      <c r="AJ52" s="278"/>
-      <c r="AK52" s="278"/>
-      <c r="AL52" s="278"/>
-      <c r="AM52" s="278"/>
-      <c r="AN52" s="278"/>
-      <c r="AO52" s="281"/>
-      <c r="AP52" s="282"/>
-      <c r="AQ52" s="278"/>
-      <c r="AR52" s="278"/>
-      <c r="AS52" s="278"/>
-      <c r="AT52" s="278"/>
-      <c r="AU52" s="278"/>
-      <c r="AV52" s="278"/>
-      <c r="AW52" s="278"/>
-      <c r="AX52" s="278"/>
-      <c r="AY52" s="278"/>
-      <c r="AZ52" s="278"/>
-      <c r="BA52" s="278"/>
-      <c r="BB52" s="278"/>
-      <c r="BC52" s="278"/>
-      <c r="BD52" s="278"/>
-      <c r="BE52" s="278"/>
-      <c r="BF52" s="278"/>
-      <c r="BG52" s="278"/>
-      <c r="BH52" s="278"/>
-      <c r="BI52" s="278"/>
-      <c r="BJ52" s="278"/>
-      <c r="BK52" s="278"/>
-      <c r="BL52" s="278"/>
-      <c r="BM52" s="278"/>
-      <c r="BN52" s="278"/>
-      <c r="BO52" s="278"/>
-      <c r="BP52" s="281"/>
+      <c r="B52" s="261">
+        <v>4</v>
+      </c>
+      <c r="C52" s="286" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="286"/>
+      <c r="E52" s="287"/>
+      <c r="F52" s="115">
+        <v>1</v>
+      </c>
+      <c r="G52" s="135" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="145">
+        <v>7</v>
+      </c>
+      <c r="J52" s="226">
+        <v>1</v>
+      </c>
+      <c r="K52" s="56"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="58"/>
+      <c r="T52" s="57"/>
+      <c r="U52" s="57"/>
+      <c r="V52" s="57"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="57"/>
+      <c r="Y52" s="57"/>
+      <c r="Z52" s="57"/>
+      <c r="AA52" s="57"/>
+      <c r="AB52" s="57"/>
+      <c r="AC52" s="57"/>
+      <c r="AD52" s="57"/>
+      <c r="AE52" s="57"/>
+      <c r="AF52" s="57"/>
+      <c r="AG52" s="57"/>
+      <c r="AH52" s="57"/>
+      <c r="AI52" s="57"/>
+      <c r="AJ52" s="57"/>
+      <c r="AK52" s="57"/>
+      <c r="AL52" s="57"/>
+      <c r="AM52" s="57"/>
+      <c r="AN52" s="57"/>
+      <c r="AO52" s="59"/>
+      <c r="AP52" s="60"/>
+      <c r="AQ52" s="57"/>
+      <c r="AR52" s="57"/>
+      <c r="AS52" s="57"/>
+      <c r="AT52" s="57"/>
+      <c r="AU52" s="57"/>
+      <c r="AV52" s="57"/>
+      <c r="AW52" s="216"/>
+      <c r="AX52" s="57"/>
+      <c r="AY52" s="57"/>
+      <c r="AZ52" s="57"/>
+      <c r="BA52" s="57"/>
+      <c r="BB52" s="57"/>
+      <c r="BC52" s="57"/>
+      <c r="BD52" s="57"/>
+      <c r="BE52" s="57"/>
+      <c r="BF52" s="57"/>
+      <c r="BG52" s="57"/>
+      <c r="BH52" s="57"/>
+      <c r="BI52" s="57"/>
+      <c r="BJ52" s="57"/>
+      <c r="BK52" s="57"/>
+      <c r="BL52" s="57"/>
+      <c r="BM52" s="57"/>
+      <c r="BN52" s="57"/>
+      <c r="BO52" s="57"/>
+      <c r="BP52" s="59"/>
     </row>
     <row r="53" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="185">
-        <v>4</v>
-      </c>
-      <c r="C53" s="186" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="186"/>
-      <c r="E53" s="308"/>
-      <c r="F53" s="133">
+      <c r="B53" s="261"/>
+      <c r="C53" s="286"/>
+      <c r="D53" s="286"/>
+      <c r="E53" s="287"/>
+      <c r="F53" s="115">
         <v>1</v>
       </c>
-      <c r="G53" s="169" t="s">
+      <c r="G53" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="H53" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="I53" s="179">
+      <c r="H53" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="145">
         <v>7</v>
       </c>
-      <c r="J53" s="302">
+      <c r="J53" s="226">
         <v>1</v>
       </c>
       <c r="K53" s="56"/>
@@ -9977,7 +10110,7 @@
       <c r="AT53" s="57"/>
       <c r="AU53" s="57"/>
       <c r="AV53" s="57"/>
-      <c r="AW53" s="284"/>
+      <c r="AW53" s="216"/>
       <c r="AX53" s="57"/>
       <c r="AY53" s="57"/>
       <c r="AZ53" s="57"/>
@@ -10000,23 +10133,25 @@
     </row>
     <row r="54" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="185"/>
-      <c r="C54" s="186"/>
-      <c r="D54" s="186"/>
-      <c r="E54" s="308"/>
-      <c r="F54" s="133">
+      <c r="B54" s="261"/>
+      <c r="C54" s="270" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="270"/>
+      <c r="E54" s="271"/>
+      <c r="F54" s="115">
         <v>1</v>
       </c>
-      <c r="G54" s="169" t="s">
+      <c r="G54" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="H54" s="174" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="179">
+      <c r="H54" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="145">
         <v>7</v>
       </c>
-      <c r="J54" s="302">
+      <c r="J54" s="226">
         <v>1</v>
       </c>
       <c r="K54" s="56"/>
@@ -10057,7 +10192,7 @@
       <c r="AT54" s="57"/>
       <c r="AU54" s="57"/>
       <c r="AV54" s="57"/>
-      <c r="AW54" s="284"/>
+      <c r="AW54" s="216"/>
       <c r="AX54" s="57"/>
       <c r="AY54" s="57"/>
       <c r="AZ54" s="57"/>
@@ -10080,25 +10215,23 @@
     </row>
     <row r="55" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="185"/>
-      <c r="C55" s="183" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="183"/>
-      <c r="E55" s="184"/>
-      <c r="F55" s="133">
-        <v>1</v>
-      </c>
-      <c r="G55" s="169" t="s">
-        <v>59</v>
-      </c>
-      <c r="H55" s="174" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" s="179">
+      <c r="B55" s="261"/>
+      <c r="C55" s="270"/>
+      <c r="D55" s="270"/>
+      <c r="E55" s="271"/>
+      <c r="F55" s="115">
+        <v>2</v>
+      </c>
+      <c r="G55" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="145">
         <v>7</v>
       </c>
-      <c r="J55" s="302">
+      <c r="J55" s="226">
         <v>1</v>
       </c>
       <c r="K55" s="56"/>
@@ -10139,8 +10272,8 @@
       <c r="AT55" s="57"/>
       <c r="AU55" s="57"/>
       <c r="AV55" s="57"/>
-      <c r="AW55" s="284"/>
-      <c r="AX55" s="57"/>
+      <c r="AW55" s="57"/>
+      <c r="AX55" s="216"/>
       <c r="AY55" s="57"/>
       <c r="AZ55" s="57"/>
       <c r="BA55" s="57"/>
@@ -10162,23 +10295,23 @@
     </row>
     <row r="56" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="185"/>
-      <c r="C56" s="183"/>
-      <c r="D56" s="183"/>
-      <c r="E56" s="184"/>
-      <c r="F56" s="133">
+      <c r="B56" s="261"/>
+      <c r="C56" s="270"/>
+      <c r="D56" s="270"/>
+      <c r="E56" s="271"/>
+      <c r="F56" s="115">
         <v>2</v>
       </c>
-      <c r="G56" s="169" t="s">
+      <c r="G56" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="H56" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="I56" s="179">
+      <c r="H56" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="145">
         <v>7</v>
       </c>
-      <c r="J56" s="302">
+      <c r="J56" s="226">
         <v>1</v>
       </c>
       <c r="K56" s="56"/>
@@ -10220,7 +10353,7 @@
       <c r="AU56" s="57"/>
       <c r="AV56" s="57"/>
       <c r="AW56" s="57"/>
-      <c r="AX56" s="284"/>
+      <c r="AX56" s="216"/>
       <c r="AY56" s="57"/>
       <c r="AZ56" s="57"/>
       <c r="BA56" s="57"/>
@@ -10242,23 +10375,23 @@
     </row>
     <row r="57" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-      <c r="B57" s="185"/>
-      <c r="C57" s="183"/>
-      <c r="D57" s="183"/>
-      <c r="E57" s="184"/>
-      <c r="F57" s="133">
+      <c r="B57" s="261"/>
+      <c r="C57" s="270"/>
+      <c r="D57" s="270"/>
+      <c r="E57" s="271"/>
+      <c r="F57" s="115">
         <v>2</v>
       </c>
-      <c r="G57" s="169" t="s">
+      <c r="G57" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="H57" s="174" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="179">
+      <c r="H57" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="145">
         <v>7</v>
       </c>
-      <c r="J57" s="302">
+      <c r="J57" s="226">
         <v>1</v>
       </c>
       <c r="K57" s="56"/>
@@ -10300,7 +10433,7 @@
       <c r="AU57" s="57"/>
       <c r="AV57" s="57"/>
       <c r="AW57" s="57"/>
-      <c r="AX57" s="284"/>
+      <c r="AX57" s="216"/>
       <c r="AY57" s="57"/>
       <c r="AZ57" s="57"/>
       <c r="BA57" s="57"/>
@@ -10322,25 +10455,15 @@
     </row>
     <row r="58" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-      <c r="B58" s="185"/>
-      <c r="C58" s="183"/>
-      <c r="D58" s="183"/>
-      <c r="E58" s="184"/>
-      <c r="F58" s="133">
-        <v>2</v>
-      </c>
-      <c r="G58" s="169" t="s">
-        <v>60</v>
-      </c>
-      <c r="H58" s="174" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="179">
-        <v>7</v>
-      </c>
-      <c r="J58" s="302">
-        <v>1</v>
-      </c>
+      <c r="B58" s="261"/>
+      <c r="C58" s="270"/>
+      <c r="D58" s="270"/>
+      <c r="E58" s="271"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="135"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="145"/>
+      <c r="J58" s="226"/>
       <c r="K58" s="56"/>
       <c r="L58" s="57"/>
       <c r="M58" s="57"/>
@@ -10380,7 +10503,7 @@
       <c r="AU58" s="57"/>
       <c r="AV58" s="57"/>
       <c r="AW58" s="57"/>
-      <c r="AX58" s="284"/>
+      <c r="AX58" s="57"/>
       <c r="AY58" s="57"/>
       <c r="AZ58" s="57"/>
       <c r="BA58" s="57"/>
@@ -10402,85 +10525,85 @@
     </row>
     <row r="59" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="185"/>
-      <c r="C59" s="183"/>
-      <c r="D59" s="183"/>
-      <c r="E59" s="184"/>
-      <c r="F59" s="133"/>
-      <c r="G59" s="169"/>
-      <c r="H59" s="174"/>
-      <c r="I59" s="179"/>
-      <c r="J59" s="302"/>
-      <c r="K59" s="56"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="57"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="57"/>
-      <c r="R59" s="61"/>
-      <c r="S59" s="58"/>
-      <c r="T59" s="57"/>
-      <c r="U59" s="57"/>
-      <c r="V59" s="57"/>
-      <c r="W59" s="57"/>
-      <c r="X59" s="57"/>
-      <c r="Y59" s="57"/>
-      <c r="Z59" s="57"/>
-      <c r="AA59" s="57"/>
-      <c r="AB59" s="57"/>
-      <c r="AC59" s="57"/>
-      <c r="AD59" s="57"/>
-      <c r="AE59" s="57"/>
-      <c r="AF59" s="57"/>
-      <c r="AG59" s="57"/>
-      <c r="AH59" s="57"/>
-      <c r="AI59" s="57"/>
-      <c r="AJ59" s="57"/>
-      <c r="AK59" s="57"/>
-      <c r="AL59" s="57"/>
-      <c r="AM59" s="57"/>
-      <c r="AN59" s="57"/>
-      <c r="AO59" s="59"/>
-      <c r="AP59" s="60"/>
-      <c r="AQ59" s="57"/>
-      <c r="AR59" s="57"/>
-      <c r="AS59" s="57"/>
-      <c r="AT59" s="57"/>
-      <c r="AU59" s="57"/>
-      <c r="AV59" s="57"/>
-      <c r="AW59" s="57"/>
-      <c r="AX59" s="57"/>
-      <c r="AY59" s="57"/>
-      <c r="AZ59" s="57"/>
-      <c r="BA59" s="57"/>
-      <c r="BB59" s="57"/>
-      <c r="BC59" s="57"/>
-      <c r="BD59" s="57"/>
-      <c r="BE59" s="57"/>
-      <c r="BF59" s="57"/>
-      <c r="BG59" s="57"/>
-      <c r="BH59" s="57"/>
-      <c r="BI59" s="57"/>
-      <c r="BJ59" s="57"/>
-      <c r="BK59" s="57"/>
-      <c r="BL59" s="57"/>
-      <c r="BM59" s="57"/>
-      <c r="BN59" s="57"/>
-      <c r="BO59" s="57"/>
-      <c r="BP59" s="59"/>
+      <c r="B59" s="262"/>
+      <c r="C59" s="270"/>
+      <c r="D59" s="270"/>
+      <c r="E59" s="271"/>
+      <c r="F59" s="115"/>
+      <c r="G59" s="135"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="145"/>
+      <c r="J59" s="226"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="63"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
+      <c r="P59" s="63"/>
+      <c r="Q59" s="63"/>
+      <c r="R59" s="64"/>
+      <c r="S59" s="65"/>
+      <c r="T59" s="63"/>
+      <c r="U59" s="63"/>
+      <c r="V59" s="63"/>
+      <c r="W59" s="63"/>
+      <c r="X59" s="63"/>
+      <c r="Y59" s="63"/>
+      <c r="Z59" s="63"/>
+      <c r="AA59" s="63"/>
+      <c r="AB59" s="63"/>
+      <c r="AC59" s="63"/>
+      <c r="AD59" s="63"/>
+      <c r="AE59" s="63"/>
+      <c r="AF59" s="63"/>
+      <c r="AG59" s="63"/>
+      <c r="AH59" s="63"/>
+      <c r="AI59" s="63"/>
+      <c r="AJ59" s="63"/>
+      <c r="AK59" s="63"/>
+      <c r="AL59" s="63"/>
+      <c r="AM59" s="63"/>
+      <c r="AN59" s="63"/>
+      <c r="AO59" s="66"/>
+      <c r="AP59" s="67"/>
+      <c r="AQ59" s="63"/>
+      <c r="AR59" s="63"/>
+      <c r="AS59" s="63"/>
+      <c r="AT59" s="63"/>
+      <c r="AU59" s="63"/>
+      <c r="AV59" s="63"/>
+      <c r="AW59" s="63"/>
+      <c r="AX59" s="63"/>
+      <c r="AY59" s="63"/>
+      <c r="AZ59" s="63"/>
+      <c r="BA59" s="63"/>
+      <c r="BB59" s="63"/>
+      <c r="BC59" s="63"/>
+      <c r="BD59" s="63"/>
+      <c r="BE59" s="63"/>
+      <c r="BF59" s="63"/>
+      <c r="BG59" s="63"/>
+      <c r="BH59" s="63"/>
+      <c r="BI59" s="63"/>
+      <c r="BJ59" s="63"/>
+      <c r="BK59" s="63"/>
+      <c r="BL59" s="63"/>
+      <c r="BM59" s="63"/>
+      <c r="BN59" s="63"/>
+      <c r="BO59" s="63"/>
+      <c r="BP59" s="66"/>
     </row>
     <row r="60" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="228"/>
-      <c r="C60" s="183"/>
-      <c r="D60" s="183"/>
-      <c r="E60" s="184"/>
-      <c r="F60" s="133"/>
-      <c r="G60" s="169"/>
-      <c r="H60" s="174"/>
-      <c r="I60" s="179"/>
-      <c r="J60" s="302"/>
+      <c r="B60" s="262"/>
+      <c r="C60" s="270"/>
+      <c r="D60" s="270"/>
+      <c r="E60" s="271"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="135"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="145"/>
+      <c r="J60" s="226"/>
       <c r="K60" s="62"/>
       <c r="L60" s="63"/>
       <c r="M60" s="63"/>
@@ -10540,251 +10663,261 @@
       <c r="BO60" s="63"/>
       <c r="BP60" s="66"/>
     </row>
-    <row r="61" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
-      <c r="B61" s="228"/>
-      <c r="C61" s="183"/>
-      <c r="D61" s="183"/>
-      <c r="E61" s="184"/>
-      <c r="F61" s="133"/>
-      <c r="G61" s="169"/>
-      <c r="H61" s="174"/>
-      <c r="I61" s="179"/>
-      <c r="J61" s="302"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="63"/>
-      <c r="M61" s="63"/>
-      <c r="N61" s="63"/>
-      <c r="O61" s="63"/>
-      <c r="P61" s="63"/>
-      <c r="Q61" s="63"/>
-      <c r="R61" s="64"/>
-      <c r="S61" s="65"/>
-      <c r="T61" s="63"/>
-      <c r="U61" s="63"/>
-      <c r="V61" s="63"/>
-      <c r="W61" s="63"/>
-      <c r="X61" s="63"/>
-      <c r="Y61" s="63"/>
-      <c r="Z61" s="63"/>
-      <c r="AA61" s="63"/>
-      <c r="AB61" s="63"/>
-      <c r="AC61" s="63"/>
-      <c r="AD61" s="63"/>
-      <c r="AE61" s="63"/>
-      <c r="AF61" s="63"/>
-      <c r="AG61" s="63"/>
-      <c r="AH61" s="63"/>
-      <c r="AI61" s="63"/>
-      <c r="AJ61" s="63"/>
-      <c r="AK61" s="63"/>
-      <c r="AL61" s="63"/>
-      <c r="AM61" s="63"/>
-      <c r="AN61" s="63"/>
-      <c r="AO61" s="66"/>
-      <c r="AP61" s="67"/>
-      <c r="AQ61" s="63"/>
-      <c r="AR61" s="63"/>
-      <c r="AS61" s="63"/>
-      <c r="AT61" s="63"/>
-      <c r="AU61" s="63"/>
-      <c r="AV61" s="63"/>
-      <c r="AW61" s="63"/>
-      <c r="AX61" s="63"/>
-      <c r="AY61" s="63"/>
-      <c r="AZ61" s="63"/>
-      <c r="BA61" s="63"/>
-      <c r="BB61" s="63"/>
-      <c r="BC61" s="63"/>
-      <c r="BD61" s="63"/>
-      <c r="BE61" s="63"/>
-      <c r="BF61" s="63"/>
-      <c r="BG61" s="63"/>
-      <c r="BH61" s="63"/>
-      <c r="BI61" s="63"/>
-      <c r="BJ61" s="63"/>
-      <c r="BK61" s="63"/>
-      <c r="BL61" s="63"/>
-      <c r="BM61" s="63"/>
-      <c r="BN61" s="63"/>
-      <c r="BO61" s="63"/>
-      <c r="BP61" s="66"/>
+      <c r="B61" s="263"/>
+      <c r="C61" s="174" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" s="103"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="118"/>
+      <c r="G61" s="138"/>
+      <c r="H61" s="175" t="s">
+        <v>48</v>
+      </c>
+      <c r="I61" s="176">
+        <f>SUM(I52:I60)</f>
+        <v>42</v>
+      </c>
+      <c r="J61" s="227"/>
+      <c r="K61" s="70"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="107"/>
+      <c r="S61" s="108"/>
+      <c r="T61" s="71"/>
+      <c r="U61" s="71"/>
+      <c r="V61" s="71"/>
+      <c r="W61" s="71"/>
+      <c r="X61" s="71"/>
+      <c r="Y61" s="71"/>
+      <c r="Z61" s="71"/>
+      <c r="AA61" s="71"/>
+      <c r="AB61" s="71"/>
+      <c r="AC61" s="71"/>
+      <c r="AD61" s="71"/>
+      <c r="AE61" s="71"/>
+      <c r="AF61" s="71"/>
+      <c r="AG61" s="71"/>
+      <c r="AH61" s="71"/>
+      <c r="AI61" s="71"/>
+      <c r="AJ61" s="71"/>
+      <c r="AK61" s="71"/>
+      <c r="AL61" s="71"/>
+      <c r="AM61" s="71"/>
+      <c r="AN61" s="71"/>
+      <c r="AO61" s="109"/>
+      <c r="AP61" s="110"/>
+      <c r="AQ61" s="71"/>
+      <c r="AR61" s="71"/>
+      <c r="AS61" s="71"/>
+      <c r="AT61" s="71"/>
+      <c r="AU61" s="71"/>
+      <c r="AV61" s="71"/>
+      <c r="AW61" s="71"/>
+      <c r="AX61" s="71"/>
+      <c r="AY61" s="71"/>
+      <c r="AZ61" s="71"/>
+      <c r="BA61" s="71"/>
+      <c r="BB61" s="71"/>
+      <c r="BC61" s="71"/>
+      <c r="BD61" s="71"/>
+      <c r="BE61" s="71"/>
+      <c r="BF61" s="71"/>
+      <c r="BG61" s="71"/>
+      <c r="BH61" s="71"/>
+      <c r="BI61" s="71"/>
+      <c r="BJ61" s="71"/>
+      <c r="BK61" s="71"/>
+      <c r="BL61" s="71"/>
+      <c r="BM61" s="71"/>
+      <c r="BN61" s="71"/>
+      <c r="BO61" s="71"/>
+      <c r="BP61" s="109"/>
     </row>
-    <row r="62" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="229" t="s">
-        <v>45</v>
-      </c>
-      <c r="D62" s="103"/>
-      <c r="E62" s="187"/>
-      <c r="F62" s="136"/>
-      <c r="G62" s="172"/>
-      <c r="H62" s="230" t="s">
-        <v>48</v>
-      </c>
-      <c r="I62" s="231">
-        <f>SUM(I53:I61)</f>
-        <v>42</v>
-      </c>
-      <c r="J62" s="303"/>
-      <c r="K62" s="70"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="71"/>
-      <c r="O62" s="71"/>
-      <c r="P62" s="71"/>
-      <c r="Q62" s="71"/>
-      <c r="R62" s="125"/>
-      <c r="S62" s="126"/>
-      <c r="T62" s="71"/>
-      <c r="U62" s="71"/>
-      <c r="V62" s="71"/>
-      <c r="W62" s="71"/>
-      <c r="X62" s="71"/>
-      <c r="Y62" s="71"/>
-      <c r="Z62" s="71"/>
-      <c r="AA62" s="71"/>
-      <c r="AB62" s="71"/>
-      <c r="AC62" s="71"/>
-      <c r="AD62" s="71"/>
-      <c r="AE62" s="71"/>
-      <c r="AF62" s="71"/>
-      <c r="AG62" s="71"/>
-      <c r="AH62" s="71"/>
-      <c r="AI62" s="71"/>
-      <c r="AJ62" s="71"/>
-      <c r="AK62" s="71"/>
-      <c r="AL62" s="71"/>
-      <c r="AM62" s="71"/>
-      <c r="AN62" s="71"/>
-      <c r="AO62" s="127"/>
-      <c r="AP62" s="128"/>
-      <c r="AQ62" s="71"/>
-      <c r="AR62" s="71"/>
-      <c r="AS62" s="71"/>
-      <c r="AT62" s="71"/>
-      <c r="AU62" s="71"/>
-      <c r="AV62" s="71"/>
-      <c r="AW62" s="71"/>
-      <c r="AX62" s="71"/>
-      <c r="AY62" s="71"/>
-      <c r="AZ62" s="71"/>
-      <c r="BA62" s="71"/>
-      <c r="BB62" s="71"/>
-      <c r="BC62" s="71"/>
-      <c r="BD62" s="71"/>
-      <c r="BE62" s="71"/>
-      <c r="BF62" s="71"/>
-      <c r="BG62" s="71"/>
-      <c r="BH62" s="71"/>
-      <c r="BI62" s="71"/>
-      <c r="BJ62" s="71"/>
-      <c r="BK62" s="71"/>
-      <c r="BL62" s="71"/>
-      <c r="BM62" s="71"/>
-      <c r="BN62" s="71"/>
-      <c r="BO62" s="71"/>
-      <c r="BP62" s="127"/>
+      <c r="B62" s="159"/>
+      <c r="C62" s="284" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="284"/>
+      <c r="E62" s="285"/>
+      <c r="F62" s="288">
+        <v>45614</v>
+      </c>
+      <c r="G62" s="289"/>
+      <c r="H62" s="223"/>
+      <c r="I62" s="224"/>
+      <c r="J62" s="225"/>
+      <c r="K62" s="210"/>
+      <c r="L62" s="211"/>
+      <c r="M62" s="211"/>
+      <c r="N62" s="211"/>
+      <c r="O62" s="211"/>
+      <c r="P62" s="211"/>
+      <c r="Q62" s="211"/>
+      <c r="R62" s="212"/>
+      <c r="S62" s="213"/>
+      <c r="T62" s="211"/>
+      <c r="U62" s="211"/>
+      <c r="V62" s="211"/>
+      <c r="W62" s="211"/>
+      <c r="X62" s="211"/>
+      <c r="Y62" s="211"/>
+      <c r="Z62" s="211"/>
+      <c r="AA62" s="211"/>
+      <c r="AB62" s="211"/>
+      <c r="AC62" s="211"/>
+      <c r="AD62" s="211"/>
+      <c r="AE62" s="211"/>
+      <c r="AF62" s="211"/>
+      <c r="AG62" s="211"/>
+      <c r="AH62" s="211"/>
+      <c r="AI62" s="211"/>
+      <c r="AJ62" s="211"/>
+      <c r="AK62" s="211"/>
+      <c r="AL62" s="211"/>
+      <c r="AM62" s="211"/>
+      <c r="AN62" s="211"/>
+      <c r="AO62" s="214"/>
+      <c r="AP62" s="215"/>
+      <c r="AQ62" s="211"/>
+      <c r="AR62" s="211"/>
+      <c r="AS62" s="211"/>
+      <c r="AT62" s="211"/>
+      <c r="AU62" s="211"/>
+      <c r="AV62" s="211"/>
+      <c r="AW62" s="211"/>
+      <c r="AX62" s="211"/>
+      <c r="AY62" s="211"/>
+      <c r="AZ62" s="211"/>
+      <c r="BA62" s="211"/>
+      <c r="BB62" s="211"/>
+      <c r="BC62" s="211"/>
+      <c r="BD62" s="211"/>
+      <c r="BE62" s="211"/>
+      <c r="BF62" s="211"/>
+      <c r="BG62" s="211"/>
+      <c r="BH62" s="211"/>
+      <c r="BI62" s="211"/>
+      <c r="BJ62" s="211"/>
+      <c r="BK62" s="211"/>
+      <c r="BL62" s="211"/>
+      <c r="BM62" s="211"/>
+      <c r="BN62" s="211"/>
+      <c r="BO62" s="211"/>
+      <c r="BP62" s="214"/>
     </row>
     <row r="63" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
-      <c r="B63" s="285"/>
+      <c r="B63" s="247">
+        <v>5</v>
+      </c>
       <c r="C63" s="295" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="D63" s="295"/>
       <c r="E63" s="296"/>
-      <c r="F63" s="297">
-        <v>45606</v>
-      </c>
-      <c r="G63" s="298"/>
-      <c r="H63" s="299"/>
-      <c r="I63" s="300"/>
-      <c r="J63" s="301"/>
-      <c r="K63" s="277"/>
-      <c r="L63" s="278"/>
-      <c r="M63" s="278"/>
-      <c r="N63" s="278"/>
-      <c r="O63" s="278"/>
-      <c r="P63" s="278"/>
-      <c r="Q63" s="278"/>
-      <c r="R63" s="279"/>
-      <c r="S63" s="280"/>
-      <c r="T63" s="278"/>
-      <c r="U63" s="278"/>
-      <c r="V63" s="278"/>
-      <c r="W63" s="278"/>
-      <c r="X63" s="278"/>
-      <c r="Y63" s="278"/>
-      <c r="Z63" s="278"/>
-      <c r="AA63" s="278"/>
-      <c r="AB63" s="278"/>
-      <c r="AC63" s="278"/>
-      <c r="AD63" s="278"/>
-      <c r="AE63" s="278"/>
-      <c r="AF63" s="278"/>
-      <c r="AG63" s="278"/>
-      <c r="AH63" s="278"/>
-      <c r="AI63" s="278"/>
-      <c r="AJ63" s="278"/>
-      <c r="AK63" s="278"/>
-      <c r="AL63" s="278"/>
-      <c r="AM63" s="278"/>
-      <c r="AN63" s="278"/>
-      <c r="AO63" s="281"/>
-      <c r="AP63" s="282"/>
-      <c r="AQ63" s="278"/>
-      <c r="AR63" s="278"/>
-      <c r="AS63" s="278"/>
-      <c r="AT63" s="278"/>
-      <c r="AU63" s="278"/>
-      <c r="AV63" s="278"/>
-      <c r="AW63" s="278"/>
-      <c r="AX63" s="278"/>
-      <c r="AY63" s="278"/>
-      <c r="AZ63" s="278"/>
-      <c r="BA63" s="278"/>
-      <c r="BB63" s="278"/>
-      <c r="BC63" s="278"/>
-      <c r="BD63" s="278"/>
-      <c r="BE63" s="278"/>
-      <c r="BF63" s="278"/>
-      <c r="BG63" s="278"/>
-      <c r="BH63" s="278"/>
-      <c r="BI63" s="278"/>
-      <c r="BJ63" s="278"/>
-      <c r="BK63" s="278"/>
-      <c r="BL63" s="278"/>
-      <c r="BM63" s="278"/>
-      <c r="BN63" s="278"/>
-      <c r="BO63" s="278"/>
-      <c r="BP63" s="281"/>
+      <c r="F63" s="115">
+        <v>1</v>
+      </c>
+      <c r="G63" s="135" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" s="145">
+        <v>21</v>
+      </c>
+      <c r="J63" s="226">
+        <v>3</v>
+      </c>
+      <c r="K63" s="56"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="61"/>
+      <c r="S63" s="58"/>
+      <c r="T63" s="57"/>
+      <c r="U63" s="57"/>
+      <c r="V63" s="57"/>
+      <c r="W63" s="57"/>
+      <c r="X63" s="57"/>
+      <c r="Y63" s="57"/>
+      <c r="Z63" s="57"/>
+      <c r="AA63" s="57"/>
+      <c r="AB63" s="57"/>
+      <c r="AC63" s="57"/>
+      <c r="AD63" s="57"/>
+      <c r="AE63" s="57"/>
+      <c r="AF63" s="57"/>
+      <c r="AG63" s="57"/>
+      <c r="AH63" s="57"/>
+      <c r="AI63" s="57"/>
+      <c r="AJ63" s="57"/>
+      <c r="AK63" s="57"/>
+      <c r="AL63" s="57"/>
+      <c r="AM63" s="57"/>
+      <c r="AN63" s="57"/>
+      <c r="AO63" s="59"/>
+      <c r="AP63" s="60"/>
+      <c r="AQ63" s="57"/>
+      <c r="AR63" s="57"/>
+      <c r="AS63" s="57"/>
+      <c r="AT63" s="57"/>
+      <c r="AU63" s="57"/>
+      <c r="AV63" s="57"/>
+      <c r="AW63" s="57"/>
+      <c r="AX63" s="57"/>
+      <c r="AY63" s="217"/>
+      <c r="AZ63" s="217"/>
+      <c r="BA63" s="57"/>
+      <c r="BB63" s="57"/>
+      <c r="BC63" s="57"/>
+      <c r="BD63" s="57"/>
+      <c r="BE63" s="57"/>
+      <c r="BF63" s="57"/>
+      <c r="BG63" s="57"/>
+      <c r="BH63" s="57"/>
+      <c r="BI63" s="57"/>
+      <c r="BJ63" s="57"/>
+      <c r="BK63" s="57"/>
+      <c r="BL63" s="57"/>
+      <c r="BM63" s="57"/>
+      <c r="BN63" s="57"/>
+      <c r="BO63" s="57"/>
+      <c r="BP63" s="59"/>
     </row>
     <row r="64" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
-      <c r="B64" s="212">
-        <v>5</v>
-      </c>
-      <c r="C64" s="167" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="167"/>
-      <c r="E64" s="191"/>
-      <c r="F64" s="133">
+      <c r="B64" s="247"/>
+      <c r="C64" s="295"/>
+      <c r="D64" s="295"/>
+      <c r="E64" s="296"/>
+      <c r="F64" s="115">
+        <v>2</v>
+      </c>
+      <c r="G64" s="135" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="145">
+        <v>4</v>
+      </c>
+      <c r="J64" s="226">
         <v>1</v>
-      </c>
-      <c r="G64" s="169" t="s">
-        <v>62</v>
-      </c>
-      <c r="H64" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="I64" s="179">
-        <v>21</v>
-      </c>
-      <c r="J64" s="302">
-        <v>3</v>
       </c>
       <c r="K64" s="56"/>
       <c r="L64" s="57"/>
@@ -10826,8 +10959,8 @@
       <c r="AV64" s="57"/>
       <c r="AW64" s="57"/>
       <c r="AX64" s="57"/>
-      <c r="AY64" s="286"/>
-      <c r="AZ64" s="286"/>
+      <c r="AY64" s="57"/>
+      <c r="AZ64" s="217"/>
       <c r="BA64" s="57"/>
       <c r="BB64" s="57"/>
       <c r="BC64" s="57"/>
@@ -10847,23 +10980,25 @@
     </row>
     <row r="65" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
-      <c r="B65" s="212"/>
-      <c r="C65" s="167"/>
-      <c r="D65" s="167"/>
-      <c r="E65" s="191"/>
-      <c r="F65" s="133">
+      <c r="B65" s="247"/>
+      <c r="C65" s="270" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="270"/>
+      <c r="E65" s="271"/>
+      <c r="F65" s="115">
         <v>2</v>
       </c>
-      <c r="G65" s="169" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" s="174" t="s">
-        <v>8</v>
-      </c>
-      <c r="I65" s="179">
-        <v>4</v>
-      </c>
-      <c r="J65" s="302">
+      <c r="G65" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" s="145">
+        <v>7</v>
+      </c>
+      <c r="J65" s="226">
         <v>1</v>
       </c>
       <c r="K65" s="56"/>
@@ -10907,8 +11042,8 @@
       <c r="AW65" s="57"/>
       <c r="AX65" s="57"/>
       <c r="AY65" s="57"/>
-      <c r="AZ65" s="286"/>
-      <c r="BA65" s="57"/>
+      <c r="AZ65" s="57"/>
+      <c r="BA65" s="217"/>
       <c r="BB65" s="57"/>
       <c r="BC65" s="57"/>
       <c r="BD65" s="57"/>
@@ -10927,25 +11062,23 @@
     </row>
     <row r="66" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
-      <c r="B66" s="212"/>
-      <c r="C66" s="183" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="183"/>
-      <c r="E66" s="184"/>
-      <c r="F66" s="133">
+      <c r="B66" s="247"/>
+      <c r="C66" s="270"/>
+      <c r="D66" s="270"/>
+      <c r="E66" s="271"/>
+      <c r="F66" s="115">
         <v>2</v>
       </c>
-      <c r="G66" s="169" t="s">
+      <c r="G66" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="H66" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="I66" s="179">
+      <c r="H66" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="145">
         <v>7</v>
       </c>
-      <c r="J66" s="302">
+      <c r="J66" s="226">
         <v>1</v>
       </c>
       <c r="K66" s="56"/>
@@ -10990,7 +11123,7 @@
       <c r="AX66" s="57"/>
       <c r="AY66" s="57"/>
       <c r="AZ66" s="57"/>
-      <c r="BA66" s="286"/>
+      <c r="BA66" s="217"/>
       <c r="BB66" s="57"/>
       <c r="BC66" s="57"/>
       <c r="BD66" s="57"/>
@@ -11009,23 +11142,23 @@
     </row>
     <row r="67" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
-      <c r="B67" s="212"/>
-      <c r="C67" s="183"/>
-      <c r="D67" s="183"/>
-      <c r="E67" s="184"/>
-      <c r="F67" s="133">
+      <c r="B67" s="247"/>
+      <c r="C67" s="270"/>
+      <c r="D67" s="270"/>
+      <c r="E67" s="271"/>
+      <c r="F67" s="115">
         <v>2</v>
       </c>
-      <c r="G67" s="169" t="s">
+      <c r="G67" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="H67" s="174" t="s">
-        <v>8</v>
-      </c>
-      <c r="I67" s="179">
+      <c r="H67" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="145">
         <v>7</v>
       </c>
-      <c r="J67" s="302">
+      <c r="J67" s="226">
         <v>1</v>
       </c>
       <c r="K67" s="56"/>
@@ -11070,7 +11203,7 @@
       <c r="AX67" s="57"/>
       <c r="AY67" s="57"/>
       <c r="AZ67" s="57"/>
-      <c r="BA67" s="286"/>
+      <c r="BA67" s="217"/>
       <c r="BB67" s="57"/>
       <c r="BC67" s="57"/>
       <c r="BD67" s="57"/>
@@ -11089,23 +11222,23 @@
     </row>
     <row r="68" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
-      <c r="B68" s="212"/>
-      <c r="C68" s="183"/>
-      <c r="D68" s="183"/>
-      <c r="E68" s="184"/>
-      <c r="F68" s="133">
-        <v>2</v>
-      </c>
-      <c r="G68" s="169" t="s">
-        <v>63</v>
-      </c>
-      <c r="H68" s="174" t="s">
-        <v>20</v>
-      </c>
-      <c r="I68" s="179">
-        <v>7</v>
-      </c>
-      <c r="J68" s="302">
+      <c r="B68" s="247"/>
+      <c r="C68" s="270"/>
+      <c r="D68" s="270"/>
+      <c r="E68" s="271"/>
+      <c r="F68" s="115">
+        <v>5</v>
+      </c>
+      <c r="G68" s="135" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I68" s="145">
+        <v>4</v>
+      </c>
+      <c r="J68" s="226">
         <v>1</v>
       </c>
       <c r="K68" s="56"/>
@@ -11150,8 +11283,8 @@
       <c r="AX68" s="57"/>
       <c r="AY68" s="57"/>
       <c r="AZ68" s="57"/>
-      <c r="BA68" s="286"/>
-      <c r="BB68" s="57"/>
+      <c r="BA68" s="57"/>
+      <c r="BB68" s="217"/>
       <c r="BC68" s="57"/>
       <c r="BD68" s="57"/>
       <c r="BE68" s="57"/>
@@ -11169,25 +11302,15 @@
     </row>
     <row r="69" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
-      <c r="B69" s="212"/>
-      <c r="C69" s="183"/>
-      <c r="D69" s="183"/>
-      <c r="E69" s="184"/>
-      <c r="F69" s="133">
-        <v>5</v>
-      </c>
-      <c r="G69" s="169" t="s">
-        <v>64</v>
-      </c>
-      <c r="H69" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="I69" s="179">
-        <v>4</v>
-      </c>
-      <c r="J69" s="302">
-        <v>1</v>
-      </c>
+      <c r="B69" s="247"/>
+      <c r="C69" s="270"/>
+      <c r="D69" s="270"/>
+      <c r="E69" s="271"/>
+      <c r="F69" s="115"/>
+      <c r="G69" s="135"/>
+      <c r="H69" s="140"/>
+      <c r="I69" s="145"/>
+      <c r="J69" s="226"/>
       <c r="K69" s="56"/>
       <c r="L69" s="57"/>
       <c r="M69" s="57"/>
@@ -11231,7 +11354,7 @@
       <c r="AY69" s="57"/>
       <c r="AZ69" s="57"/>
       <c r="BA69" s="57"/>
-      <c r="BB69" s="286"/>
+      <c r="BB69" s="57"/>
       <c r="BC69" s="57"/>
       <c r="BD69" s="57"/>
       <c r="BE69" s="57"/>
@@ -11249,15 +11372,15 @@
     </row>
     <row r="70" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
-      <c r="B70" s="212"/>
-      <c r="C70" s="183"/>
-      <c r="D70" s="183"/>
-      <c r="E70" s="184"/>
-      <c r="F70" s="133"/>
-      <c r="G70" s="169"/>
-      <c r="H70" s="174"/>
-      <c r="I70" s="179"/>
-      <c r="J70" s="302"/>
+      <c r="B70" s="247"/>
+      <c r="C70" s="270"/>
+      <c r="D70" s="270"/>
+      <c r="E70" s="271"/>
+      <c r="F70" s="115"/>
+      <c r="G70" s="135"/>
+      <c r="H70" s="140"/>
+      <c r="I70" s="145"/>
+      <c r="J70" s="226"/>
       <c r="K70" s="56"/>
       <c r="L70" s="57"/>
       <c r="M70" s="57"/>
@@ -11319,15 +11442,15 @@
     </row>
     <row r="71" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
-      <c r="B71" s="212"/>
-      <c r="C71" s="183"/>
-      <c r="D71" s="183"/>
-      <c r="E71" s="184"/>
-      <c r="F71" s="133"/>
-      <c r="G71" s="169"/>
-      <c r="H71" s="174"/>
-      <c r="I71" s="179"/>
-      <c r="J71" s="302"/>
+      <c r="B71" s="247"/>
+      <c r="C71" s="270"/>
+      <c r="D71" s="270"/>
+      <c r="E71" s="271"/>
+      <c r="F71" s="115"/>
+      <c r="G71" s="135"/>
+      <c r="H71" s="140"/>
+      <c r="I71" s="145"/>
+      <c r="J71" s="226"/>
       <c r="K71" s="56"/>
       <c r="L71" s="57"/>
       <c r="M71" s="57"/>
@@ -11389,319 +11512,329 @@
     </row>
     <row r="72" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
-      <c r="B72" s="212"/>
-      <c r="C72" s="183"/>
-      <c r="D72" s="183"/>
-      <c r="E72" s="184"/>
-      <c r="F72" s="133"/>
-      <c r="G72" s="169"/>
-      <c r="H72" s="174"/>
-      <c r="I72" s="179"/>
-      <c r="J72" s="302"/>
-      <c r="K72" s="56"/>
-      <c r="L72" s="57"/>
-      <c r="M72" s="57"/>
-      <c r="N72" s="57"/>
-      <c r="O72" s="57"/>
-      <c r="P72" s="57"/>
-      <c r="Q72" s="57"/>
-      <c r="R72" s="61"/>
-      <c r="S72" s="58"/>
-      <c r="T72" s="57"/>
-      <c r="U72" s="57"/>
-      <c r="V72" s="57"/>
-      <c r="W72" s="57"/>
-      <c r="X72" s="57"/>
-      <c r="Y72" s="57"/>
-      <c r="Z72" s="57"/>
-      <c r="AA72" s="57"/>
-      <c r="AB72" s="57"/>
-      <c r="AC72" s="57"/>
-      <c r="AD72" s="57"/>
-      <c r="AE72" s="57"/>
-      <c r="AF72" s="57"/>
-      <c r="AG72" s="57"/>
-      <c r="AH72" s="57"/>
-      <c r="AI72" s="57"/>
-      <c r="AJ72" s="57"/>
-      <c r="AK72" s="57"/>
-      <c r="AL72" s="57"/>
-      <c r="AM72" s="57"/>
-      <c r="AN72" s="57"/>
-      <c r="AO72" s="59"/>
-      <c r="AP72" s="60"/>
-      <c r="AQ72" s="57"/>
-      <c r="AR72" s="57"/>
-      <c r="AS72" s="57"/>
-      <c r="AT72" s="57"/>
-      <c r="AU72" s="57"/>
-      <c r="AV72" s="57"/>
-      <c r="AW72" s="57"/>
-      <c r="AX72" s="57"/>
-      <c r="AY72" s="57"/>
-      <c r="AZ72" s="57"/>
-      <c r="BA72" s="57"/>
-      <c r="BB72" s="57"/>
-      <c r="BC72" s="57"/>
-      <c r="BD72" s="57"/>
-      <c r="BE72" s="57"/>
-      <c r="BF72" s="57"/>
-      <c r="BG72" s="57"/>
-      <c r="BH72" s="57"/>
-      <c r="BI72" s="57"/>
-      <c r="BJ72" s="57"/>
-      <c r="BK72" s="57"/>
-      <c r="BL72" s="57"/>
-      <c r="BM72" s="57"/>
-      <c r="BN72" s="57"/>
-      <c r="BO72" s="57"/>
-      <c r="BP72" s="59"/>
+      <c r="B72" s="248"/>
+      <c r="C72" s="270"/>
+      <c r="D72" s="270"/>
+      <c r="E72" s="271"/>
+      <c r="F72" s="115"/>
+      <c r="G72" s="135"/>
+      <c r="H72" s="140"/>
+      <c r="I72" s="145"/>
+      <c r="J72" s="226"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="63"/>
+      <c r="M72" s="63"/>
+      <c r="N72" s="63"/>
+      <c r="O72" s="63"/>
+      <c r="P72" s="63"/>
+      <c r="Q72" s="63"/>
+      <c r="R72" s="64"/>
+      <c r="S72" s="65"/>
+      <c r="T72" s="63"/>
+      <c r="U72" s="63"/>
+      <c r="V72" s="63"/>
+      <c r="W72" s="63"/>
+      <c r="X72" s="63"/>
+      <c r="Y72" s="63"/>
+      <c r="Z72" s="63"/>
+      <c r="AA72" s="63"/>
+      <c r="AB72" s="63"/>
+      <c r="AC72" s="63"/>
+      <c r="AD72" s="63"/>
+      <c r="AE72" s="63"/>
+      <c r="AF72" s="63"/>
+      <c r="AG72" s="63"/>
+      <c r="AH72" s="63"/>
+      <c r="AI72" s="63"/>
+      <c r="AJ72" s="63"/>
+      <c r="AK72" s="63"/>
+      <c r="AL72" s="63"/>
+      <c r="AM72" s="63"/>
+      <c r="AN72" s="63"/>
+      <c r="AO72" s="66"/>
+      <c r="AP72" s="67"/>
+      <c r="AQ72" s="63"/>
+      <c r="AR72" s="63"/>
+      <c r="AS72" s="63"/>
+      <c r="AT72" s="63"/>
+      <c r="AU72" s="63"/>
+      <c r="AV72" s="63"/>
+      <c r="AW72" s="63"/>
+      <c r="AX72" s="63"/>
+      <c r="AY72" s="63"/>
+      <c r="AZ72" s="63"/>
+      <c r="BA72" s="63"/>
+      <c r="BB72" s="63"/>
+      <c r="BC72" s="63"/>
+      <c r="BD72" s="63"/>
+      <c r="BE72" s="63"/>
+      <c r="BF72" s="63"/>
+      <c r="BG72" s="63"/>
+      <c r="BH72" s="63"/>
+      <c r="BI72" s="63"/>
+      <c r="BJ72" s="63"/>
+      <c r="BK72" s="63"/>
+      <c r="BL72" s="63"/>
+      <c r="BM72" s="63"/>
+      <c r="BN72" s="63"/>
+      <c r="BO72" s="63"/>
+      <c r="BP72" s="66"/>
     </row>
-    <row r="73" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
-      <c r="B73" s="213"/>
-      <c r="C73" s="183"/>
-      <c r="D73" s="183"/>
-      <c r="E73" s="184"/>
-      <c r="F73" s="133"/>
-      <c r="G73" s="169"/>
-      <c r="H73" s="174"/>
-      <c r="I73" s="179"/>
-      <c r="J73" s="302"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="63"/>
-      <c r="M73" s="63"/>
-      <c r="N73" s="63"/>
-      <c r="O73" s="63"/>
-      <c r="P73" s="63"/>
-      <c r="Q73" s="63"/>
-      <c r="R73" s="64"/>
-      <c r="S73" s="65"/>
-      <c r="T73" s="63"/>
-      <c r="U73" s="63"/>
-      <c r="V73" s="63"/>
-      <c r="W73" s="63"/>
-      <c r="X73" s="63"/>
-      <c r="Y73" s="63"/>
-      <c r="Z73" s="63"/>
-      <c r="AA73" s="63"/>
-      <c r="AB73" s="63"/>
-      <c r="AC73" s="63"/>
-      <c r="AD73" s="63"/>
-      <c r="AE73" s="63"/>
-      <c r="AF73" s="63"/>
-      <c r="AG73" s="63"/>
-      <c r="AH73" s="63"/>
-      <c r="AI73" s="63"/>
-      <c r="AJ73" s="63"/>
-      <c r="AK73" s="63"/>
-      <c r="AL73" s="63"/>
-      <c r="AM73" s="63"/>
-      <c r="AN73" s="63"/>
-      <c r="AO73" s="66"/>
-      <c r="AP73" s="67"/>
-      <c r="AQ73" s="63"/>
-      <c r="AR73" s="63"/>
-      <c r="AS73" s="63"/>
-      <c r="AT73" s="63"/>
-      <c r="AU73" s="63"/>
-      <c r="AV73" s="63"/>
-      <c r="AW73" s="63"/>
-      <c r="AX73" s="63"/>
-      <c r="AY73" s="63"/>
-      <c r="AZ73" s="63"/>
-      <c r="BA73" s="63"/>
-      <c r="BB73" s="63"/>
-      <c r="BC73" s="63"/>
-      <c r="BD73" s="63"/>
-      <c r="BE73" s="63"/>
-      <c r="BF73" s="63"/>
-      <c r="BG73" s="63"/>
-      <c r="BH73" s="63"/>
-      <c r="BI73" s="63"/>
-      <c r="BJ73" s="63"/>
-      <c r="BK73" s="63"/>
-      <c r="BL73" s="63"/>
-      <c r="BM73" s="63"/>
-      <c r="BN73" s="63"/>
-      <c r="BO73" s="63"/>
-      <c r="BP73" s="66"/>
+      <c r="B73" s="249"/>
+      <c r="C73" s="160" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="161"/>
+      <c r="E73" s="162"/>
+      <c r="F73" s="163"/>
+      <c r="G73" s="164"/>
+      <c r="H73" s="165" t="s">
+        <v>48</v>
+      </c>
+      <c r="I73" s="166">
+        <f>SUM(I63:I72)</f>
+        <v>50</v>
+      </c>
+      <c r="J73" s="228"/>
+      <c r="K73" s="167"/>
+      <c r="L73" s="168"/>
+      <c r="M73" s="168"/>
+      <c r="N73" s="168"/>
+      <c r="O73" s="168"/>
+      <c r="P73" s="168"/>
+      <c r="Q73" s="168"/>
+      <c r="R73" s="169"/>
+      <c r="S73" s="170"/>
+      <c r="T73" s="168"/>
+      <c r="U73" s="168"/>
+      <c r="V73" s="168"/>
+      <c r="W73" s="168"/>
+      <c r="X73" s="168"/>
+      <c r="Y73" s="168"/>
+      <c r="Z73" s="168"/>
+      <c r="AA73" s="168"/>
+      <c r="AB73" s="168"/>
+      <c r="AC73" s="168"/>
+      <c r="AD73" s="168"/>
+      <c r="AE73" s="168"/>
+      <c r="AF73" s="168"/>
+      <c r="AG73" s="168"/>
+      <c r="AH73" s="168"/>
+      <c r="AI73" s="168"/>
+      <c r="AJ73" s="168"/>
+      <c r="AK73" s="168"/>
+      <c r="AL73" s="168"/>
+      <c r="AM73" s="168"/>
+      <c r="AN73" s="168"/>
+      <c r="AO73" s="171"/>
+      <c r="AP73" s="172"/>
+      <c r="AQ73" s="168"/>
+      <c r="AR73" s="168"/>
+      <c r="AS73" s="168"/>
+      <c r="AT73" s="168"/>
+      <c r="AU73" s="168"/>
+      <c r="AV73" s="168"/>
+      <c r="AW73" s="168"/>
+      <c r="AX73" s="168"/>
+      <c r="AY73" s="168"/>
+      <c r="AZ73" s="168"/>
+      <c r="BA73" s="168"/>
+      <c r="BB73" s="168"/>
+      <c r="BC73" s="168"/>
+      <c r="BD73" s="168"/>
+      <c r="BE73" s="168"/>
+      <c r="BF73" s="168"/>
+      <c r="BG73" s="168"/>
+      <c r="BH73" s="168"/>
+      <c r="BI73" s="168"/>
+      <c r="BJ73" s="168"/>
+      <c r="BK73" s="168"/>
+      <c r="BL73" s="168"/>
+      <c r="BM73" s="168"/>
+      <c r="BN73" s="168"/>
+      <c r="BO73" s="168"/>
+      <c r="BP73" s="171"/>
     </row>
-    <row r="74" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
-      <c r="B74" s="214"/>
-      <c r="C74" s="215" t="s">
-        <v>46</v>
-      </c>
-      <c r="D74" s="216"/>
-      <c r="E74" s="217"/>
-      <c r="F74" s="218"/>
-      <c r="G74" s="219"/>
-      <c r="H74" s="220" t="s">
-        <v>48</v>
-      </c>
-      <c r="I74" s="221">
-        <f>SUM(I64:I73)</f>
-        <v>50</v>
-      </c>
-      <c r="J74" s="304"/>
-      <c r="K74" s="222"/>
-      <c r="L74" s="223"/>
-      <c r="M74" s="223"/>
-      <c r="N74" s="223"/>
-      <c r="O74" s="223"/>
-      <c r="P74" s="223"/>
-      <c r="Q74" s="223"/>
-      <c r="R74" s="224"/>
-      <c r="S74" s="225"/>
-      <c r="T74" s="223"/>
-      <c r="U74" s="223"/>
-      <c r="V74" s="223"/>
-      <c r="W74" s="223"/>
-      <c r="X74" s="223"/>
-      <c r="Y74" s="223"/>
-      <c r="Z74" s="223"/>
-      <c r="AA74" s="223"/>
-      <c r="AB74" s="223"/>
-      <c r="AC74" s="223"/>
-      <c r="AD74" s="223"/>
-      <c r="AE74" s="223"/>
-      <c r="AF74" s="223"/>
-      <c r="AG74" s="223"/>
-      <c r="AH74" s="223"/>
-      <c r="AI74" s="223"/>
-      <c r="AJ74" s="223"/>
-      <c r="AK74" s="223"/>
-      <c r="AL74" s="223"/>
-      <c r="AM74" s="223"/>
-      <c r="AN74" s="223"/>
-      <c r="AO74" s="226"/>
-      <c r="AP74" s="227"/>
-      <c r="AQ74" s="223"/>
-      <c r="AR74" s="223"/>
-      <c r="AS74" s="223"/>
-      <c r="AT74" s="223"/>
-      <c r="AU74" s="223"/>
-      <c r="AV74" s="223"/>
-      <c r="AW74" s="223"/>
-      <c r="AX74" s="223"/>
-      <c r="AY74" s="223"/>
-      <c r="AZ74" s="223"/>
-      <c r="BA74" s="223"/>
-      <c r="BB74" s="223"/>
-      <c r="BC74" s="223"/>
-      <c r="BD74" s="223"/>
-      <c r="BE74" s="223"/>
-      <c r="BF74" s="223"/>
-      <c r="BG74" s="223"/>
-      <c r="BH74" s="223"/>
-      <c r="BI74" s="223"/>
-      <c r="BJ74" s="223"/>
-      <c r="BK74" s="223"/>
-      <c r="BL74" s="223"/>
-      <c r="BM74" s="223"/>
-      <c r="BN74" s="223"/>
-      <c r="BO74" s="223"/>
-      <c r="BP74" s="226"/>
+      <c r="B74" s="219"/>
+      <c r="C74" s="284" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="284"/>
+      <c r="E74" s="285"/>
+      <c r="F74" s="288">
+        <v>45621</v>
+      </c>
+      <c r="G74" s="289"/>
+      <c r="H74" s="223"/>
+      <c r="I74" s="224"/>
+      <c r="J74" s="188"/>
+      <c r="K74" s="210"/>
+      <c r="L74" s="211"/>
+      <c r="M74" s="211"/>
+      <c r="N74" s="211"/>
+      <c r="O74" s="211"/>
+      <c r="P74" s="211"/>
+      <c r="Q74" s="211"/>
+      <c r="R74" s="212"/>
+      <c r="S74" s="213"/>
+      <c r="T74" s="211"/>
+      <c r="U74" s="211"/>
+      <c r="V74" s="211"/>
+      <c r="W74" s="211"/>
+      <c r="X74" s="211"/>
+      <c r="Y74" s="211"/>
+      <c r="Z74" s="211"/>
+      <c r="AA74" s="211"/>
+      <c r="AB74" s="211"/>
+      <c r="AC74" s="211"/>
+      <c r="AD74" s="211"/>
+      <c r="AE74" s="211"/>
+      <c r="AF74" s="211"/>
+      <c r="AG74" s="211"/>
+      <c r="AH74" s="211"/>
+      <c r="AI74" s="211"/>
+      <c r="AJ74" s="211"/>
+      <c r="AK74" s="211"/>
+      <c r="AL74" s="211"/>
+      <c r="AM74" s="211"/>
+      <c r="AN74" s="211"/>
+      <c r="AO74" s="214"/>
+      <c r="AP74" s="215"/>
+      <c r="AQ74" s="211"/>
+      <c r="AR74" s="211"/>
+      <c r="AS74" s="211"/>
+      <c r="AT74" s="211"/>
+      <c r="AU74" s="211"/>
+      <c r="AV74" s="211"/>
+      <c r="AW74" s="211"/>
+      <c r="AX74" s="211"/>
+      <c r="AY74" s="211"/>
+      <c r="AZ74" s="211"/>
+      <c r="BA74" s="211"/>
+      <c r="BB74" s="211"/>
+      <c r="BC74" s="211"/>
+      <c r="BD74" s="211"/>
+      <c r="BE74" s="211"/>
+      <c r="BF74" s="211"/>
+      <c r="BG74" s="211"/>
+      <c r="BH74" s="211"/>
+      <c r="BI74" s="211"/>
+      <c r="BJ74" s="211"/>
+      <c r="BK74" s="211"/>
+      <c r="BL74" s="211"/>
+      <c r="BM74" s="211"/>
+      <c r="BN74" s="211"/>
+      <c r="BO74" s="211"/>
+      <c r="BP74" s="214"/>
     </row>
     <row r="75" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
-      <c r="B75" s="288"/>
-      <c r="C75" s="295" t="s">
-        <v>75</v>
-      </c>
-      <c r="D75" s="295"/>
-      <c r="E75" s="296"/>
-      <c r="F75" s="297">
-        <v>45614</v>
-      </c>
-      <c r="G75" s="298"/>
-      <c r="H75" s="299"/>
-      <c r="I75" s="300"/>
-      <c r="J75" s="250"/>
-      <c r="K75" s="277"/>
-      <c r="L75" s="278"/>
-      <c r="M75" s="278"/>
-      <c r="N75" s="278"/>
-      <c r="O75" s="278"/>
-      <c r="P75" s="278"/>
-      <c r="Q75" s="278"/>
-      <c r="R75" s="279"/>
-      <c r="S75" s="280"/>
-      <c r="T75" s="278"/>
-      <c r="U75" s="278"/>
-      <c r="V75" s="278"/>
-      <c r="W75" s="278"/>
-      <c r="X75" s="278"/>
-      <c r="Y75" s="278"/>
-      <c r="Z75" s="278"/>
-      <c r="AA75" s="278"/>
-      <c r="AB75" s="278"/>
-      <c r="AC75" s="278"/>
-      <c r="AD75" s="278"/>
-      <c r="AE75" s="278"/>
-      <c r="AF75" s="278"/>
-      <c r="AG75" s="278"/>
-      <c r="AH75" s="278"/>
-      <c r="AI75" s="278"/>
-      <c r="AJ75" s="278"/>
-      <c r="AK75" s="278"/>
-      <c r="AL75" s="278"/>
-      <c r="AM75" s="278"/>
-      <c r="AN75" s="278"/>
-      <c r="AO75" s="281"/>
-      <c r="AP75" s="282"/>
-      <c r="AQ75" s="278"/>
-      <c r="AR75" s="278"/>
-      <c r="AS75" s="278"/>
-      <c r="AT75" s="278"/>
-      <c r="AU75" s="278"/>
-      <c r="AV75" s="278"/>
-      <c r="AW75" s="278"/>
-      <c r="AX75" s="278"/>
-      <c r="AY75" s="278"/>
-      <c r="AZ75" s="278"/>
-      <c r="BA75" s="278"/>
-      <c r="BB75" s="278"/>
-      <c r="BC75" s="278"/>
-      <c r="BD75" s="278"/>
-      <c r="BE75" s="278"/>
-      <c r="BF75" s="278"/>
-      <c r="BG75" s="278"/>
-      <c r="BH75" s="278"/>
-      <c r="BI75" s="278"/>
-      <c r="BJ75" s="278"/>
-      <c r="BK75" s="278"/>
-      <c r="BL75" s="278"/>
-      <c r="BM75" s="278"/>
-      <c r="BN75" s="278"/>
-      <c r="BO75" s="278"/>
-      <c r="BP75" s="281"/>
+      <c r="B75" s="266">
+        <v>6</v>
+      </c>
+      <c r="C75" s="277" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" s="277"/>
+      <c r="E75" s="278"/>
+      <c r="F75" s="115">
+        <v>1</v>
+      </c>
+      <c r="G75" s="135" t="s">
+        <v>67</v>
+      </c>
+      <c r="H75" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" s="145">
+        <v>21</v>
+      </c>
+      <c r="J75" s="142">
+        <v>3</v>
+      </c>
+      <c r="K75" s="56"/>
+      <c r="L75" s="57"/>
+      <c r="M75" s="57"/>
+      <c r="N75" s="57"/>
+      <c r="O75" s="57"/>
+      <c r="P75" s="57"/>
+      <c r="Q75" s="57"/>
+      <c r="R75" s="61"/>
+      <c r="S75" s="58"/>
+      <c r="T75" s="57"/>
+      <c r="U75" s="57"/>
+      <c r="V75" s="57"/>
+      <c r="W75" s="57"/>
+      <c r="X75" s="57"/>
+      <c r="Y75" s="57"/>
+      <c r="Z75" s="57"/>
+      <c r="AA75" s="57"/>
+      <c r="AB75" s="57"/>
+      <c r="AC75" s="57"/>
+      <c r="AD75" s="57"/>
+      <c r="AE75" s="57"/>
+      <c r="AF75" s="57"/>
+      <c r="AG75" s="57"/>
+      <c r="AH75" s="57"/>
+      <c r="AI75" s="57"/>
+      <c r="AJ75" s="57"/>
+      <c r="AK75" s="57"/>
+      <c r="AL75" s="57"/>
+      <c r="AM75" s="57"/>
+      <c r="AN75" s="57"/>
+      <c r="AO75" s="59"/>
+      <c r="AP75" s="60"/>
+      <c r="AQ75" s="57"/>
+      <c r="AR75" s="57"/>
+      <c r="AS75" s="57"/>
+      <c r="AT75" s="57"/>
+      <c r="AU75" s="57"/>
+      <c r="AV75" s="57"/>
+      <c r="AW75" s="57"/>
+      <c r="AX75" s="57"/>
+      <c r="AY75" s="57"/>
+      <c r="AZ75" s="57"/>
+      <c r="BA75" s="57"/>
+      <c r="BB75" s="57"/>
+      <c r="BC75" s="218"/>
+      <c r="BD75" s="218"/>
+      <c r="BE75" s="218"/>
+      <c r="BF75" s="57"/>
+      <c r="BG75" s="57"/>
+      <c r="BH75" s="57"/>
+      <c r="BI75" s="57"/>
+      <c r="BJ75" s="57"/>
+      <c r="BK75" s="57"/>
+      <c r="BL75" s="57"/>
+      <c r="BM75" s="57"/>
+      <c r="BN75" s="57"/>
+      <c r="BO75" s="57"/>
+      <c r="BP75" s="59"/>
     </row>
     <row r="76" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
-      <c r="B76" s="208">
-        <v>6</v>
-      </c>
-      <c r="C76" s="168" t="s">
-        <v>41</v>
-      </c>
-      <c r="D76" s="168"/>
-      <c r="E76" s="193"/>
-      <c r="F76" s="133">
+      <c r="B76" s="266"/>
+      <c r="C76" s="277"/>
+      <c r="D76" s="277"/>
+      <c r="E76" s="278"/>
+      <c r="F76" s="115">
         <v>1</v>
       </c>
-      <c r="G76" s="169" t="s">
+      <c r="G76" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="H76" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="I76" s="179">
-        <v>21</v>
-      </c>
-      <c r="J76" s="176">
-        <v>3</v>
+      <c r="H76" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="145">
+        <v>7</v>
+      </c>
+      <c r="J76" s="142">
+        <v>2</v>
       </c>
       <c r="K76" s="56"/>
       <c r="L76" s="57"/>
@@ -11747,9 +11880,9 @@
       <c r="AZ76" s="57"/>
       <c r="BA76" s="57"/>
       <c r="BB76" s="57"/>
-      <c r="BC76" s="287"/>
-      <c r="BD76" s="287"/>
-      <c r="BE76" s="287"/>
+      <c r="BC76" s="57"/>
+      <c r="BD76" s="57"/>
+      <c r="BE76" s="218"/>
       <c r="BF76" s="57"/>
       <c r="BG76" s="57"/>
       <c r="BH76" s="57"/>
@@ -11764,23 +11897,25 @@
     </row>
     <row r="77" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
-      <c r="B77" s="208"/>
-      <c r="C77" s="168"/>
-      <c r="D77" s="168"/>
-      <c r="E77" s="193"/>
-      <c r="F77" s="133">
+      <c r="B77" s="266"/>
+      <c r="C77" s="270" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="270"/>
+      <c r="E77" s="271"/>
+      <c r="F77" s="115">
         <v>1</v>
       </c>
-      <c r="G77" s="169" t="s">
+      <c r="G77" s="135" t="s">
         <v>67</v>
       </c>
-      <c r="H77" s="174" t="s">
-        <v>8</v>
-      </c>
-      <c r="I77" s="179">
+      <c r="H77" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="145">
         <v>7</v>
       </c>
-      <c r="J77" s="176">
+      <c r="J77" s="142">
         <v>2</v>
       </c>
       <c r="K77" s="56"/>
@@ -11829,7 +11964,7 @@
       <c r="BB77" s="57"/>
       <c r="BC77" s="57"/>
       <c r="BD77" s="57"/>
-      <c r="BE77" s="287"/>
+      <c r="BE77" s="218"/>
       <c r="BF77" s="57"/>
       <c r="BG77" s="57"/>
       <c r="BH77" s="57"/>
@@ -11844,26 +11979,24 @@
     </row>
     <row r="78" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
-      <c r="B78" s="208"/>
-      <c r="C78" s="183" t="s">
-        <v>66</v>
-      </c>
-      <c r="D78" s="183"/>
-      <c r="E78" s="184"/>
-      <c r="F78" s="133">
-        <v>1</v>
-      </c>
-      <c r="G78" s="169" t="s">
-        <v>67</v>
-      </c>
-      <c r="H78" s="174" t="s">
-        <v>20</v>
-      </c>
-      <c r="I78" s="179">
-        <v>7</v>
-      </c>
-      <c r="J78" s="176">
+      <c r="B78" s="266"/>
+      <c r="C78" s="270"/>
+      <c r="D78" s="270"/>
+      <c r="E78" s="271"/>
+      <c r="F78" s="115">
         <v>2</v>
+      </c>
+      <c r="G78" s="135" t="s">
+        <v>68</v>
+      </c>
+      <c r="H78" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78" s="145">
+        <v>21</v>
+      </c>
+      <c r="J78" s="142">
+        <v>3</v>
       </c>
       <c r="K78" s="56"/>
       <c r="L78" s="57"/>
@@ -11911,10 +12044,10 @@
       <c r="BB78" s="57"/>
       <c r="BC78" s="57"/>
       <c r="BD78" s="57"/>
-      <c r="BE78" s="287"/>
-      <c r="BF78" s="57"/>
-      <c r="BG78" s="57"/>
-      <c r="BH78" s="57"/>
+      <c r="BE78" s="57"/>
+      <c r="BF78" s="218"/>
+      <c r="BG78" s="218"/>
+      <c r="BH78" s="218"/>
       <c r="BI78" s="57"/>
       <c r="BJ78" s="57"/>
       <c r="BK78" s="57"/>
@@ -11926,24 +12059,24 @@
     </row>
     <row r="79" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
-      <c r="B79" s="208"/>
-      <c r="C79" s="183"/>
-      <c r="D79" s="183"/>
-      <c r="E79" s="184"/>
-      <c r="F79" s="133">
+      <c r="B79" s="266"/>
+      <c r="C79" s="270"/>
+      <c r="D79" s="270"/>
+      <c r="E79" s="271"/>
+      <c r="F79" s="115">
         <v>2</v>
       </c>
-      <c r="G79" s="169" t="s">
+      <c r="G79" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="H79" s="174" t="s">
-        <v>6</v>
-      </c>
-      <c r="I79" s="179">
-        <v>21</v>
-      </c>
-      <c r="J79" s="176">
-        <v>3</v>
+      <c r="H79" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="145">
+        <v>7</v>
+      </c>
+      <c r="J79" s="142">
+        <v>2</v>
       </c>
       <c r="K79" s="56"/>
       <c r="L79" s="57"/>
@@ -11992,9 +12125,9 @@
       <c r="BC79" s="57"/>
       <c r="BD79" s="57"/>
       <c r="BE79" s="57"/>
-      <c r="BF79" s="287"/>
-      <c r="BG79" s="287"/>
-      <c r="BH79" s="287"/>
+      <c r="BF79" s="57"/>
+      <c r="BG79" s="57"/>
+      <c r="BH79" s="218"/>
       <c r="BI79" s="57"/>
       <c r="BJ79" s="57"/>
       <c r="BK79" s="57"/>
@@ -12006,23 +12139,23 @@
     </row>
     <row r="80" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
-      <c r="B80" s="208"/>
-      <c r="C80" s="183"/>
-      <c r="D80" s="183"/>
-      <c r="E80" s="184"/>
-      <c r="F80" s="133">
+      <c r="B80" s="266"/>
+      <c r="C80" s="270"/>
+      <c r="D80" s="270"/>
+      <c r="E80" s="271"/>
+      <c r="F80" s="115">
         <v>2</v>
       </c>
-      <c r="G80" s="169" t="s">
+      <c r="G80" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="H80" s="174" t="s">
-        <v>8</v>
-      </c>
-      <c r="I80" s="179">
+      <c r="H80" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="145">
         <v>7</v>
       </c>
-      <c r="J80" s="176">
+      <c r="J80" s="142">
         <v>2</v>
       </c>
       <c r="K80" s="56"/>
@@ -12074,7 +12207,7 @@
       <c r="BE80" s="57"/>
       <c r="BF80" s="57"/>
       <c r="BG80" s="57"/>
-      <c r="BH80" s="287"/>
+      <c r="BH80" s="218"/>
       <c r="BI80" s="57"/>
       <c r="BJ80" s="57"/>
       <c r="BK80" s="57"/>
@@ -12086,25 +12219,15 @@
     </row>
     <row r="81" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
-      <c r="B81" s="208"/>
-      <c r="C81" s="183"/>
-      <c r="D81" s="183"/>
-      <c r="E81" s="184"/>
-      <c r="F81" s="133">
-        <v>2</v>
-      </c>
-      <c r="G81" s="169" t="s">
-        <v>68</v>
-      </c>
-      <c r="H81" s="174" t="s">
-        <v>20</v>
-      </c>
-      <c r="I81" s="179">
-        <v>7</v>
-      </c>
-      <c r="J81" s="176">
-        <v>2</v>
-      </c>
+      <c r="B81" s="266"/>
+      <c r="C81" s="270"/>
+      <c r="D81" s="270"/>
+      <c r="E81" s="271"/>
+      <c r="F81" s="115"/>
+      <c r="G81" s="135"/>
+      <c r="H81" s="140"/>
+      <c r="I81" s="145"/>
+      <c r="J81" s="142"/>
       <c r="K81" s="56"/>
       <c r="L81" s="57"/>
       <c r="M81" s="57"/>
@@ -12154,7 +12277,7 @@
       <c r="BE81" s="57"/>
       <c r="BF81" s="57"/>
       <c r="BG81" s="57"/>
-      <c r="BH81" s="287"/>
+      <c r="BH81" s="57"/>
       <c r="BI81" s="57"/>
       <c r="BJ81" s="57"/>
       <c r="BK81" s="57"/>
@@ -12166,223 +12289,160 @@
     </row>
     <row r="82" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
-      <c r="B82" s="208"/>
-      <c r="C82" s="183"/>
-      <c r="D82" s="183"/>
-      <c r="E82" s="184"/>
-      <c r="F82" s="133"/>
-      <c r="G82" s="169"/>
-      <c r="H82" s="174"/>
-      <c r="I82" s="179"/>
-      <c r="J82" s="176"/>
-      <c r="K82" s="56"/>
-      <c r="L82" s="57"/>
-      <c r="M82" s="57"/>
-      <c r="N82" s="57"/>
-      <c r="O82" s="57"/>
-      <c r="P82" s="57"/>
-      <c r="Q82" s="57"/>
-      <c r="R82" s="61"/>
-      <c r="S82" s="58"/>
-      <c r="T82" s="57"/>
-      <c r="U82" s="57"/>
-      <c r="V82" s="57"/>
-      <c r="W82" s="57"/>
-      <c r="X82" s="57"/>
-      <c r="Y82" s="57"/>
-      <c r="Z82" s="57"/>
-      <c r="AA82" s="57"/>
-      <c r="AB82" s="57"/>
-      <c r="AC82" s="57"/>
-      <c r="AD82" s="57"/>
-      <c r="AE82" s="57"/>
-      <c r="AF82" s="57"/>
-      <c r="AG82" s="57"/>
-      <c r="AH82" s="57"/>
-      <c r="AI82" s="57"/>
-      <c r="AJ82" s="57"/>
-      <c r="AK82" s="57"/>
-      <c r="AL82" s="57"/>
-      <c r="AM82" s="57"/>
-      <c r="AN82" s="57"/>
-      <c r="AO82" s="59"/>
-      <c r="AP82" s="60"/>
-      <c r="AQ82" s="57"/>
-      <c r="AR82" s="57"/>
-      <c r="AS82" s="57"/>
-      <c r="AT82" s="57"/>
-      <c r="AU82" s="57"/>
-      <c r="AV82" s="57"/>
-      <c r="AW82" s="57"/>
-      <c r="AX82" s="57"/>
-      <c r="AY82" s="57"/>
-      <c r="AZ82" s="57"/>
-      <c r="BA82" s="57"/>
-      <c r="BB82" s="57"/>
-      <c r="BC82" s="57"/>
-      <c r="BD82" s="57"/>
-      <c r="BE82" s="57"/>
-      <c r="BF82" s="57"/>
-      <c r="BG82" s="57"/>
-      <c r="BH82" s="57"/>
-      <c r="BI82" s="57"/>
-      <c r="BJ82" s="57"/>
-      <c r="BK82" s="57"/>
-      <c r="BL82" s="57"/>
-      <c r="BM82" s="57"/>
-      <c r="BN82" s="57"/>
-      <c r="BO82" s="57"/>
-      <c r="BP82" s="59"/>
+      <c r="B82" s="267"/>
+      <c r="C82" s="270"/>
+      <c r="D82" s="270"/>
+      <c r="E82" s="271"/>
+      <c r="F82" s="115"/>
+      <c r="G82" s="135"/>
+      <c r="H82" s="140"/>
+      <c r="I82" s="145"/>
+      <c r="J82" s="142"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="63"/>
+      <c r="M82" s="63"/>
+      <c r="N82" s="63"/>
+      <c r="O82" s="63"/>
+      <c r="P82" s="63"/>
+      <c r="Q82" s="63"/>
+      <c r="R82" s="64"/>
+      <c r="S82" s="65"/>
+      <c r="T82" s="63"/>
+      <c r="U82" s="63"/>
+      <c r="V82" s="63"/>
+      <c r="W82" s="63"/>
+      <c r="X82" s="63"/>
+      <c r="Y82" s="63"/>
+      <c r="Z82" s="63"/>
+      <c r="AA82" s="63"/>
+      <c r="AB82" s="63"/>
+      <c r="AC82" s="63"/>
+      <c r="AD82" s="63"/>
+      <c r="AE82" s="63"/>
+      <c r="AF82" s="63"/>
+      <c r="AG82" s="63"/>
+      <c r="AH82" s="63"/>
+      <c r="AI82" s="63"/>
+      <c r="AJ82" s="63"/>
+      <c r="AK82" s="63"/>
+      <c r="AL82" s="63"/>
+      <c r="AM82" s="63"/>
+      <c r="AN82" s="63"/>
+      <c r="AO82" s="66"/>
+      <c r="AP82" s="67"/>
+      <c r="AQ82" s="63"/>
+      <c r="AR82" s="63"/>
+      <c r="AS82" s="63"/>
+      <c r="AT82" s="63"/>
+      <c r="AU82" s="63"/>
+      <c r="AV82" s="63"/>
+      <c r="AW82" s="63"/>
+      <c r="AX82" s="63"/>
+      <c r="AY82" s="63"/>
+      <c r="AZ82" s="63"/>
+      <c r="BA82" s="63"/>
+      <c r="BB82" s="63"/>
+      <c r="BC82" s="63"/>
+      <c r="BD82" s="63"/>
+      <c r="BE82" s="63"/>
+      <c r="BF82" s="63"/>
+      <c r="BG82" s="63"/>
+      <c r="BH82" s="63"/>
+      <c r="BI82" s="63"/>
+      <c r="BJ82" s="63"/>
+      <c r="BK82" s="63"/>
+      <c r="BL82" s="63"/>
+      <c r="BM82" s="63"/>
+      <c r="BN82" s="63"/>
+      <c r="BO82" s="63"/>
+      <c r="BP82" s="66"/>
     </row>
-    <row r="83" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
-      <c r="B83" s="209"/>
-      <c r="C83" s="183"/>
-      <c r="D83" s="183"/>
-      <c r="E83" s="184"/>
-      <c r="F83" s="133"/>
-      <c r="G83" s="169"/>
-      <c r="H83" s="174"/>
-      <c r="I83" s="179"/>
-      <c r="J83" s="176"/>
-      <c r="K83" s="62"/>
-      <c r="L83" s="63"/>
-      <c r="M83" s="63"/>
-      <c r="N83" s="63"/>
-      <c r="O83" s="63"/>
-      <c r="P83" s="63"/>
-      <c r="Q83" s="63"/>
-      <c r="R83" s="64"/>
-      <c r="S83" s="65"/>
-      <c r="T83" s="63"/>
-      <c r="U83" s="63"/>
-      <c r="V83" s="63"/>
-      <c r="W83" s="63"/>
-      <c r="X83" s="63"/>
-      <c r="Y83" s="63"/>
-      <c r="Z83" s="63"/>
-      <c r="AA83" s="63"/>
-      <c r="AB83" s="63"/>
-      <c r="AC83" s="63"/>
-      <c r="AD83" s="63"/>
-      <c r="AE83" s="63"/>
-      <c r="AF83" s="63"/>
-      <c r="AG83" s="63"/>
-      <c r="AH83" s="63"/>
-      <c r="AI83" s="63"/>
-      <c r="AJ83" s="63"/>
-      <c r="AK83" s="63"/>
-      <c r="AL83" s="63"/>
-      <c r="AM83" s="63"/>
-      <c r="AN83" s="63"/>
-      <c r="AO83" s="66"/>
-      <c r="AP83" s="67"/>
-      <c r="AQ83" s="63"/>
-      <c r="AR83" s="63"/>
-      <c r="AS83" s="63"/>
-      <c r="AT83" s="63"/>
-      <c r="AU83" s="63"/>
-      <c r="AV83" s="63"/>
-      <c r="AW83" s="63"/>
-      <c r="AX83" s="63"/>
-      <c r="AY83" s="63"/>
-      <c r="AZ83" s="63"/>
-      <c r="BA83" s="63"/>
-      <c r="BB83" s="63"/>
-      <c r="BC83" s="63"/>
-      <c r="BD83" s="63"/>
-      <c r="BE83" s="63"/>
-      <c r="BF83" s="63"/>
-      <c r="BG83" s="63"/>
-      <c r="BH83" s="63"/>
-      <c r="BI83" s="63"/>
-      <c r="BJ83" s="63"/>
-      <c r="BK83" s="63"/>
-      <c r="BL83" s="63"/>
-      <c r="BM83" s="63"/>
-      <c r="BN83" s="63"/>
-      <c r="BO83" s="63"/>
-      <c r="BP83" s="66"/>
-    </row>
-    <row r="84" spans="1:68" s="4" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3"/>
-      <c r="B84" s="105"/>
-      <c r="C84" s="207" t="s">
+      <c r="B83" s="268"/>
+      <c r="C83" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="D84" s="104"/>
-      <c r="E84" s="192"/>
-      <c r="F84" s="137"/>
-      <c r="G84" s="173"/>
-      <c r="H84" s="210" t="s">
+      <c r="D83" s="104"/>
+      <c r="E83" s="151"/>
+      <c r="F83" s="119"/>
+      <c r="G83" s="139"/>
+      <c r="H83" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="I84" s="211">
-        <f>SUM(I76:I83)</f>
+      <c r="I83" s="158">
+        <f>SUM(I75:I82)</f>
         <v>70</v>
       </c>
-      <c r="J84" s="178"/>
-      <c r="K84" s="72"/>
-      <c r="L84" s="73"/>
-      <c r="M84" s="73"/>
-      <c r="N84" s="73"/>
-      <c r="O84" s="73"/>
-      <c r="P84" s="73"/>
-      <c r="Q84" s="73"/>
-      <c r="R84" s="74"/>
-      <c r="S84" s="75"/>
-      <c r="T84" s="73"/>
-      <c r="U84" s="73"/>
-      <c r="V84" s="73"/>
-      <c r="W84" s="73"/>
-      <c r="X84" s="73"/>
-      <c r="Y84" s="73"/>
-      <c r="Z84" s="73"/>
-      <c r="AA84" s="73"/>
-      <c r="AB84" s="73"/>
-      <c r="AC84" s="73"/>
-      <c r="AD84" s="73"/>
-      <c r="AE84" s="73"/>
-      <c r="AF84" s="73"/>
-      <c r="AG84" s="73"/>
-      <c r="AH84" s="73"/>
-      <c r="AI84" s="73"/>
-      <c r="AJ84" s="73"/>
-      <c r="AK84" s="73"/>
-      <c r="AL84" s="73"/>
-      <c r="AM84" s="73"/>
-      <c r="AN84" s="73"/>
-      <c r="AO84" s="76"/>
-      <c r="AP84" s="77"/>
-      <c r="AQ84" s="73"/>
-      <c r="AR84" s="73"/>
-      <c r="AS84" s="73"/>
-      <c r="AT84" s="73"/>
-      <c r="AU84" s="73"/>
-      <c r="AV84" s="73"/>
-      <c r="AW84" s="73"/>
-      <c r="AX84" s="73"/>
-      <c r="AY84" s="73"/>
-      <c r="AZ84" s="73"/>
-      <c r="BA84" s="73"/>
-      <c r="BB84" s="73"/>
-      <c r="BC84" s="73"/>
-      <c r="BD84" s="73"/>
-      <c r="BE84" s="73"/>
-      <c r="BF84" s="73"/>
-      <c r="BG84" s="73"/>
-      <c r="BH84" s="73"/>
-      <c r="BI84" s="73"/>
-      <c r="BJ84" s="73"/>
-      <c r="BK84" s="73"/>
-      <c r="BL84" s="73"/>
-      <c r="BM84" s="73"/>
-      <c r="BN84" s="73"/>
-      <c r="BO84" s="73"/>
-      <c r="BP84" s="76"/>
+      <c r="J83" s="144"/>
+      <c r="K83" s="72"/>
+      <c r="L83" s="73"/>
+      <c r="M83" s="73"/>
+      <c r="N83" s="73"/>
+      <c r="O83" s="73"/>
+      <c r="P83" s="73"/>
+      <c r="Q83" s="73"/>
+      <c r="R83" s="74"/>
+      <c r="S83" s="75"/>
+      <c r="T83" s="73"/>
+      <c r="U83" s="73"/>
+      <c r="V83" s="73"/>
+      <c r="W83" s="73"/>
+      <c r="X83" s="73"/>
+      <c r="Y83" s="73"/>
+      <c r="Z83" s="73"/>
+      <c r="AA83" s="73"/>
+      <c r="AB83" s="73"/>
+      <c r="AC83" s="73"/>
+      <c r="AD83" s="73"/>
+      <c r="AE83" s="73"/>
+      <c r="AF83" s="73"/>
+      <c r="AG83" s="73"/>
+      <c r="AH83" s="73"/>
+      <c r="AI83" s="73"/>
+      <c r="AJ83" s="73"/>
+      <c r="AK83" s="73"/>
+      <c r="AL83" s="73"/>
+      <c r="AM83" s="73"/>
+      <c r="AN83" s="73"/>
+      <c r="AO83" s="76"/>
+      <c r="AP83" s="77"/>
+      <c r="AQ83" s="73"/>
+      <c r="AR83" s="73"/>
+      <c r="AS83" s="73"/>
+      <c r="AT83" s="73"/>
+      <c r="AU83" s="73"/>
+      <c r="AV83" s="73"/>
+      <c r="AW83" s="73"/>
+      <c r="AX83" s="73"/>
+      <c r="AY83" s="73"/>
+      <c r="AZ83" s="73"/>
+      <c r="BA83" s="73"/>
+      <c r="BB83" s="73"/>
+      <c r="BC83" s="73"/>
+      <c r="BD83" s="73"/>
+      <c r="BE83" s="73"/>
+      <c r="BF83" s="73"/>
+      <c r="BG83" s="73"/>
+      <c r="BH83" s="73"/>
+      <c r="BI83" s="73"/>
+      <c r="BJ83" s="73"/>
+      <c r="BK83" s="73"/>
+      <c r="BL83" s="73"/>
+      <c r="BM83" s="73"/>
+      <c r="BN83" s="73"/>
+      <c r="BO83" s="73"/>
+      <c r="BP83" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="101">
+    <mergeCell ref="C54:E60"/>
+    <mergeCell ref="C63:E64"/>
+    <mergeCell ref="C65:E72"/>
+    <mergeCell ref="AB23:AF23"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C18:E28"/>
+    <mergeCell ref="C31:E32"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D5:E5"/>
@@ -12392,33 +12452,25 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
     <mergeCell ref="AJ10:AN10"/>
     <mergeCell ref="AO10:AQ10"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:G30"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AR5:AS5"/>
     <mergeCell ref="AO6:AQ6"/>
     <mergeCell ref="AR6:AS6"/>
     <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="C76:E77"/>
-    <mergeCell ref="C78:E83"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="C75:E76"/>
+    <mergeCell ref="C77:E82"/>
+    <mergeCell ref="X20:Y20"/>
     <mergeCell ref="P4:R4"/>
     <mergeCell ref="P5:R5"/>
     <mergeCell ref="S5:T5"/>
@@ -12430,36 +12482,37 @@
     <mergeCell ref="S8:T8"/>
     <mergeCell ref="P9:R9"/>
     <mergeCell ref="S4:T4"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C44:E50"/>
-    <mergeCell ref="C53:E54"/>
-    <mergeCell ref="C55:E61"/>
-    <mergeCell ref="C64:E65"/>
-    <mergeCell ref="C66:E73"/>
-    <mergeCell ref="AB24:AF24"/>
-    <mergeCell ref="C16:E18"/>
-    <mergeCell ref="C19:E29"/>
-    <mergeCell ref="C32:E33"/>
-    <mergeCell ref="C34:E39"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C43:E49"/>
+    <mergeCell ref="C52:E53"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="B63:B73"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B16:B29"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="B41:B50"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="C41:E42"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="AH1:AU1"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C33:E38"/>
+    <mergeCell ref="S17:T17"/>
     <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="Z21:AA21"/>
     <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="Z23:AA23"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="T1:AG1"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="P3:T3"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B64:B74"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B16:B30"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="B53:B62"/>
-    <mergeCell ref="C42:E43"/>
-    <mergeCell ref="B76:B84"/>
-    <mergeCell ref="AH1:AU1"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AR5:AS5"/>
     <mergeCell ref="AV1:BI1"/>
     <mergeCell ref="BJ1:BP1"/>
     <mergeCell ref="AJ3:AN3"/>
@@ -12484,20 +12537,24 @@
     <mergeCell ref="K7:O7"/>
     <mergeCell ref="K8:O8"/>
     <mergeCell ref="K9:O9"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <phoneticPr fontId="32" type="noConversion"/>
+  <conditionalFormatting sqref="K16:BP16">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8E97B4D6-6DBD-480D-B456-08DD13EE50FF}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K4:O8 H16:H29 H42:H50 H32:H39 H53:H61 H64:H73 H76:H83</xm:sqref>
+          <xm:sqref>K4:O8 H41:H49 H31:H38 H52:H60 H63:H72 H75:H82 H16:H28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12506,6 +12563,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57B7624-D716-41BF-AB79-7AF6323B27B0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49940FD-9799-4E04-9567-0B5F9DA31366}">
   <dimension ref="A1:A7"/>
   <sheetViews>
